--- a/重庆二师_Dev/doc/ods-fdm -zkc.xlsx
+++ b/重庆二师_Dev/doc/ods-fdm -zkc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="997">
   <si>
     <t>字段名</t>
   </si>
@@ -913,9 +913,6 @@
     <t>JSZGH</t>
   </si>
   <si>
-    <t>教室职工号</t>
-  </si>
-  <si>
     <t>XKKH</t>
   </si>
   <si>
@@ -923,19 +920,6 @@
   </si>
   <si>
     <t>选课人数限定</t>
-  </si>
-  <si>
-    <t>XKXQM</t>
-  </si>
-  <si>
-    <t>选课学期码</t>
-  </si>
-  <si>
-    <t>SJXKRS</t>
-  </si>
-  <si>
-    <t>选课信息表 edu_fdm_kc_xsxkxx</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>XQ</t>
@@ -3017,10 +3001,6 @@
     <t>今年外借册数</t>
   </si>
   <si>
-    <t>edu_fdm_jzg)教职工基本信息表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>DESFXY</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4104,36 +4084,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>DESFXY</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>XSXKB(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学生选课表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)
-XSXKBN  ? XSXKB_TRIGGER?</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>课序号</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4194,28 +4144,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>JSBH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（教室编号）？？</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>XH</t>
     </r>
     <r>
@@ -4251,14 +4179,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>选课人数限定</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际选课人数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>JSXXB</t>
     </r>
@@ -4278,6 +4198,542 @@
     <t>课程评价汇总表（KCPJHZB）中的JSZGH（教师职工表）与教师信息表（JSXXB）中的ZGH（职工号可以关联）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>JXRWB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>（教学任务表）中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>XKKH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>（选课课号）与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>XSXKB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>（学生选课表）中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>XKKH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>相关联找到教师职工号（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>JSZGH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>选课学期码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>选课人数限定</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>RS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（人数）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际选课人数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>XQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（学期）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师职工号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>KCDM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（课程代码）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>KCPJHZB（课程评价汇总表）通过教职工工号做与XSXKB（学生选课表）关联</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>XSXKB</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSZGH</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JXRWB(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教学任务表</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>JXRWB</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>XKRSXD</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>XKXQM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SJXKRS</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>选课信息表 edu_fdm_kc_xsxkxx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师评价信息表(edu_fdm_kc_jspj)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PJNR</t>
+  </si>
+  <si>
+    <t>KCH</t>
+  </si>
+  <si>
+    <t>课程号</t>
+  </si>
+  <si>
+    <t>XSPFTJB</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>KCDM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（课程代码）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>XH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（学号）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>XN（学年）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>XQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（学期）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>评教号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>评教时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>评分</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DJSPF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（对教师评分）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JSZGH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（教师职工号）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>KCPJHZB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（课程评价汇总表）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DJ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（有等级字段，但是都是空）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>XSPFTJB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（学生评分统计表）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DJSPF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（对教师评分）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价内容</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSDJRSTJB</t>
+  </si>
+  <si>
+    <t>JSDJRSTJB</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JSDJRSTJB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？？？</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>XSPFTJB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（学生评分统计表）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>XH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（学号）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前不确定是"DESFXY"."JSDJRSTJB"，
+还是XSPFTJB（学生评分统计表），ods-fdm是按照"DESFXY"."JSDJRSTJB"表抽取的；</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PJNR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（评价内容）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>学号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PJH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（评教号）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>XQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（学期）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师评价信息表(edu_fdm_kc_jspj)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSDJRSTJB</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DJ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？？？这个怎么关联？？？？？ 目前是按照空处理到fdm</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？？？这个怎么关联？？？？？目前是按照空处理到fdm</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>edu_fdm_jzg)教职工基本信息表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -4286,7 +4742,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4423,6 +4879,42 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -4454,7 +4946,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -4538,6 +5030,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4551,7 +5067,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -4618,6 +5134,30 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5101,7 +5641,7 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>51</v>
@@ -5742,15 +6282,15 @@
         <v>46</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="58.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>91</v>
@@ -5766,15 +6306,15 @@
         <v>46</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>92</v>
@@ -5793,15 +6333,15 @@
         <v>128</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>10</v>
@@ -5820,7 +6360,7 @@
     </row>
     <row r="50" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>93</v>
@@ -5836,13 +6376,13 @@
         <v>46</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>94</v>
@@ -5858,18 +6398,18 @@
         <v>46</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>10</v>
@@ -5882,15 +6422,15 @@
         <v>46</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>95</v>
@@ -5912,7 +6452,7 @@
     </row>
     <row r="54" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>96</v>
@@ -5928,15 +6468,15 @@
         <v>46</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>97</v>
@@ -5977,15 +6517,15 @@
         <v>90</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>10</v>
@@ -6001,7 +6541,7 @@
         <v>90</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -6028,10 +6568,10 @@
     </row>
     <row r="59" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>10</v>
@@ -6047,15 +6587,15 @@
         <v>90</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>10</v>
@@ -6074,10 +6614,10 @@
     </row>
     <row r="61" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>10</v>
@@ -6090,10 +6630,10 @@
         <v>46</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -6101,7 +6641,7 @@
         <v>105</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>10</v>
@@ -6123,7 +6663,7 @@
         <v>106</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>44</v>
@@ -6145,7 +6685,7 @@
         <v>107</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>10</v>
@@ -6161,15 +6701,15 @@
         <v>90</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>10</v>
@@ -6188,10 +6728,10 @@
     </row>
     <row r="66" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>10</v>
@@ -6204,18 +6744,18 @@
         <v>46</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>10</v>
@@ -6237,7 +6777,7 @@
         <v>108</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>10</v>
@@ -6253,15 +6793,15 @@
         <v>90</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>104</v>
@@ -6283,7 +6823,7 @@
         <v>109</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>10</v>
@@ -6299,7 +6839,7 @@
         <v>90</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -6307,7 +6847,7 @@
         <v>110</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>10</v>
@@ -6323,15 +6863,15 @@
         <v>90</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>10</v>
@@ -6350,10 +6890,10 @@
     </row>
     <row r="73" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>10</v>
@@ -6372,10 +6912,10 @@
     </row>
     <row r="74" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>10</v>
@@ -6394,10 +6934,10 @@
     </row>
     <row r="75" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>10</v>
@@ -6413,15 +6953,15 @@
         <v>90</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>44</v>
@@ -6437,7 +6977,7 @@
         <v>90</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -6445,7 +6985,7 @@
         <v>111</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>44</v>
@@ -6461,7 +7001,7 @@
         <v>90</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -6469,7 +7009,7 @@
         <v>112</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>44</v>
@@ -6485,7 +7025,7 @@
         <v>90</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -6493,7 +7033,7 @@
         <v>113</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>44</v>
@@ -6509,7 +7049,7 @@
         <v>90</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -6517,7 +7057,7 @@
         <v>114</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>44</v>
@@ -6533,7 +7073,7 @@
         <v>90</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -6541,7 +7081,7 @@
         <v>115</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>44</v>
@@ -6557,7 +7097,7 @@
         <v>90</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -6565,7 +7105,7 @@
         <v>116</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>44</v>
@@ -6581,7 +7121,7 @@
         <v>90</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -6589,7 +7129,7 @@
         <v>117</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>44</v>
@@ -6605,7 +7145,7 @@
         <v>90</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -6613,7 +7153,7 @@
         <v>118</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>44</v>
@@ -6629,7 +7169,7 @@
         <v>90</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -6653,7 +7193,7 @@
         <v>90</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
     </row>
   </sheetData>
@@ -6665,22 +7205,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:H86"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>821</v>
+        <v>996</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -6724,16 +7265,16 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -6770,10 +7311,10 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -6781,7 +7322,7 @@
         <v>144</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>10</v>
@@ -6846,10 +7387,10 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -6857,7 +7398,7 @@
         <v>152</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>10</v>
@@ -6868,18 +7409,18 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>10</v>
@@ -6897,7 +7438,7 @@
         <v>156</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>10</v>
@@ -6908,18 +7449,18 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>104</v>
@@ -6930,18 +7471,18 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>104</v>
@@ -6959,7 +7500,7 @@
         <v>162</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>104</v>
@@ -6977,7 +7518,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>10</v>
@@ -6995,7 +7536,7 @@
         <v>164</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>104</v>
@@ -7042,10 +7583,10 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -7053,7 +7594,7 @@
         <v>170</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>104</v>
@@ -7071,7 +7612,7 @@
         <v>172</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>104</v>
@@ -7089,7 +7630,7 @@
         <v>174</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>104</v>
@@ -7107,7 +7648,7 @@
         <v>176</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>10</v>
@@ -7125,7 +7666,7 @@
         <v>178</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>10</v>
@@ -7143,7 +7684,7 @@
         <v>179</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>10</v>
@@ -7161,7 +7702,7 @@
         <v>181</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>10</v>
@@ -7172,10 +7713,10 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -7183,7 +7724,7 @@
         <v>182</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>10</v>
@@ -7201,7 +7742,7 @@
         <v>183</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>10</v>
@@ -7212,10 +7753,10 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -7306,10 +7847,10 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -7317,7 +7858,7 @@
         <v>194</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>104</v>
@@ -7371,7 +7912,7 @@
         <v>199</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>104</v>
@@ -7389,7 +7930,7 @@
         <v>200</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>10</v>
@@ -7407,7 +7948,7 @@
         <v>201</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>104</v>
@@ -7472,10 +8013,10 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -7494,10 +8035,10 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -7842,12 +8383,12 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="69" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -7873,12 +8414,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="73.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>257</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>10</v>
@@ -7888,19 +8429,24 @@
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6" t="s">
-        <v>940</v>
+        <v>816</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>941</v>
-      </c>
-      <c r="H71" s="7"/>
-    </row>
-    <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>956</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="I71" s="23" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>258</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>10</v>
@@ -7910,12 +8456,12 @@
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6" t="s">
-        <v>210</v>
+        <v>816</v>
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>259</v>
       </c>
@@ -7930,16 +8476,16 @@
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
-        <v>210</v>
+        <v>816</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>261</v>
       </c>
@@ -7954,21 +8500,21 @@
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6" t="s">
-        <v>210</v>
+        <v>816</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>943</v>
+        <v>953</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="44.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="60.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>263</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>264</v>
+        <v>950</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>10</v>
@@ -7978,16 +8524,19 @@
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="G75" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="G75" s="25" t="s">
+        <v>955</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>954</v>
+      </c>
+      <c r="I75" s="24" t="s">
         <v>943</v>
       </c>
-      <c r="H75" s="11" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>13</v>
       </c>
@@ -8002,21 +8551,21 @@
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6" t="s">
-        <v>210</v>
+        <v>816</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>10</v>
@@ -8026,21 +8575,21 @@
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6" t="s">
-        <v>210</v>
+        <v>816</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>266</v>
+        <v>957</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>44</v>
@@ -8050,17 +8599,21 @@
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-    </row>
-    <row r="79" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>816</v>
+      </c>
+      <c r="G78" s="25" t="s">
+        <v>955</v>
+      </c>
+      <c r="H78" s="25" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>268</v>
+        <v>958</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>269</v>
+        <v>944</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>10</v>
@@ -8070,142 +8623,146 @@
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-    </row>
-    <row r="80" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>816</v>
+      </c>
+      <c r="G79" s="25" t="s">
+        <v>955</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>270</v>
+        <v>959</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>44</v>
+        <v>945</v>
       </c>
       <c r="D80" s="6">
         <v>11</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
+        <v>816</v>
+      </c>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="11">
+        <v>1</v>
+      </c>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+    </row>
+    <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="11">
+        <v>20</v>
+      </c>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+    </row>
+    <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="C83" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="11">
+        <v>20</v>
+      </c>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+    </row>
+    <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="6">
-        <v>1</v>
-      </c>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-    </row>
-    <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
+      <c r="B84" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="C84" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="11">
+        <v>20</v>
+      </c>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+    </row>
+    <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" s="6">
-        <v>20</v>
-      </c>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-    </row>
-    <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
+      <c r="B85" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="C85" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85" s="11">
+        <v>11</v>
+      </c>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+    </row>
+    <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" s="6">
-        <v>20</v>
-      </c>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-    </row>
-    <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+      <c r="B86" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D84" s="6">
-        <v>20</v>
-      </c>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-    </row>
-    <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D85" s="6">
-        <v>11</v>
-      </c>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-    </row>
-    <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" s="6">
+      <c r="C86" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="11">
         <v>100</v>
       </c>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -8249,10 +8806,10 @@
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="H93" s="7"/>
     </row>
@@ -8276,10 +8833,10 @@
     </row>
     <row r="95" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>10</v>
@@ -8294,10 +8851,10 @@
     </row>
     <row r="96" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>10</v>
@@ -8312,10 +8869,10 @@
     </row>
     <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>10</v>
@@ -8330,10 +8887,10 @@
     </row>
     <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>10</v>
@@ -8348,10 +8905,10 @@
     </row>
     <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>10</v>
@@ -8366,10 +8923,10 @@
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>44</v>
@@ -8384,10 +8941,10 @@
     </row>
     <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>44</v>
@@ -8402,10 +8959,10 @@
     </row>
     <row r="102" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>10</v>
@@ -8420,10 +8977,10 @@
     </row>
     <row r="103" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>10</v>
@@ -8438,10 +8995,10 @@
     </row>
     <row r="104" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>44</v>
@@ -8474,10 +9031,10 @@
     </row>
     <row r="106" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>10</v>
@@ -8492,10 +9049,10 @@
     </row>
     <row r="107" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>10</v>
@@ -8510,10 +9067,10 @@
     </row>
     <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>44</v>
@@ -8528,10 +9085,10 @@
     </row>
     <row r="109" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>44</v>
@@ -8546,10 +9103,10 @@
     </row>
     <row r="110" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>10</v>
@@ -8564,10 +9121,10 @@
     </row>
     <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>10</v>
@@ -8598,12 +9155,12 @@
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>10</v>
@@ -8616,12 +9173,12 @@
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>10</v>
@@ -8634,12 +9191,12 @@
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>10</v>
@@ -8652,12 +9209,12 @@
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>10</v>
@@ -8670,9 +9227,530 @@
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
+    <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>982</v>
+      </c>
+      <c r="H121" s="26"/>
+      <c r="I121" s="27"/>
+    </row>
+    <row r="122" spans="1:9" ht="44.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" s="6">
+        <v>256</v>
+      </c>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>966</v>
+      </c>
+      <c r="I122" s="30" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="25.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="6">
+        <v>20</v>
+      </c>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6" t="s">
+        <v>965</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="6">
+        <v>30</v>
+      </c>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6" t="s">
+        <v>965</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" s="6">
+        <v>1</v>
+      </c>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6" t="s">
+        <v>965</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="6">
+        <v>20</v>
+      </c>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+    </row>
+    <row r="127" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="6">
+        <v>20</v>
+      </c>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+    </row>
+    <row r="128" spans="1:9" ht="58.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="6">
+        <v>20</v>
+      </c>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6" t="s">
+        <v>975</v>
+      </c>
+      <c r="H128" s="6" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D129" s="6">
+        <v>11</v>
+      </c>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6" t="s">
+        <v>965</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="6">
+        <v>100</v>
+      </c>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6" t="s">
+        <v>965</v>
+      </c>
+      <c r="H130" s="6" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" s="29" t="s">
+        <v>989</v>
+      </c>
+      <c r="E134" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F134" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G134" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H134" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="37.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>982</v>
+      </c>
+      <c r="H135" s="26" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="37.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" s="6">
+        <v>256</v>
+      </c>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>981</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="44.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="6">
+        <v>20</v>
+      </c>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="G137" s="11" t="s">
+        <v>983</v>
+      </c>
+      <c r="H137" s="12" t="s">
+        <v>984</v>
+      </c>
+      <c r="I137" s="31" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" s="6">
+        <v>30</v>
+      </c>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" s="6">
+        <v>1</v>
+      </c>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" s="6">
+        <v>20</v>
+      </c>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" s="6">
+        <v>20</v>
+      </c>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+    </row>
+    <row r="142" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" s="6">
+        <v>20</v>
+      </c>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>992</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="44.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D143" s="6">
+        <v>11</v>
+      </c>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="I143" s="31" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" s="6">
+        <v>100</v>
+      </c>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="H144" s="6" t="s">
+        <v>974</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8691,7 +9769,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -8735,10 +9813,10 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>13</v>
@@ -8759,10 +9837,10 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>142</v>
@@ -8783,13 +9861,13 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8807,13 +9885,13 @@
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8831,13 +9909,13 @@
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8855,13 +9933,13 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8879,10 +9957,10 @@
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>152</v>
@@ -8903,13 +9981,13 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8927,13 +10005,13 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8951,13 +10029,13 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -8975,13 +10053,13 @@
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8989,7 +10067,7 @@
         <v>162</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>10</v>
@@ -8999,10 +10077,10 @@
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H14" s="6"/>
     </row>
@@ -9021,18 +10099,18 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>165</v>
@@ -9045,13 +10123,13 @@
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -9069,10 +10147,10 @@
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H17" s="7"/>
     </row>
@@ -9091,13 +10169,13 @@
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -9115,18 +10193,18 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="37.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>173</v>
@@ -9139,13 +10217,13 @@
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -9163,13 +10241,13 @@
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -9187,10 +10265,10 @@
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H22" s="7"/>
     </row>
@@ -9199,7 +10277,7 @@
         <v>178</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>10</v>
@@ -9209,19 +10287,19 @@
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>10</v>
@@ -9231,19 +10309,19 @@
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>10</v>
@@ -9253,21 +10331,21 @@
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>10</v>
@@ -9277,19 +10355,19 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>10</v>
@@ -9299,16 +10377,16 @@
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H27" s="7"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -9352,10 +10430,10 @@
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>13</v>
@@ -9363,10 +10441,10 @@
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>10</v>
@@ -9376,21 +10454,21 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>10</v>
@@ -9400,42 +10478,42 @@
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>100</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>239</v>
@@ -9448,21 +10526,21 @@
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>10</v>
@@ -9472,21 +10550,21 @@
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>10</v>
@@ -9496,21 +10574,21 @@
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>104</v>
@@ -9520,19 +10598,19 @@
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>10</v>
@@ -9542,21 +10620,21 @@
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>10</v>
@@ -9566,21 +10644,21 @@
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>10</v>
@@ -9590,13 +10668,13 @@
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -9614,21 +10692,21 @@
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>10</v>
@@ -9638,21 +10716,21 @@
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>10</v>
@@ -9662,19 +10740,19 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>10</v>
@@ -9684,21 +10762,21 @@
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>10</v>
@@ -9708,21 +10786,21 @@
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>10</v>
@@ -9732,19 +10810,19 @@
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>10</v>
@@ -9754,19 +10832,19 @@
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>10</v>
@@ -9776,16 +10854,16 @@
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H61" s="7"/>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -9829,10 +10907,10 @@
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>13</v>
@@ -9840,10 +10918,10 @@
     </row>
     <row r="69" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>10</v>
@@ -9853,21 +10931,21 @@
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>10</v>
@@ -9877,19 +10955,19 @@
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H70" s="7"/>
     </row>
     <row r="71" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>10</v>
@@ -9899,19 +10977,19 @@
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>10</v>
@@ -9921,21 +10999,21 @@
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>10</v>
@@ -9945,21 +11023,21 @@
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>10</v>
@@ -9969,21 +11047,21 @@
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>10</v>
@@ -9993,21 +11071,21 @@
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>10</v>
@@ -10017,21 +11095,21 @@
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>10</v>
@@ -10041,19 +11119,19 @@
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>104</v>
@@ -10063,19 +11141,19 @@
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H78" s="7"/>
     </row>
     <row r="79" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>104</v>
@@ -10085,16 +11163,16 @@
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H79" s="6"/>
     </row>
     <row r="82" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="21" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -10138,10 +11216,10 @@
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>13</v>
@@ -10149,10 +11227,10 @@
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>10</v>
@@ -10162,21 +11240,21 @@
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>10</v>
@@ -10186,19 +11264,19 @@
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H86" s="7"/>
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>10</v>
@@ -10208,21 +11286,21 @@
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>10</v>
@@ -10232,21 +11310,21 @@
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>10</v>
@@ -10256,19 +11334,19 @@
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>10</v>
@@ -10278,21 +11356,21 @@
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>20</v>
@@ -10302,18 +11380,18 @@
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -10362,10 +11440,10 @@
     </row>
     <row r="98" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>10</v>
@@ -10380,10 +11458,10 @@
     </row>
     <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>10</v>
@@ -10398,10 +11476,10 @@
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>10</v>
@@ -10416,10 +11494,10 @@
     </row>
     <row r="101" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>10</v>
@@ -10434,10 +11512,10 @@
     </row>
     <row r="102" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>10</v>
@@ -10452,10 +11530,10 @@
     </row>
     <row r="103" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>10</v>
@@ -10467,7 +11545,7 @@
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -10493,7 +11571,7 @@
         <v>219</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>20</v>
@@ -10508,7 +11586,7 @@
     </row>
     <row r="108" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="21" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -10552,10 +11630,10 @@
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H110" s="7" t="s">
         <v>13</v>
@@ -10576,19 +11654,19 @@
       </c>
       <c r="E111" s="6"/>
       <c r="F111" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H111" s="7"/>
     </row>
     <row r="112" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>10</v>
@@ -10598,21 +11676,21 @@
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>10</v>
@@ -10622,21 +11700,21 @@
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>10</v>
@@ -10646,21 +11724,21 @@
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>10</v>
@@ -10670,19 +11748,19 @@
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H115" s="6"/>
     </row>
     <row r="116" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>10</v>
@@ -10692,21 +11770,21 @@
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>10</v>
@@ -10716,19 +11794,19 @@
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H117" s="6"/>
     </row>
     <row r="118" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>10</v>
@@ -10738,19 +11816,19 @@
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H118" s="6"/>
     </row>
     <row r="119" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>10</v>
@@ -10760,19 +11838,19 @@
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H119" s="6"/>
     </row>
     <row r="120" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>10</v>
@@ -10782,19 +11860,19 @@
       </c>
       <c r="E120" s="6"/>
       <c r="F120" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H120" s="6"/>
     </row>
     <row r="121" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>10</v>
@@ -10804,16 +11882,16 @@
       </c>
       <c r="E121" s="6"/>
       <c r="F121" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H121" s="6"/>
     </row>
     <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -10857,10 +11935,10 @@
       </c>
       <c r="E127" s="6"/>
       <c r="F127" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H127" s="6" t="s">
         <v>13</v>
@@ -10868,10 +11946,10 @@
     </row>
     <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>10</v>
@@ -10881,21 +11959,21 @@
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>10</v>
@@ -10905,21 +11983,21 @@
       </c>
       <c r="E129" s="6"/>
       <c r="F129" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>10</v>
@@ -10929,19 +12007,19 @@
       </c>
       <c r="E130" s="6"/>
       <c r="F130" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H130" s="6"/>
     </row>
     <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>10</v>
@@ -10951,21 +12029,21 @@
       </c>
       <c r="E131" s="6"/>
       <c r="F131" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>10</v>
@@ -10975,19 +12053,19 @@
       </c>
       <c r="E132" s="6"/>
       <c r="F132" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H132" s="6"/>
     </row>
     <row r="133" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>10</v>
@@ -10997,21 +12075,21 @@
       </c>
       <c r="E133" s="6"/>
       <c r="F133" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>10</v>
@@ -11021,19 +12099,19 @@
       </c>
       <c r="E134" s="6"/>
       <c r="F134" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H134" s="6"/>
     </row>
     <row r="135" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>10</v>
@@ -11043,21 +12121,21 @@
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>10</v>
@@ -11067,19 +12145,19 @@
       </c>
       <c r="E136" s="6"/>
       <c r="F136" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H136" s="6"/>
     </row>
     <row r="137" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>10</v>
@@ -11089,16 +12167,16 @@
       </c>
       <c r="E137" s="6"/>
       <c r="F137" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H137" s="6"/>
     </row>
     <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -11142,21 +12220,21 @@
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H145" s="22" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>10</v>
@@ -11166,21 +12244,21 @@
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H146" s="22" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>10</v>
@@ -11195,10 +12273,10 @@
     </row>
     <row r="148" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>10</v>
@@ -11213,10 +12291,10 @@
     </row>
     <row r="149" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>10</v>
@@ -11231,10 +12309,10 @@
     </row>
     <row r="150" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>10</v>
@@ -11249,10 +12327,10 @@
     </row>
     <row r="151" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>10</v>
@@ -11267,7 +12345,7 @@
     </row>
     <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -11316,10 +12394,10 @@
     </row>
     <row r="158" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>104</v>
@@ -11334,10 +12412,10 @@
     </row>
     <row r="159" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>10</v>
@@ -11352,10 +12430,10 @@
     </row>
     <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>104</v>
@@ -11370,7 +12448,7 @@
     </row>
     <row r="164" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -11401,10 +12479,10 @@
     </row>
     <row r="166" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>10</v>
@@ -11414,19 +12492,19 @@
       </c>
       <c r="E166" s="6"/>
       <c r="F166" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H166" s="7"/>
     </row>
     <row r="167" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>10</v>
@@ -11436,21 +12514,21 @@
       </c>
       <c r="E167" s="6"/>
       <c r="F167" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>10</v>
@@ -11460,21 +12538,21 @@
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>10</v>
@@ -11484,21 +12562,21 @@
       </c>
       <c r="E169" s="6"/>
       <c r="F169" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H169" s="6" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>10</v>
@@ -11508,21 +12586,21 @@
       </c>
       <c r="E170" s="6"/>
       <c r="F170" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H170" s="6" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>10</v>
@@ -11532,21 +12610,21 @@
       </c>
       <c r="E171" s="6"/>
       <c r="F171" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>10</v>
@@ -11556,21 +12634,21 @@
       </c>
       <c r="E172" s="6"/>
       <c r="F172" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>10</v>
@@ -11580,21 +12658,21 @@
       </c>
       <c r="E173" s="6"/>
       <c r="F173" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>10</v>
@@ -11604,21 +12682,21 @@
       </c>
       <c r="E174" s="6"/>
       <c r="F174" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>10</v>
@@ -11628,21 +12706,21 @@
       </c>
       <c r="E175" s="6"/>
       <c r="F175" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H175" s="6" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>10</v>
@@ -11652,21 +12730,21 @@
       </c>
       <c r="E176" s="6"/>
       <c r="F176" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>10</v>
@@ -11676,45 +12754,45 @@
       </c>
       <c r="E177" s="6"/>
       <c r="F177" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>100</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E178" s="6"/>
       <c r="F178" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>10</v>
@@ -11724,21 +12802,21 @@
       </c>
       <c r="E179" s="6"/>
       <c r="F179" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>10</v>
@@ -11748,21 +12826,21 @@
       </c>
       <c r="E180" s="6"/>
       <c r="F180" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H180" s="6" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>10</v>
@@ -11772,21 +12850,21 @@
       </c>
       <c r="E181" s="6"/>
       <c r="F181" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H181" s="6" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>10</v>
@@ -11796,37 +12874,37 @@
       </c>
       <c r="E182" s="6"/>
       <c r="F182" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H182" s="6" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>100</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E183" s="6"/>
       <c r="F183" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H183" s="6" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -11844,10 +12922,10 @@
       </c>
       <c r="E184" s="6"/>
       <c r="F184" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H184" s="6" t="s">
         <v>13</v>
@@ -11868,19 +12946,19 @@
       </c>
       <c r="E185" s="6"/>
       <c r="F185" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H185" s="6"/>
     </row>
     <row r="186" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>104</v>
@@ -11890,19 +12968,19 @@
       </c>
       <c r="E186" s="6"/>
       <c r="F186" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H186" s="6"/>
     </row>
     <row r="187" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>10</v>
@@ -11912,13 +12990,13 @@
       </c>
       <c r="E187" s="6"/>
       <c r="F187" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H187" s="6" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -11943,7 +13021,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -11967,7 +13045,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -11998,10 +13076,10 @@
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>10</v>
@@ -12018,10 +13096,10 @@
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
@@ -12038,10 +13116,10 @@
     </row>
     <row r="5" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>17</v>
@@ -12058,10 +13136,10 @@
     </row>
     <row r="6" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>17</v>
@@ -12078,10 +13156,10 @@
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>10</v>
@@ -12134,16 +13212,16 @@
         <v>211</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>10</v>
@@ -12160,10 +13238,10 @@
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>10</v>
@@ -12180,10 +13258,10 @@
     </row>
     <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>17</v>
@@ -12200,10 +13278,10 @@
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>17</v>
@@ -12220,10 +13298,10 @@
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>17</v>
@@ -12260,10 +13338,10 @@
     </row>
     <row r="16" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>17</v>
@@ -12280,10 +13358,10 @@
     </row>
     <row r="17" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>17</v>
@@ -12300,10 +13378,10 @@
     </row>
     <row r="18" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>17</v>
@@ -12320,10 +13398,10 @@
     </row>
     <row r="19" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>17</v>
@@ -12340,10 +13418,10 @@
     </row>
     <row r="20" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>17</v>
@@ -12360,10 +13438,10 @@
     </row>
     <row r="21" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>17</v>
@@ -12380,10 +13458,10 @@
     </row>
     <row r="22" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>17</v>
@@ -12400,10 +13478,10 @@
     </row>
     <row r="23" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>17</v>
@@ -12420,10 +13498,10 @@
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>10</v>
@@ -12440,10 +13518,10 @@
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>10</v>
@@ -12460,10 +13538,10 @@
     </row>
     <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>10</v>
@@ -12480,10 +13558,10 @@
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>10</v>
@@ -12503,7 +13581,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>10</v>
@@ -12520,10 +13598,10 @@
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>10</v>
@@ -12540,10 +13618,10 @@
     </row>
     <row r="30" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>10</v>
@@ -12557,15 +13635,15 @@
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>10</v>
@@ -12579,15 +13657,15 @@
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>10</v>
@@ -12604,10 +13682,10 @@
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>10</v>
@@ -12624,10 +13702,10 @@
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>10</v>
@@ -12644,10 +13722,10 @@
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>10</v>
@@ -12664,10 +13742,10 @@
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>10</v>
@@ -12684,7 +13762,7 @@
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -12715,10 +13793,10 @@
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>10</v>
@@ -12735,10 +13813,10 @@
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>10</v>
@@ -12755,10 +13833,10 @@
     </row>
     <row r="45" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>10</v>
@@ -12775,10 +13853,10 @@
     </row>
     <row r="46" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>10</v>
@@ -12795,10 +13873,10 @@
     </row>
     <row r="47" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>10</v>
@@ -12812,15 +13890,15 @@
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>10</v>
@@ -12834,15 +13912,15 @@
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>10</v>
@@ -12856,15 +13934,15 @@
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>10</v>
@@ -12881,7 +13959,7 @@
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -12912,10 +13990,10 @@
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>10</v>
@@ -12932,10 +14010,10 @@
     </row>
     <row r="58" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>10</v>
@@ -12952,10 +14030,10 @@
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>10</v>
@@ -12972,10 +14050,10 @@
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>10</v>
@@ -12992,16 +14070,16 @@
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>100</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
@@ -13012,10 +14090,10 @@
     </row>
     <row r="62" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>10</v>
@@ -13032,10 +14110,10 @@
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>10</v>
@@ -13052,10 +14130,10 @@
     </row>
     <row r="64" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>10</v>
@@ -13072,10 +14150,10 @@
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>10</v>
@@ -13092,10 +14170,10 @@
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>10</v>
@@ -13112,10 +14190,10 @@
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>10</v>
@@ -13132,10 +14210,10 @@
     </row>
     <row r="68" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>10</v>
@@ -13152,10 +14230,10 @@
     </row>
     <row r="69" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>44</v>
@@ -13172,16 +14250,16 @@
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>100</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6" t="s">
@@ -13211,7 +14289,7 @@
   <sheetData>
     <row r="1" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="2" spans="5:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -13279,7 +14357,7 @@
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="8" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="5" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -13300,16 +14378,16 @@
         <v>211</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="4" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>10</v>
@@ -13326,10 +14404,10 @@
     </row>
     <row r="7" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="4" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>10</v>
@@ -13346,10 +14424,10 @@
     </row>
     <row r="8" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="4" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>10</v>
@@ -13362,22 +14440,22 @@
         <v>210</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="4" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>100</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6" t="s">
@@ -13385,15 +14463,15 @@
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="5" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="10" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="4" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>10</v>
@@ -13407,15 +14485,15 @@
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="11" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11" s="4" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>10</v>
@@ -13429,15 +14507,15 @@
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="12" spans="5:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="4" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>10</v>
@@ -13454,10 +14532,10 @@
     </row>
     <row r="13" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="4" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>10</v>
@@ -13470,13 +14548,13 @@
         <v>211</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="L13" s="6"/>
     </row>
     <row r="17" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="18" spans="5:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -13547,10 +14625,10 @@
     </row>
     <row r="21" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="4" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>10</v>
@@ -13567,10 +14645,10 @@
     </row>
     <row r="22" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22" s="4" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>10</v>
@@ -13583,16 +14661,16 @@
         <v>211</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23" s="4" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>10</v>
@@ -13605,16 +14683,16 @@
         <v>211</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="L23" s="6"/>
     </row>
     <row r="24" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E24" s="4" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>10</v>
@@ -13627,16 +14705,16 @@
         <v>211</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="L24" s="6"/>
     </row>
     <row r="25" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E25" s="4" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>10</v>
@@ -13650,21 +14728,21 @@
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="5" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="26" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="4" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>100</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6" t="s">
@@ -13675,10 +14753,10 @@
     </row>
     <row r="27" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="4" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>10</v>
@@ -13695,10 +14773,10 @@
     </row>
     <row r="28" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28" s="4" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>10</v>
@@ -13712,15 +14790,15 @@
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="6" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="29" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E29" s="4" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>10</v>
@@ -13737,10 +14815,10 @@
     </row>
     <row r="30" spans="5:12" ht="59.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E30" s="4" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>10</v>
@@ -13754,15 +14832,15 @@
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="31" spans="5:12" ht="75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E31" s="4" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>10</v>
@@ -13776,15 +14854,15 @@
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="6" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
     </row>
     <row r="32" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E32" s="4" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>10</v>
@@ -13798,15 +14876,15 @@
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="6" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="33" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E33" s="4" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>10</v>
@@ -13823,10 +14901,10 @@
     </row>
     <row r="34" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E34" s="4" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>10</v>
@@ -13843,7 +14921,7 @@
     </row>
     <row r="38" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="39" spans="5:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -13914,16 +14992,16 @@
     </row>
     <row r="42" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E42" s="4" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>100</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6" t="s">
@@ -13931,15 +15009,15 @@
       </c>
       <c r="K42" s="6"/>
       <c r="L42" s="8" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="43" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E43" s="4" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>10</v>
@@ -13956,10 +15034,10 @@
     </row>
     <row r="44" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E44" s="4" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>10</v>
@@ -13973,15 +15051,15 @@
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="6" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="45" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E45" s="4" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>10</v>
@@ -13998,10 +15076,10 @@
     </row>
     <row r="46" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E46" s="4" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>10</v>
@@ -14018,10 +15096,10 @@
     </row>
     <row r="47" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="4" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>10</v>
@@ -14038,10 +15116,10 @@
     </row>
     <row r="48" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E48" s="4" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>10</v>
@@ -14058,10 +15136,10 @@
     </row>
     <row r="49" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E49" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>10</v>
@@ -14075,15 +15153,15 @@
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="50" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E50" s="4" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>10</v>
@@ -14100,10 +15178,10 @@
     </row>
     <row r="51" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E51" s="4" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>10</v>
@@ -14117,15 +15195,15 @@
       </c>
       <c r="K51" s="6"/>
       <c r="L51" s="6" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="52" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E52" s="4" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>10</v>
@@ -14142,10 +15220,10 @@
     </row>
     <row r="53" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E53" s="4" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>10</v>
@@ -14159,15 +15237,15 @@
       </c>
       <c r="K53" s="6"/>
       <c r="L53" s="6" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="54" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E54" s="4" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>10</v>
@@ -14181,15 +15259,15 @@
       </c>
       <c r="K54" s="6"/>
       <c r="L54" s="6" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="55" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E55" s="4" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>10</v>
@@ -14206,7 +15284,7 @@
     </row>
     <row r="60" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="61" spans="5:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -14240,7 +15318,7 @@
         <v>13</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>10</v>
@@ -14274,7 +15352,7 @@
       </c>
       <c r="K63" s="6"/>
       <c r="L63" s="7" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="64" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -14355,7 +15433,7 @@
         <v>211</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="L67" s="6"/>
     </row>
@@ -14378,7 +15456,7 @@
       </c>
       <c r="K68" s="6"/>
       <c r="L68" s="6" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="69" spans="5:12" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -14386,7 +15464,7 @@
         <v>160</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>10</v>
@@ -14399,16 +15477,16 @@
         <v>211</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="L69" s="6"/>
     </row>
     <row r="70" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E70" s="4" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>10</v>
@@ -14425,10 +15503,10 @@
     </row>
     <row r="71" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E71" s="4" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>17</v>
@@ -14445,10 +15523,10 @@
     </row>
     <row r="72" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E72" s="4" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>10</v>
@@ -14465,10 +15543,10 @@
     </row>
     <row r="73" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E73" s="4" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>10</v>
@@ -14485,10 +15563,10 @@
     </row>
     <row r="74" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E74" s="4" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>10</v>
@@ -14505,10 +15583,10 @@
     </row>
     <row r="75" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E75" s="4" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>10</v>
@@ -14525,10 +15603,10 @@
     </row>
     <row r="76" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E76" s="4" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>10</v>
@@ -14545,10 +15623,10 @@
     </row>
     <row r="77" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E77" s="4" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>10</v>
@@ -14565,10 +15643,10 @@
     </row>
     <row r="78" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E78" s="4" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>10</v>
@@ -14585,10 +15663,10 @@
     </row>
     <row r="79" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E79" s="4" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>10</v>
@@ -14602,15 +15680,15 @@
       </c>
       <c r="K79" s="6"/>
       <c r="L79" s="6" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="80" spans="5:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E80" s="4" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>10</v>
@@ -14624,15 +15702,15 @@
       </c>
       <c r="K80" s="6"/>
       <c r="L80" s="6" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="81" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E81" s="4" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>10</v>
@@ -14649,10 +15727,10 @@
     </row>
     <row r="82" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E82" s="4" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>10</v>
@@ -14669,10 +15747,10 @@
     </row>
     <row r="83" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E83" s="4" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>10</v>
@@ -14689,10 +15767,10 @@
     </row>
     <row r="84" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E84" s="4" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>10</v>
@@ -14709,10 +15787,10 @@
     </row>
     <row r="85" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E85" s="4" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>10</v>
@@ -14729,10 +15807,10 @@
     </row>
     <row r="86" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E86" s="4" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>10</v>
@@ -14749,10 +15827,10 @@
     </row>
     <row r="87" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E87" s="4" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>10</v>
@@ -14765,16 +15843,16 @@
         <v>210</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="L87" s="6"/>
     </row>
     <row r="88" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E88" s="4" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>10</v>
@@ -14791,10 +15869,10 @@
     </row>
     <row r="89" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E89" s="4" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>10</v>
@@ -14811,10 +15889,10 @@
     </row>
     <row r="90" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E90" s="4" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>10</v>
@@ -14831,10 +15909,10 @@
     </row>
     <row r="91" spans="5:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E91" s="4" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>10</v>
@@ -14851,10 +15929,10 @@
     </row>
     <row r="92" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E92" s="4" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="G92" s="6" t="s">
         <v>10</v>

--- a/重庆二师_Dev/doc/ods-fdm -zkc.xlsx
+++ b/重庆二师_Dev/doc/ods-fdm -zkc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="图书（3）" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3396" uniqueCount="1299">
   <si>
     <t>字段名</t>
   </si>
@@ -4734,6 +4734,1377 @@
     <t>edu_fdm_jzg)教职工基本信息表</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>LWBH</t>
+  </si>
+  <si>
+    <t>论文编号</t>
+  </si>
+  <si>
+    <t>LWZWMC</t>
+  </si>
+  <si>
+    <t>论文中文名称</t>
+  </si>
+  <si>
+    <t>LWYWMC</t>
+  </si>
+  <si>
+    <t>论文英文名称</t>
+  </si>
+  <si>
+    <t>LWLXM</t>
+  </si>
+  <si>
+    <t>论文类型码</t>
+  </si>
+  <si>
+    <t>edu_hb_hdlx</t>
+  </si>
+  <si>
+    <t>LZLBM</t>
+  </si>
+  <si>
+    <t>论著类别码</t>
+  </si>
+  <si>
+    <t>edu_hb_lzlb</t>
+  </si>
+  <si>
+    <t>XKLYM</t>
+  </si>
+  <si>
+    <t>学科领域码</t>
+  </si>
+  <si>
+    <t>XKMLKJM</t>
+  </si>
+  <si>
+    <t>学科门类（科技）码</t>
+  </si>
+  <si>
+    <t>edu_hb_xkml</t>
+  </si>
+  <si>
+    <t>XMLYM</t>
+  </si>
+  <si>
+    <t>项目来源码</t>
+  </si>
+  <si>
+    <t>edu_hb_xmly</t>
+  </si>
+  <si>
+    <t>ZGYZM</t>
+  </si>
+  <si>
+    <t>edu_hb_zgyz</t>
+  </si>
+  <si>
+    <t>YZM</t>
+  </si>
+  <si>
+    <t>edu_hb_yz</t>
+  </si>
+  <si>
+    <t>SSXMBH</t>
+  </si>
+  <si>
+    <t>所属项目编号</t>
+  </si>
+  <si>
+    <t>SSJSLY</t>
+  </si>
+  <si>
+    <t>所属技术领域</t>
+  </si>
+  <si>
+    <t>LZSLQKM</t>
+  </si>
+  <si>
+    <t>论著收录情况码</t>
+  </si>
+  <si>
+    <t>学校自编</t>
+  </si>
+  <si>
+    <t>QTSLQK</t>
+  </si>
+  <si>
+    <t>其他收录情况</t>
+  </si>
+  <si>
+    <t>SLSJ</t>
+  </si>
+  <si>
+    <t>收录时间</t>
+  </si>
+  <si>
+    <t>edu_dim_dw</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>KWMC</t>
+  </si>
+  <si>
+    <t>刊物名称</t>
+  </si>
+  <si>
+    <t>FBRQ</t>
+  </si>
+  <si>
+    <t>发表日期</t>
+  </si>
+  <si>
+    <t>CBH</t>
+  </si>
+  <si>
+    <t>出版号</t>
+  </si>
+  <si>
+    <t>KWJBM</t>
+  </si>
+  <si>
+    <t>刊物级别码</t>
+  </si>
+  <si>
+    <t>edu_hb_kwjb</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>年号</t>
+  </si>
+  <si>
+    <t>JH</t>
+  </si>
+  <si>
+    <t>卷号</t>
+  </si>
+  <si>
+    <t>QH</t>
+  </si>
+  <si>
+    <t>期号</t>
+  </si>
+  <si>
+    <t>ZQH</t>
+  </si>
+  <si>
+    <t>总期号</t>
+  </si>
+  <si>
+    <t>QSYH</t>
+  </si>
+  <si>
+    <t>起始页号</t>
+  </si>
+  <si>
+    <t>CBSJBM</t>
+  </si>
+  <si>
+    <t>edu_hb_cbsjb</t>
+  </si>
+  <si>
+    <t>KWBH</t>
+  </si>
+  <si>
+    <t>刊物编号</t>
+  </si>
+  <si>
+    <t>KWLXM</t>
+  </si>
+  <si>
+    <t>刊物类型码</t>
+  </si>
+  <si>
+    <t>ISSN</t>
+  </si>
+  <si>
+    <t>国际标准期刊号</t>
+  </si>
+  <si>
+    <t>1、论文基本信息表(edu_fdm_ky_lw)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>论文基本信息表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(edu_fdm_ky_lw_attr)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RYH</t>
+  </si>
+  <si>
+    <t>人员号</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>DWMC</t>
+  </si>
+  <si>
+    <t>单位名称</t>
+  </si>
+  <si>
+    <t>GZL</t>
+  </si>
+  <si>
+    <t>工作量</t>
+  </si>
+  <si>
+    <t>6,2</t>
+  </si>
+  <si>
+    <t>个人参与项目的工作量比例，单位：％</t>
+  </si>
+  <si>
+    <t>MNGZYS</t>
+  </si>
+  <si>
+    <t>每年工作月数</t>
+  </si>
+  <si>
+    <t>JSM</t>
+  </si>
+  <si>
+    <t>角色码</t>
+  </si>
+  <si>
+    <t>edu_hb_js</t>
+  </si>
+  <si>
+    <t>RYLXM</t>
+  </si>
+  <si>
+    <t>人员类型码</t>
+  </si>
+  <si>
+    <t>RYLXMC</t>
+  </si>
+  <si>
+    <t>人员类型</t>
+  </si>
+  <si>
+    <t>SMSX</t>
+  </si>
+  <si>
+    <t>署名顺序</t>
+  </si>
+  <si>
+    <t>XLM</t>
+  </si>
+  <si>
+    <t>学历码</t>
+  </si>
+  <si>
+    <t>edu_hb_xl</t>
+  </si>
+  <si>
+    <t>KYBH</t>
+  </si>
+  <si>
+    <t>科研编号</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>科研</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>论文人员表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(edu_fdm_ky_lw_ry)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>XMBH</t>
+  </si>
+  <si>
+    <t>项目编号</t>
+  </si>
+  <si>
+    <t>XMMC</t>
+  </si>
+  <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>ZXBH</t>
+  </si>
+  <si>
+    <t>专项编号</t>
+  </si>
+  <si>
+    <t>KSRQ</t>
+  </si>
+  <si>
+    <t>开始日期</t>
+  </si>
+  <si>
+    <t>JXRQ</t>
+  </si>
+  <si>
+    <t>结项日期</t>
+  </si>
+  <si>
+    <t>XMFZRH</t>
+  </si>
+  <si>
+    <t>项目负责人号</t>
+  </si>
+  <si>
+    <t>XMWTDWM</t>
+  </si>
+  <si>
+    <t>项目委托单位码</t>
+  </si>
+  <si>
+    <t>XMWTDWMC</t>
+  </si>
+  <si>
+    <t>项目委托单位名称</t>
+  </si>
+  <si>
+    <t>MJM</t>
+  </si>
+  <si>
+    <t>密级码</t>
+  </si>
+  <si>
+    <t>edu_hb_bmdj</t>
+  </si>
+  <si>
+    <t>SHJJXYM</t>
+  </si>
+  <si>
+    <t>社会经济效益码</t>
+  </si>
+  <si>
+    <t>edu_hb_shjjxy</t>
+  </si>
+  <si>
+    <r>
+      <t>合作国家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地区码</t>
+    </r>
+  </si>
+  <si>
+    <t>JHWCQKM</t>
+  </si>
+  <si>
+    <t>计划完成情况码</t>
+  </si>
+  <si>
+    <t>edu_hb_jhwcqk</t>
+  </si>
+  <si>
+    <t>HZXSM</t>
+  </si>
+  <si>
+    <t>合作形式码</t>
+  </si>
+  <si>
+    <t>edu_hb_hzxs</t>
+  </si>
+  <si>
+    <t>XMPZH</t>
+  </si>
+  <si>
+    <t>项目批准号</t>
+  </si>
+  <si>
+    <t>XMLBM</t>
+  </si>
+  <si>
+    <t>项目类别码</t>
+  </si>
+  <si>
+    <t>edu_hb_xmlb</t>
+  </si>
+  <si>
+    <t>XMJBM</t>
+  </si>
+  <si>
+    <t>项目级别码</t>
+  </si>
+  <si>
+    <t>HDLXM</t>
+  </si>
+  <si>
+    <t>活动类型码</t>
+  </si>
+  <si>
+    <t>XMZXZTM</t>
+  </si>
+  <si>
+    <t>项目执行状态码</t>
+  </si>
+  <si>
+    <t>edu_hb_xmzxzt</t>
+  </si>
+  <si>
+    <t>XMJTXS</t>
+  </si>
+  <si>
+    <t>项目结题形式</t>
+  </si>
+  <si>
+    <t>SBRQ</t>
+  </si>
+  <si>
+    <t>申报日期</t>
+  </si>
+  <si>
+    <t>立项日期</t>
+  </si>
+  <si>
+    <t>ZGBM</t>
+  </si>
+  <si>
+    <t>主管部门</t>
+  </si>
+  <si>
+    <t>SSHYM</t>
+  </si>
+  <si>
+    <t>所属行业码</t>
+  </si>
+  <si>
+    <t>DWJSM</t>
+  </si>
+  <si>
+    <t>单位角色码</t>
+  </si>
+  <si>
+    <t>SBXMH</t>
+  </si>
+  <si>
+    <t>申报项目号</t>
+  </si>
+  <si>
+    <t>YQYJCGJXS</t>
+  </si>
+  <si>
+    <t>预期研究成果及形式</t>
+  </si>
+  <si>
+    <t>XMZY</t>
+  </si>
+  <si>
+    <t>项目摘要</t>
+  </si>
+  <si>
+    <t>XDWH</t>
+  </si>
+  <si>
+    <t>下达文号</t>
+  </si>
+  <si>
+    <t>KTRQ</t>
+  </si>
+  <si>
+    <t>开题日期</t>
+  </si>
+  <si>
+    <t>SHJJMB</t>
+  </si>
+  <si>
+    <t>社会经济目标</t>
+  </si>
+  <si>
+    <t>ZTC</t>
+  </si>
+  <si>
+    <t>主题词</t>
+  </si>
+  <si>
+    <t>SSZKT</t>
+  </si>
+  <si>
+    <t>所属主课题</t>
+  </si>
+  <si>
+    <t>XMLYDW</t>
+  </si>
+  <si>
+    <t>项目来源单位</t>
+  </si>
+  <si>
+    <t>JBM</t>
+  </si>
+  <si>
+    <r>
+      <t>项目性质</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目级别</t>
+    </r>
+  </si>
+  <si>
+    <t>edu_hb_jb</t>
+  </si>
+  <si>
+    <t>5、科研-项目基本信息表(edu_fdm_ky_xm)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>JHJFZE</t>
+  </si>
+  <si>
+    <t>计划经费总额</t>
+  </si>
+  <si>
+    <t>XMJFLYM</t>
+  </si>
+  <si>
+    <t>项目经费来源码</t>
+  </si>
+  <si>
+    <t>edu_hb_xmjfly</t>
+  </si>
+  <si>
+    <t>BRRQ</t>
+  </si>
+  <si>
+    <t>拨入日期</t>
+  </si>
+  <si>
+    <t>BKS</t>
+  </si>
+  <si>
+    <t>拨款数</t>
+  </si>
+  <si>
+    <t>支出日期</t>
+  </si>
+  <si>
+    <t>BFXZDWJF</t>
+  </si>
+  <si>
+    <t>拨付协作单位经费</t>
+  </si>
+  <si>
+    <t>XMPZBH</t>
+  </si>
+  <si>
+    <t>项目凭证编号</t>
+  </si>
+  <si>
+    <t>JBRXM</t>
+  </si>
+  <si>
+    <t>经办人姓名</t>
+  </si>
+  <si>
+    <t>BKDW</t>
+  </si>
+  <si>
+    <t>拨款单位</t>
+  </si>
+  <si>
+    <t>BZ</t>
+  </si>
+  <si>
+    <t>6、科研-项目经费信息表(edu_fdm_ky_xmjf)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>教工填写工号，学生填写学号</t>
+  </si>
+  <si>
+    <t>MODIFIED_time</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>科研</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项目人员信息表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(edu_fdm_ky_xm_ry)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZLCGBH</t>
+  </si>
+  <si>
+    <t>专利成果编号</t>
+  </si>
+  <si>
+    <t>ZLCGMC</t>
+  </si>
+  <si>
+    <t>专利成果名称</t>
+  </si>
+  <si>
+    <t>SQBH</t>
+  </si>
+  <si>
+    <t>申请编号</t>
+  </si>
+  <si>
+    <t>ZLLXM</t>
+  </si>
+  <si>
+    <t>专利类型码</t>
+  </si>
+  <si>
+    <t>edu_hb_zllx</t>
+  </si>
+  <si>
+    <t>PZRQ</t>
+  </si>
+  <si>
+    <t>批准日期</t>
+  </si>
+  <si>
+    <t>PZXSM</t>
+  </si>
+  <si>
+    <t>批准形式码</t>
+  </si>
+  <si>
+    <t>ZLZSBH</t>
+  </si>
+  <si>
+    <t>专利证书编号</t>
+  </si>
+  <si>
+    <t>FLZTM</t>
+  </si>
+  <si>
+    <t>法律状态码</t>
+  </si>
+  <si>
+    <t>edu_hb_zlflzt</t>
+  </si>
+  <si>
+    <t>JNZLNFRQ</t>
+  </si>
+  <si>
+    <t>交纳专利年费日期</t>
+  </si>
+  <si>
+    <t>JNJE</t>
+  </si>
+  <si>
+    <t>交纳金额</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>8,2</t>
+  </si>
+  <si>
+    <r>
+      <t>国际</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地区码</t>
+    </r>
+  </si>
+  <si>
+    <t>GJZLZFLH</t>
+  </si>
+  <si>
+    <t>国际专利主分类号</t>
+  </si>
+  <si>
+    <t>PCTHZLGJDQM</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PCT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或专利国家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地区码</t>
+    </r>
+  </si>
+  <si>
+    <t>SQGGH</t>
+  </si>
+  <si>
+    <t>授权公告号</t>
+  </si>
+  <si>
+    <t>SQGGRQ</t>
+  </si>
+  <si>
+    <t>授权公告日期</t>
+  </si>
+  <si>
+    <t>SQMC</t>
+  </si>
+  <si>
+    <t>申请名称</t>
+  </si>
+  <si>
+    <t>ZLDLJG</t>
+  </si>
+  <si>
+    <t>专利代理机构</t>
+  </si>
+  <si>
+    <t>ZLDLR</t>
+  </si>
+  <si>
+    <t>专利代理人</t>
+  </si>
+  <si>
+    <t>ZLQR</t>
+  </si>
+  <si>
+    <t>专利权人</t>
+  </si>
+  <si>
+    <t>ZLZZRQ</t>
+  </si>
+  <si>
+    <t>专利终止日期</t>
+  </si>
+  <si>
+    <t>SQRQ</t>
+  </si>
+  <si>
+    <t>申请日期</t>
+  </si>
+  <si>
+    <t>FMRS</t>
+  </si>
+  <si>
+    <t>发明人数</t>
+  </si>
+  <si>
+    <t>XSSM</t>
+  </si>
+  <si>
+    <t>详细说明</t>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、科研</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专利成果信息表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(edu_fdm_ky_zlcg)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>自编</t>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>校内老师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>校外老师</t>
+    </r>
+  </si>
+  <si>
+    <t>9、科研-专利人员信息表(edu_fdm_ky_zl_ry)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZZBH</t>
+  </si>
+  <si>
+    <t>著作编号</t>
+  </si>
+  <si>
+    <t>ZZZWMC</t>
+  </si>
+  <si>
+    <t>著作中文名称</t>
+  </si>
+  <si>
+    <t>ZZYWMC</t>
+  </si>
+  <si>
+    <t>著作英文名称</t>
+  </si>
+  <si>
+    <t>出版社</t>
+  </si>
+  <si>
+    <t>ZZZS</t>
+  </si>
+  <si>
+    <t>著作字数</t>
+  </si>
+  <si>
+    <t>ISBNH</t>
+  </si>
+  <si>
+    <r>
+      <t>ISBN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编号</t>
+    </r>
+  </si>
+  <si>
+    <t>YJXK</t>
+  </si>
+  <si>
+    <t>一级学科</t>
+  </si>
+  <si>
+    <t>XXSM</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>科研</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>著作信息表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(edu_fdm_ky_zz)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>人员类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>校内老师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>校外老师</t>
+    </r>
+  </si>
+  <si>
+    <t>11、科研-著作人员信息表(edu_fdm_ky_zz_ry)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDU_DEGREE_ID</t>
+  </si>
+  <si>
+    <t>dbo</t>
+  </si>
+  <si>
+    <t>S_PAPER_AUTHOR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>edu_hb_xl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>职称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>科研编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTHOR_ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTHOR_NAME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEX_ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TITLE_ID</t>
+  </si>
+  <si>
+    <t>WORK_RATIO</t>
+  </si>
+  <si>
+    <t>AUTHOR_UNIT</t>
+  </si>
+  <si>
+    <t>AUTHOR_UNIT_ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>年号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>刊物级别代码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总期号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始页号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>期号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>出版号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>刊物名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>刊物编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>刊物类型码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际标准期刊号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、科研-论文发表信息表(edu_fdm_ky_lwfb)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_PAPER</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>PUBLISH_DATE</t>
+  </si>
+  <si>
+    <t>PUBLISH_YEAR</t>
+  </si>
+  <si>
+    <t>JUAN_NUMBER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>QI_NUMBER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGE_SCOPE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -4742,7 +6113,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4915,8 +6286,30 @@
       <name val="宋体"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4943,6 +6336,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -5067,7 +6466,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -5158,6 +6557,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7207,8 +8623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7250,7 +8666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>138</v>
       </c>
@@ -7393,7 +8809,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>152</v>
       </c>
@@ -7831,7 +9247,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="44.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>192</v>
       </c>
@@ -8414,7 +9830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="37.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>257</v>
       </c>
@@ -8461,7 +9877,7 @@
       <c r="G72" s="6"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>259</v>
       </c>
@@ -8509,7 +9925,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="60.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="45.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>263</v>
       </c>
@@ -8560,7 +9976,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>264</v>
       </c>
@@ -9430,7 +10846,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="44.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>275</v>
       </c>
@@ -9505,7 +10921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="37.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>962</v>
       </c>
@@ -9758,7 +11174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H187"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A181" workbookViewId="0">
       <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
@@ -13008,25 +14424,4911 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J274"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.21875" customWidth="1"/>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>661</v>
       </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6">
+        <v>60</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6">
+        <v>180</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6">
+        <v>64</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6">
+        <v>20</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6">
+        <v>20</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6">
+        <v>20</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6">
+        <v>20</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6">
+        <v>60</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6">
+        <v>60</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="6">
+        <v>100</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="6">
+        <v>20</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="33" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="6">
+        <v>100</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="6">
+        <v>100</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="6">
+        <v>100</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="6">
+        <v>64</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="6">
+        <v>2</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="6">
+        <v>2</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="6">
+        <v>20</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="6">
+        <v>20</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="6">
+        <v>20</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="6">
+        <v>20</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="6">
+        <v>20</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="6">
+        <v>60</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="6">
+        <v>60</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="6">
+        <v>100</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="6">
+        <v>180</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="6">
+        <v>64</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="6">
+        <v>64</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="6">
+        <v>2</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="6">
+        <v>4</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="6">
+        <v>10</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="6">
+        <v>20</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="6">
+        <v>20</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="6">
+        <v>10</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="6">
+        <v>64</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="6">
+        <v>64</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="6">
+        <v>10</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="6">
+        <v>200</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="33" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="6">
+        <v>100</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="6">
+        <v>100</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" s="6">
+        <v>2</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="6">
+        <v>20</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="6">
+        <v>100</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="6">
+        <v>100</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" s="6">
+        <v>4</v>
+      </c>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D68" s="6">
+        <v>3</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="6">
+        <v>64</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="6">
+        <v>64</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="6">
+        <v>20</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="6">
+        <v>64</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>1259</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="6">
+        <v>40</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="6">
+        <v>20</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="6">
+        <v>20</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="32" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="6">
+        <v>180</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="6">
+        <v>20</v>
+      </c>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="6">
+        <v>64</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="6">
+        <v>64</v>
+      </c>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D85" s="6">
+        <v>2</v>
+      </c>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D86" s="6">
+        <v>4</v>
+      </c>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D87" s="6">
+        <v>10</v>
+      </c>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="6">
+        <v>20</v>
+      </c>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="37" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H88" s="36" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="6">
+        <v>20</v>
+      </c>
+      <c r="E89" s="6"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="38"/>
+      <c r="H89" s="36"/>
+    </row>
+    <row r="90" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="6">
+        <v>11</v>
+      </c>
+      <c r="E90" s="6"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="37" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H90" s="36" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="6">
+        <v>64</v>
+      </c>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="36"/>
+    </row>
+    <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="6">
+        <v>64</v>
+      </c>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D93" s="6">
+        <v>10</v>
+      </c>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+    </row>
+    <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="6">
+        <v>10</v>
+      </c>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="37" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="6">
+        <v>200</v>
+      </c>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="37" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="32" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="6">
+        <v>100</v>
+      </c>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G101" s="6"/>
+      <c r="H101" s="7"/>
+    </row>
+    <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" s="6">
+        <v>100</v>
+      </c>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G102" s="6"/>
+      <c r="H102" s="7"/>
+    </row>
+    <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="6">
+        <v>100</v>
+      </c>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G103" s="6"/>
+      <c r="H103" s="7"/>
+    </row>
+    <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" s="6">
+        <v>64</v>
+      </c>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+    </row>
+    <row r="105" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="6">
+        <v>8</v>
+      </c>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+    </row>
+    <row r="106" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="6">
+        <v>8</v>
+      </c>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+    </row>
+    <row r="107" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" s="6">
+        <v>64</v>
+      </c>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+    </row>
+    <row r="108" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="6">
+        <v>10</v>
+      </c>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+    </row>
+    <row r="109" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" s="6">
+        <v>64</v>
+      </c>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+    </row>
+    <row r="110" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D110" s="6">
+        <v>2</v>
+      </c>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H110" s="6"/>
+    </row>
+    <row r="111" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D111" s="6">
+        <v>1</v>
+      </c>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H111" s="6"/>
+    </row>
+    <row r="112" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D112" s="6">
+        <v>2</v>
+      </c>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G112" s="34" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H112" s="6"/>
+    </row>
+    <row r="113" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" s="6">
+        <v>64</v>
+      </c>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="H113" s="6"/>
+    </row>
+    <row r="114" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" s="6">
+        <v>64</v>
+      </c>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="H114" s="6"/>
+    </row>
+    <row r="115" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D115" s="6">
+        <v>1</v>
+      </c>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H115" s="6"/>
+    </row>
+    <row r="116" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D116" s="6">
+        <v>1</v>
+      </c>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G116" s="34" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H116" s="6"/>
+    </row>
+    <row r="117" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" s="6">
+        <v>20</v>
+      </c>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+    </row>
+    <row r="118" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" s="6">
+        <v>30</v>
+      </c>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+    </row>
+    <row r="119" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" s="6">
+        <v>30</v>
+      </c>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H119" s="6"/>
+    </row>
+    <row r="120" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D120" s="6">
+        <v>3</v>
+      </c>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+    </row>
+    <row r="121" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D121" s="6">
+        <v>2</v>
+      </c>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H121" s="6"/>
+    </row>
+    <row r="122" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D122" s="6">
+        <v>1</v>
+      </c>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H122" s="6"/>
+    </row>
+    <row r="123" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="6">
+        <v>64</v>
+      </c>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+    </row>
+    <row r="124" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="6">
+        <v>8</v>
+      </c>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+    </row>
+    <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" s="6">
+        <v>8</v>
+      </c>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+    </row>
+    <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="6">
+        <v>100</v>
+      </c>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+    </row>
+    <row r="127" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D127" s="6">
+        <v>1</v>
+      </c>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H127" s="6"/>
+    </row>
+    <row r="128" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D128" s="6">
+        <v>5</v>
+      </c>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+    </row>
+    <row r="129" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" s="6">
+        <v>64</v>
+      </c>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H129" s="6"/>
+    </row>
+    <row r="130" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="6">
+        <v>64</v>
+      </c>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+    </row>
+    <row r="131" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" s="6">
+        <v>100</v>
+      </c>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+    </row>
+    <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" s="6">
+        <v>500</v>
+      </c>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+    </row>
+    <row r="133" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" s="6">
+        <v>100</v>
+      </c>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+    </row>
+    <row r="134" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" s="6">
+        <v>8</v>
+      </c>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+    </row>
+    <row r="135" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" s="6">
+        <v>100</v>
+      </c>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+    </row>
+    <row r="136" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" s="6">
+        <v>100</v>
+      </c>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+    </row>
+    <row r="137" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="6">
+        <v>100</v>
+      </c>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+    </row>
+    <row r="138" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" s="6">
+        <v>100</v>
+      </c>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+    </row>
+    <row r="139" spans="1:8" ht="44.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D139" s="6">
+        <v>2</v>
+      </c>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H139" s="6"/>
+    </row>
+    <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="32" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="6">
+        <v>11</v>
+      </c>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G145" s="6"/>
+      <c r="H145" s="7"/>
+    </row>
+    <row r="146" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D146" s="6">
+        <v>2</v>
+      </c>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H146" s="7"/>
+    </row>
+    <row r="147" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="6">
+        <v>8</v>
+      </c>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G147" s="6"/>
+      <c r="H147" s="7"/>
+    </row>
+    <row r="148" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D148" s="6">
+        <v>11</v>
+      </c>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+    </row>
+    <row r="149" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="6">
+        <v>8</v>
+      </c>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
+    </row>
+    <row r="150" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" s="6">
+        <v>11</v>
+      </c>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G150" s="6"/>
+      <c r="H150" s="6"/>
+    </row>
+    <row r="151" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" s="6">
+        <v>64</v>
+      </c>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+    </row>
+    <row r="152" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" s="6">
+        <v>100</v>
+      </c>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+    </row>
+    <row r="153" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" s="6">
+        <v>100</v>
+      </c>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+    </row>
+    <row r="154" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" s="6">
+        <v>100</v>
+      </c>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
+    </row>
+    <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" s="6">
+        <v>500</v>
+      </c>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+    </row>
+    <row r="159" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="33" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="48.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D161" s="6">
+        <v>100</v>
+      </c>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G161" s="6"/>
+      <c r="H161" s="8" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162" s="6">
+        <v>100</v>
+      </c>
+      <c r="E162" s="6"/>
+      <c r="F162" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G162" s="6"/>
+      <c r="H162" s="7"/>
+    </row>
+    <row r="163" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D163" s="6">
+        <v>2</v>
+      </c>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G163" s="6"/>
+      <c r="H163" s="7"/>
+    </row>
+    <row r="164" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D164" s="6">
+        <v>20</v>
+      </c>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G164" s="6"/>
+      <c r="H164" s="6"/>
+    </row>
+    <row r="165" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165" s="6">
+        <v>100</v>
+      </c>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G165" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H165" s="6"/>
+    </row>
+    <row r="166" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166" s="6">
+        <v>100</v>
+      </c>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G166" s="6"/>
+      <c r="H166" s="6"/>
+    </row>
+    <row r="167" spans="1:8" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G167" s="6"/>
+      <c r="H167" s="5" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D168" s="6">
+        <v>4</v>
+      </c>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
+    </row>
+    <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D169" s="6">
+        <v>3</v>
+      </c>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+    </row>
+    <row r="170" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170" s="6">
+        <v>64</v>
+      </c>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
+    </row>
+    <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D171" s="6">
+        <v>64</v>
+      </c>
+      <c r="E171" s="6"/>
+      <c r="F171" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G171" s="6"/>
+      <c r="H171" s="6"/>
+    </row>
+    <row r="172" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D172" s="6">
+        <v>20</v>
+      </c>
+      <c r="E172" s="6"/>
+      <c r="F172" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G172" s="6"/>
+      <c r="H172" s="6"/>
+    </row>
+    <row r="173" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D173" s="6">
+        <v>64</v>
+      </c>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D174" s="6">
+        <v>40</v>
+      </c>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
+    </row>
+    <row r="175" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" s="6">
+        <v>20</v>
+      </c>
+      <c r="E175" s="6"/>
+      <c r="F175" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G175" s="6"/>
+      <c r="H175" s="6"/>
+    </row>
+    <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176" s="6">
+        <v>20</v>
+      </c>
+      <c r="E176" s="6"/>
+      <c r="F176" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G176" s="6"/>
+      <c r="H176" s="6"/>
+    </row>
+    <row r="181" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="35" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183" s="6">
+        <v>100</v>
+      </c>
+      <c r="E183" s="6"/>
+      <c r="F183" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G183" s="6"/>
+      <c r="H183" s="7"/>
+    </row>
+    <row r="184" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D184" s="6">
+        <v>60</v>
+      </c>
+      <c r="E184" s="6"/>
+      <c r="F184" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G184" s="6"/>
+      <c r="H184" s="7"/>
+    </row>
+    <row r="185" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D185" s="6">
+        <v>64</v>
+      </c>
+      <c r="E185" s="6"/>
+      <c r="F185" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G185" s="6"/>
+      <c r="H185" s="7"/>
+    </row>
+    <row r="186" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186" s="6">
+        <v>10</v>
+      </c>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+    </row>
+    <row r="187" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D187" s="6">
+        <v>6</v>
+      </c>
+      <c r="E187" s="6"/>
+      <c r="F187" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G187" s="6"/>
+      <c r="H187" s="6"/>
+    </row>
+    <row r="188" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D188" s="6">
+        <v>1</v>
+      </c>
+      <c r="E188" s="6"/>
+      <c r="F188" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G188" s="6" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H188" s="6"/>
+    </row>
+    <row r="189" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D189" s="6">
+        <v>8</v>
+      </c>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G189" s="6"/>
+      <c r="H189" s="6"/>
+    </row>
+    <row r="190" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D190" s="6">
+        <v>1</v>
+      </c>
+      <c r="E190" s="6"/>
+      <c r="F190" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G190" s="6"/>
+      <c r="H190" s="6"/>
+    </row>
+    <row r="191" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" s="6">
+        <v>20</v>
+      </c>
+      <c r="E191" s="6"/>
+      <c r="F191" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G191" s="6"/>
+      <c r="H191" s="6"/>
+    </row>
+    <row r="192" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D192" s="6">
+        <v>1</v>
+      </c>
+      <c r="E192" s="6"/>
+      <c r="F192" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G192" s="6" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H192" s="6"/>
+    </row>
+    <row r="193" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D193" s="6">
+        <v>8</v>
+      </c>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G193" s="6"/>
+      <c r="H193" s="6"/>
+    </row>
+    <row r="194" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E194" s="6"/>
+      <c r="F194" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G194" s="6"/>
+      <c r="H194" s="6"/>
+    </row>
+    <row r="195" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D195" s="6">
+        <v>64</v>
+      </c>
+      <c r="E195" s="6"/>
+      <c r="F195" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G195" s="6"/>
+      <c r="H195" s="6"/>
+    </row>
+    <row r="196" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D196" s="6">
+        <v>64</v>
+      </c>
+      <c r="E196" s="6"/>
+      <c r="F196" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G196" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="H196" s="6"/>
+    </row>
+    <row r="197" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D197" s="6">
+        <v>20</v>
+      </c>
+      <c r="E197" s="6"/>
+      <c r="F197" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G197" s="6"/>
+      <c r="H197" s="6"/>
+    </row>
+    <row r="198" spans="1:8" ht="45" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D198" s="6">
+        <v>64</v>
+      </c>
+      <c r="E198" s="6"/>
+      <c r="F198" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G198" s="6"/>
+      <c r="H198" s="6"/>
+    </row>
+    <row r="199" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D199" s="6">
+        <v>20</v>
+      </c>
+      <c r="E199" s="6"/>
+      <c r="F199" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G199" s="6"/>
+      <c r="H199" s="6"/>
+    </row>
+    <row r="200" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D200" s="6">
+        <v>8</v>
+      </c>
+      <c r="E200" s="6"/>
+      <c r="F200" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G200" s="6"/>
+      <c r="H200" s="6"/>
+    </row>
+    <row r="201" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D201" s="6">
+        <v>100</v>
+      </c>
+      <c r="E201" s="6"/>
+      <c r="F201" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G201" s="6"/>
+      <c r="H201" s="6"/>
+    </row>
+    <row r="202" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D202" s="6">
+        <v>64</v>
+      </c>
+      <c r="E202" s="6"/>
+      <c r="F202" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G202" s="6"/>
+      <c r="H202" s="6"/>
+    </row>
+    <row r="203" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D203" s="6">
+        <v>64</v>
+      </c>
+      <c r="E203" s="6"/>
+      <c r="F203" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G203" s="6"/>
+      <c r="H203" s="6"/>
+    </row>
+    <row r="204" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D204" s="6">
+        <v>64</v>
+      </c>
+      <c r="E204" s="6"/>
+      <c r="F204" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G204" s="6"/>
+      <c r="H204" s="6"/>
+    </row>
+    <row r="205" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D205" s="6">
+        <v>8</v>
+      </c>
+      <c r="E205" s="6"/>
+      <c r="F205" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G205" s="6"/>
+      <c r="H205" s="6"/>
+    </row>
+    <row r="206" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D206" s="6">
+        <v>8</v>
+      </c>
+      <c r="E206" s="6"/>
+      <c r="F206" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G206" s="6"/>
+      <c r="H206" s="6"/>
+    </row>
+    <row r="207" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D207" s="6">
+        <v>4</v>
+      </c>
+      <c r="E207" s="6"/>
+      <c r="F207" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G207" s="6"/>
+      <c r="H207" s="6"/>
+    </row>
+    <row r="208" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D208" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E208" s="6"/>
+      <c r="F208" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G208" s="6"/>
+      <c r="H208" s="6"/>
+    </row>
+    <row r="213" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="32" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="48.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D215" s="6">
+        <v>100</v>
+      </c>
+      <c r="E215" s="6"/>
+      <c r="F215" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G215" s="6"/>
+      <c r="H215" s="8" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D216" s="6">
+        <v>100</v>
+      </c>
+      <c r="E216" s="6"/>
+      <c r="F216" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G216" s="6"/>
+      <c r="H216" s="7"/>
+    </row>
+    <row r="217" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D217" s="6">
+        <v>2</v>
+      </c>
+      <c r="E217" s="6"/>
+      <c r="F217" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G217" s="6"/>
+      <c r="H217" s="7"/>
+    </row>
+    <row r="218" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D218" s="6">
+        <v>20</v>
+      </c>
+      <c r="E218" s="6"/>
+      <c r="F218" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G218" s="6"/>
+      <c r="H218" s="6"/>
+    </row>
+    <row r="219" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D219" s="6">
+        <v>100</v>
+      </c>
+      <c r="E219" s="6"/>
+      <c r="F219" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G219" s="6"/>
+      <c r="H219" s="6" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D220" s="6">
+        <v>100</v>
+      </c>
+      <c r="E220" s="6"/>
+      <c r="F220" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G220" s="6"/>
+      <c r="H220" s="6"/>
+    </row>
+    <row r="221" spans="1:8" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E221" s="6"/>
+      <c r="F221" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G221" s="6"/>
+      <c r="H221" s="5" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D222" s="6">
+        <v>4</v>
+      </c>
+      <c r="E222" s="6"/>
+      <c r="F222" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G222" s="6"/>
+      <c r="H222" s="6"/>
+    </row>
+    <row r="223" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D223" s="6">
+        <v>3</v>
+      </c>
+      <c r="E223" s="6"/>
+      <c r="F223" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G223" s="6"/>
+      <c r="H223" s="6" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D224" s="6">
+        <v>64</v>
+      </c>
+      <c r="E224" s="6"/>
+      <c r="F224" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G224" s="6"/>
+      <c r="H224" s="5" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="45" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D225" s="6">
+        <v>64</v>
+      </c>
+      <c r="E225" s="6"/>
+      <c r="F225" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G225" s="5" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H225" s="6"/>
+    </row>
+    <row r="226" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D226" s="6">
+        <v>20</v>
+      </c>
+      <c r="E226" s="6"/>
+      <c r="F226" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G226" s="6"/>
+      <c r="H226" s="6"/>
+    </row>
+    <row r="227" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D227" s="6">
+        <v>64</v>
+      </c>
+      <c r="E227" s="6"/>
+      <c r="F227" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G227" s="6" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H227" s="6"/>
+    </row>
+    <row r="228" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D228" s="6">
+        <v>40</v>
+      </c>
+      <c r="E228" s="6"/>
+      <c r="F228" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G228" s="6"/>
+      <c r="H228" s="6"/>
+    </row>
+    <row r="229" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D229" s="6">
+        <v>20</v>
+      </c>
+      <c r="E229" s="6"/>
+      <c r="F229" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G229" s="6"/>
+      <c r="H229" s="6"/>
+    </row>
+    <row r="230" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D230" s="6">
+        <v>20</v>
+      </c>
+      <c r="E230" s="6"/>
+      <c r="F230" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G230" s="6"/>
+      <c r="H230" s="6"/>
+    </row>
+    <row r="234" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="33" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G235" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H235" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D236" s="6">
+        <v>100</v>
+      </c>
+      <c r="E236" s="6"/>
+      <c r="F236" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G236" s="6"/>
+      <c r="H236" s="7"/>
+    </row>
+    <row r="237" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D237" s="6">
+        <v>60</v>
+      </c>
+      <c r="E237" s="6"/>
+      <c r="F237" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G237" s="6"/>
+      <c r="H237" s="7"/>
+    </row>
+    <row r="238" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D238" s="6">
+        <v>60</v>
+      </c>
+      <c r="E238" s="6"/>
+      <c r="F238" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G238" s="6"/>
+      <c r="H238" s="7"/>
+    </row>
+    <row r="239" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D239" s="6">
+        <v>64</v>
+      </c>
+      <c r="E239" s="6"/>
+      <c r="F239" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G239" s="6"/>
+      <c r="H239" s="6"/>
+    </row>
+    <row r="240" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D240" s="6">
+        <v>64</v>
+      </c>
+      <c r="E240" s="6"/>
+      <c r="F240" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G240" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="H240" s="6"/>
+    </row>
+    <row r="241" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D241" s="6">
+        <v>64</v>
+      </c>
+      <c r="E241" s="6"/>
+      <c r="F241" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G241" s="6"/>
+      <c r="H241" s="6"/>
+    </row>
+    <row r="242" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D242" s="6">
+        <v>2</v>
+      </c>
+      <c r="E242" s="6"/>
+      <c r="F242" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G242" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H242" s="6"/>
+    </row>
+    <row r="243" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D243" s="6">
+        <v>3</v>
+      </c>
+      <c r="E243" s="6"/>
+      <c r="F243" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G243" s="6" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H243" s="6"/>
+    </row>
+    <row r="244" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D244" s="6">
+        <v>2</v>
+      </c>
+      <c r="E244" s="6"/>
+      <c r="F244" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G244" s="6" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H244" s="6"/>
+    </row>
+    <row r="245" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D245" s="6">
+        <v>100</v>
+      </c>
+      <c r="E245" s="6"/>
+      <c r="F245" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G245" s="6"/>
+      <c r="H245" s="6"/>
+    </row>
+    <row r="246" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D246" s="6">
+        <v>1</v>
+      </c>
+      <c r="E246" s="6"/>
+      <c r="F246" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G246" s="6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H246" s="6"/>
+    </row>
+    <row r="247" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D247" s="6">
+        <v>8</v>
+      </c>
+      <c r="E247" s="6"/>
+      <c r="F247" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G247" s="6"/>
+      <c r="H247" s="6"/>
+    </row>
+    <row r="248" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D248" s="6">
+        <v>100</v>
+      </c>
+      <c r="E248" s="6"/>
+      <c r="F248" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G248" s="6"/>
+      <c r="H248" s="6"/>
+    </row>
+    <row r="249" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D249" s="6">
+        <v>4</v>
+      </c>
+      <c r="E249" s="6"/>
+      <c r="F249" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G249" s="6"/>
+      <c r="H249" s="6"/>
+    </row>
+    <row r="250" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D250" s="6">
+        <v>64</v>
+      </c>
+      <c r="E250" s="6"/>
+      <c r="F250" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G250" s="6"/>
+      <c r="H250" s="6"/>
+    </row>
+    <row r="251" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D251" s="6">
+        <v>64</v>
+      </c>
+      <c r="E251" s="6"/>
+      <c r="F251" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G251" s="6"/>
+      <c r="H251" s="6"/>
+    </row>
+    <row r="252" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D252" s="6">
+        <v>64</v>
+      </c>
+      <c r="E252" s="6"/>
+      <c r="F252" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G252" s="6"/>
+      <c r="H252" s="6"/>
+    </row>
+    <row r="253" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="4" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D253" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E253" s="6"/>
+      <c r="F253" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G253" s="6"/>
+      <c r="H253" s="6"/>
+    </row>
+    <row r="257" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="32" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G258" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H258" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D259" s="6">
+        <v>100</v>
+      </c>
+      <c r="E259" s="6"/>
+      <c r="F259" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G259" s="6"/>
+      <c r="H259" s="7"/>
+    </row>
+    <row r="260" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D260" s="6">
+        <v>100</v>
+      </c>
+      <c r="E260" s="6"/>
+      <c r="F260" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G260" s="6"/>
+      <c r="H260" s="7"/>
+    </row>
+    <row r="261" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D261" s="6">
+        <v>2</v>
+      </c>
+      <c r="E261" s="6"/>
+      <c r="F261" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G261" s="6"/>
+      <c r="H261" s="7"/>
+    </row>
+    <row r="262" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D262" s="6">
+        <v>20</v>
+      </c>
+      <c r="E262" s="6"/>
+      <c r="F262" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G262" s="6"/>
+      <c r="H262" s="6"/>
+    </row>
+    <row r="263" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D263" s="6">
+        <v>100</v>
+      </c>
+      <c r="E263" s="6"/>
+      <c r="F263" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G263" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H263" s="6"/>
+    </row>
+    <row r="264" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D264" s="6">
+        <v>100</v>
+      </c>
+      <c r="E264" s="6"/>
+      <c r="F264" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G264" s="6"/>
+      <c r="H264" s="6"/>
+    </row>
+    <row r="265" spans="1:8" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D265" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E265" s="6"/>
+      <c r="F265" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G265" s="6"/>
+      <c r="H265" s="5" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D266" s="6">
+        <v>4</v>
+      </c>
+      <c r="E266" s="6"/>
+      <c r="F266" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G266" s="6"/>
+      <c r="H266" s="6"/>
+    </row>
+    <row r="267" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D267" s="6">
+        <v>3</v>
+      </c>
+      <c r="E267" s="6"/>
+      <c r="F267" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G267" s="6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H267" s="6"/>
+    </row>
+    <row r="268" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D268" s="6">
+        <v>64</v>
+      </c>
+      <c r="E268" s="6"/>
+      <c r="F268" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G268" s="6"/>
+      <c r="H268" s="6"/>
+    </row>
+    <row r="269" spans="1:8" ht="73.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D269" s="6">
+        <v>64</v>
+      </c>
+      <c r="E269" s="6"/>
+      <c r="F269" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G269" s="5" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H269" s="6"/>
+    </row>
+    <row r="270" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D270" s="6">
+        <v>20</v>
+      </c>
+      <c r="E270" s="6"/>
+      <c r="F270" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G270" s="6"/>
+      <c r="H270" s="6"/>
+    </row>
+    <row r="271" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D271" s="6">
+        <v>64</v>
+      </c>
+      <c r="E271" s="6"/>
+      <c r="F271" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G271" s="6" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H271" s="6"/>
+    </row>
+    <row r="272" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D272" s="6">
+        <v>40</v>
+      </c>
+      <c r="E272" s="6"/>
+      <c r="F272" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G272" s="6"/>
+      <c r="H272" s="6"/>
+    </row>
+    <row r="273" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D273" s="6">
+        <v>20</v>
+      </c>
+      <c r="E273" s="6"/>
+      <c r="F273" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G273" s="6"/>
+      <c r="H273" s="6"/>
+    </row>
+    <row r="274" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D274" s="6">
+        <v>20</v>
+      </c>
+      <c r="E274" s="6"/>
+      <c r="F274" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G274" s="6"/>
+      <c r="H274" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/重庆二师_Dev/doc/ods-fdm -zkc.xlsx
+++ b/重庆二师_Dev/doc/ods-fdm -zkc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3396" uniqueCount="1299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="1337">
   <si>
     <t>字段名</t>
   </si>
@@ -5107,9 +5107,6 @@
     <t>ZXBH</t>
   </si>
   <si>
-    <t>专项编号</t>
-  </si>
-  <si>
     <t>KSRQ</t>
   </si>
   <si>
@@ -5119,43 +5116,22 @@
     <t>JXRQ</t>
   </si>
   <si>
-    <t>结项日期</t>
-  </si>
-  <si>
     <t>XMFZRH</t>
   </si>
   <si>
-    <t>项目负责人号</t>
-  </si>
-  <si>
     <t>XMWTDWM</t>
   </si>
   <si>
-    <t>项目委托单位码</t>
-  </si>
-  <si>
     <t>XMWTDWMC</t>
   </si>
   <si>
-    <t>项目委托单位名称</t>
-  </si>
-  <si>
     <t>MJM</t>
   </si>
   <si>
     <t>密级码</t>
   </si>
   <si>
-    <t>edu_hb_bmdj</t>
-  </si>
-  <si>
     <t>SHJJXYM</t>
-  </si>
-  <si>
-    <t>社会经济效益码</t>
-  </si>
-  <si>
-    <t>edu_hb_shjjxy</t>
   </si>
   <si>
     <r>
@@ -5188,33 +5164,18 @@
     <t>计划完成情况码</t>
   </si>
   <si>
-    <t>edu_hb_jhwcqk</t>
-  </si>
-  <si>
     <t>HZXSM</t>
   </si>
   <si>
     <t>合作形式码</t>
   </si>
   <si>
-    <t>edu_hb_hzxs</t>
-  </si>
-  <si>
     <t>XMPZH</t>
   </si>
   <si>
-    <t>项目批准号</t>
-  </si>
-  <si>
     <t>XMLBM</t>
   </si>
   <si>
-    <t>项目类别码</t>
-  </si>
-  <si>
-    <t>edu_hb_xmlb</t>
-  </si>
-  <si>
     <t>XMJBM</t>
   </si>
   <si>
@@ -5233,9 +5194,6 @@
     <t>项目执行状态码</t>
   </si>
   <si>
-    <t>edu_hb_xmzxzt</t>
-  </si>
-  <si>
     <t>XMJTXS</t>
   </si>
   <si>
@@ -5296,9 +5254,6 @@
     <t>KTRQ</t>
   </si>
   <si>
-    <t>开题日期</t>
-  </si>
-  <si>
     <t>SHJJMB</t>
   </si>
   <si>
@@ -5308,13 +5263,7 @@
     <t>ZTC</t>
   </si>
   <si>
-    <t>主题词</t>
-  </si>
-  <si>
     <t>SSZKT</t>
-  </si>
-  <si>
-    <t>所属主课题</t>
   </si>
   <si>
     <t>XMLYDW</t>
@@ -5350,9 +5299,6 @@
     </r>
   </si>
   <si>
-    <t>edu_hb_jb</t>
-  </si>
-  <si>
     <t>5、科研-项目基本信息表(edu_fdm_ky_xm)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -5360,18 +5306,9 @@
     <t>JHJFZE</t>
   </si>
   <si>
-    <t>计划经费总额</t>
-  </si>
-  <si>
     <t>XMJFLYM</t>
   </si>
   <si>
-    <t>项目经费来源码</t>
-  </si>
-  <si>
-    <t>edu_hb_xmjfly</t>
-  </si>
-  <si>
     <t>BRRQ</t>
   </si>
   <si>
@@ -5381,9 +5318,6 @@
     <t>BKS</t>
   </si>
   <si>
-    <t>拨款数</t>
-  </si>
-  <si>
     <t>支出日期</t>
   </si>
   <si>
@@ -5394,9 +5328,6 @@
   </si>
   <si>
     <t>XMPZBH</t>
-  </si>
-  <si>
-    <t>项目凭证编号</t>
   </si>
   <si>
     <t>JBRXM</t>
@@ -5773,19 +5704,10 @@
     <t>ZZBH</t>
   </si>
   <si>
-    <t>著作编号</t>
-  </si>
-  <si>
     <t>ZZZWMC</t>
   </si>
   <si>
-    <t>著作中文名称</t>
-  </si>
-  <si>
     <t>ZZYWMC</t>
-  </si>
-  <si>
-    <t>著作英文名称</t>
   </si>
   <si>
     <t>出版社</t>
@@ -6105,6 +6027,681 @@
     <t>ID</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>PUBLISH_RANGE_ID</t>
+  </si>
+  <si>
+    <t>与S_PAPER_AUTHOR的paper_id做关联</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、论文基本信息表</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>(edu_fdm_ky_lw)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>论文基本信息表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(edu_fdm_ky_lw_attr)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>科研</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>论文人员表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(edu_fdm_ky_lw_ry)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>科研</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>论文发表信息表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(edu_fdm_ky_lwfb)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、科研</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目基本信息表</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>(edu_fdm_ky_xm)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>科研</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项目人员信息表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(edu_fdm_ky_xm_ry)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>科研</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专利成果信息表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(edu_fdm_ky_zlcg)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>9、科研-专利人员信息表(edu_fdm_ky_zl_ry)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>科研</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>著作信息表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(edu_fdm_ky_zz)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>11、科研-著作人员信息表(edu_fdm_ky_zz_ry)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_PROJECT</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>UNIT_ID</t>
+  </si>
+  <si>
+    <t>UNIT_ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT_TYPE_ID</t>
+  </si>
+  <si>
+    <t>项目负责人号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHARGER_CODE</t>
+  </si>
+  <si>
+    <t>专项编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目委托单位码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目来源码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会经济效益码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目批准号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目类别码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_MODE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTHORIZE_DATE</t>
+  </si>
+  <si>
+    <t>AUTHORIZE_SN</t>
+  </si>
+  <si>
+    <t>COOPERATE_ID</t>
+  </si>
+  <si>
+    <t>PROJECT_SOURCE_UNIT</t>
+  </si>
+  <si>
+    <t>PROJECT_CLASS_ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属主课题</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>结项日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PLAN_END_DATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ACTUAL_END_DATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>学科门类（科技）码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目委托单位名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>START_DATE</t>
+  </si>
+  <si>
+    <t>PROJECT_SOURCE_ID</t>
+  </si>
+  <si>
+    <t>所属技术领域</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>与DM_SHJJMB表有关联</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题词</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>开题日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>署名顺序</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>科研</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项目经费信息表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(edu_fdm_ky_xmjf)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目凭证编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目经费来源码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨款数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划经费总额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>著作编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>著作中文名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>著作英文名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>论著类别码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属项目编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>学科领域码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>语种码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_BOOK</t>
+  </si>
+  <si>
+    <t>ISBN</t>
+  </si>
+  <si>
+    <t>PUBLISH_UNIT</t>
+  </si>
+  <si>
+    <t>LANGUAGE_ID</t>
+  </si>
+  <si>
+    <t>WORD_NUMBER</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -6113,7 +6710,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6287,13 +6884,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -6308,8 +6898,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6344,8 +6956,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -6453,6 +7071,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6466,7 +7095,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -6560,7 +7189,7 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6570,12 +7199,28 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8623,7 +9268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
+    <sheetView topLeftCell="A127" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
@@ -14426,13 +15071,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView tabSelected="1" topLeftCell="B245" workbookViewId="0">
+      <selection activeCell="G248" sqref="G248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
@@ -14442,12 +15088,15 @@
         <v>661</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="43" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -14685,7 +15334,7 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>1019</v>
       </c>
@@ -14813,8 +15462,11 @@
       <c r="A23" s="33" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="43" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -15054,7 +15706,7 @@
       </c>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>1019</v>
       </c>
@@ -15466,8 +16118,11 @@
       <c r="A58" s="33" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="43" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -15498,7 +16153,7 @@
         <v>1063</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>1256</v>
+        <v>1230</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>10</v>
@@ -15508,13 +16163,13 @@
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
-        <v>1260</v>
+        <v>1234</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>1261</v>
+        <v>1235</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>1268</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -15522,7 +16177,7 @@
         <v>142</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>1257</v>
+        <v>1231</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>10</v>
@@ -15532,13 +16187,13 @@
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
-        <v>1260</v>
+        <v>1234</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>1261</v>
+        <v>1235</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>1269</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -15556,13 +16211,13 @@
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6" t="s">
-        <v>1260</v>
+        <v>1234</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>1261</v>
+        <v>1235</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>1271</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -15570,7 +16225,7 @@
         <v>208</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>1265</v>
+        <v>1239</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>10</v>
@@ -15580,13 +16235,13 @@
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6" t="s">
-        <v>1260</v>
+        <v>1234</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>1261</v>
+        <v>1235</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>1272</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -15594,7 +16249,7 @@
         <v>140</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>1263</v>
+        <v>1237</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>10</v>
@@ -15604,13 +16259,13 @@
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6" t="s">
-        <v>1260</v>
+        <v>1234</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>1261</v>
+        <v>1235</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>1275</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -15618,7 +16273,7 @@
         <v>1066</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>1264</v>
+        <v>1238</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>10</v>
@@ -15628,13 +16283,13 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6" t="s">
-        <v>1260</v>
+        <v>1234</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>1261</v>
+        <v>1235</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>1274</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15642,7 +16297,7 @@
         <v>1068</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>1266</v>
+        <v>1240</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>100</v>
@@ -15652,13 +16307,13 @@
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6" t="s">
-        <v>1260</v>
+        <v>1234</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>1261</v>
+        <v>1235</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>1273</v>
+        <v>1247</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>1071</v>
@@ -15684,12 +16339,12 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>1074</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>1276</v>
+        <v>1250</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>104</v>
@@ -15751,7 +16406,7 @@
         <v>1081</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>1082</v>
+        <v>1316</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>10</v>
@@ -15764,10 +16419,10 @@
         <v>211</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>1261</v>
+        <v>1235</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>1270</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -15775,7 +16430,7 @@
         <v>1083</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>1258</v>
+        <v>1232</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>10</v>
@@ -15788,13 +16443,13 @@
         <v>211</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>1261</v>
+        <v>1235</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>1259</v>
+        <v>1233</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>1262</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -15802,7 +16457,7 @@
         <v>1086</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>1267</v>
+        <v>1241</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>10</v>
@@ -15857,12 +16512,15 @@
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="32" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1263</v>
+      </c>
+      <c r="B79" s="44" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
@@ -15872,47 +16530,47 @@
       <c r="C80" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F80" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G80" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="H80" s="38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>1034</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>1284</v>
+        <v>1258</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="36">
         <v>180</v>
       </c>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6" t="s">
-        <v>1260</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>1290</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E81" s="39"/>
+      <c r="F81" s="39" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G81" s="39" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H81" s="40" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>1036</v>
       </c>
@@ -15922,37 +16580,41 @@
       <c r="C82" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="36">
         <v>20</v>
       </c>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6" t="s">
-        <v>1290</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H82" s="40" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>1038</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>1283</v>
+        <v>1257</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="36">
         <v>64</v>
       </c>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="7"/>
-    </row>
-    <row r="84" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H83" s="40" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>160</v>
       </c>
@@ -15962,139 +16624,139 @@
       <c r="C84" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="36">
         <v>64</v>
       </c>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-    </row>
-    <row r="85" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
+    </row>
+    <row r="85" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>1040</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>1279</v>
+        <v>1253</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="36">
         <v>2</v>
       </c>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-    </row>
-    <row r="86" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E85" s="39"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="39"/>
+    </row>
+    <row r="86" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>1043</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>1278</v>
+        <v>1252</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="36">
         <v>4</v>
       </c>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6" t="s">
-        <v>1290</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E86" s="39"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H86" s="39" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>1045</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>1277</v>
+        <v>1251</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D87" s="6">
-        <v>10</v>
-      </c>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6" t="s">
-        <v>1290</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D87" s="36">
+        <v>10</v>
+      </c>
+      <c r="E87" s="39"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="39" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H87" s="39" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>1047</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>1282</v>
+        <v>1256</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D88" s="36">
         <v>20</v>
       </c>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="37" t="s">
-        <v>1290</v>
-      </c>
-      <c r="H88" s="36" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H88" s="39" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>1049</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>1280</v>
+        <v>1254</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89" s="36">
         <v>20</v>
       </c>
-      <c r="E89" s="6"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="36"/>
-    </row>
-    <row r="90" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E89" s="39"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="39"/>
+    </row>
+    <row r="90" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>1051</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>1281</v>
+        <v>1255</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="36">
         <v>11</v>
       </c>
-      <c r="E90" s="6"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="37" t="s">
-        <v>1290</v>
-      </c>
-      <c r="H90" s="36" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H90" s="39" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>1053</v>
       </c>
@@ -16104,100 +16766,110 @@
       <c r="C91" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D91" s="36">
         <v>64</v>
       </c>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="36"/>
-    </row>
-    <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+    </row>
+    <row r="92" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>1055</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>1285</v>
+        <v>1259</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D92" s="36">
         <v>64</v>
       </c>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-    </row>
-    <row r="93" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H92" s="39" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>1057</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>1286</v>
+        <v>1260</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D93" s="6">
-        <v>10</v>
-      </c>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-    </row>
-    <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D93" s="36">
+        <v>10</v>
+      </c>
+      <c r="E93" s="39"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="39"/>
+    </row>
+    <row r="94" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>997</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>1287</v>
+        <v>1261</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D94" s="6">
-        <v>10</v>
-      </c>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="37" t="s">
-        <v>1290</v>
-      </c>
-      <c r="H94" s="6" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D94" s="36">
+        <v>10</v>
+      </c>
+      <c r="E94" s="39"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="41" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H94" s="41" t="s">
+        <v>1272</v>
+      </c>
+      <c r="I94" s="42" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>1059</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>1288</v>
+        <v>1262</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D95" s="36">
         <v>200</v>
       </c>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="37" t="s">
-        <v>1290</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E95" s="39"/>
+      <c r="F95" s="39"/>
+      <c r="G95" s="39" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H95" s="39" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="32" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1144</v>
+      </c>
+      <c r="B99" s="46" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
@@ -16223,7 +16895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>1089</v>
       </c>
@@ -16240,10 +16912,14 @@
       <c r="F101" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G101" s="6"/>
-      <c r="H101" s="7"/>
-    </row>
-    <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G101" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>140</v>
       </c>
@@ -16260,10 +16936,14 @@
       <c r="F102" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G102" s="6"/>
-      <c r="H102" s="7"/>
-    </row>
-    <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G102" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>1091</v>
       </c>
@@ -16280,15 +16960,19 @@
       <c r="F103" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G103" s="6"/>
-      <c r="H103" s="7"/>
+      <c r="G103" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>1265</v>
+      </c>
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>1093</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>1094</v>
+        <v>1293</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>10</v>
@@ -16303,12 +16987,12 @@
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>1095</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>1096</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>10</v>
@@ -16320,15 +17004,19 @@
       <c r="F105" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-    </row>
-    <row r="106" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G105" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="87.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>1098</v>
+        <v>1306</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>10</v>
@@ -16340,15 +17028,19 @@
       <c r="F106" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
+      <c r="G106" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>1307</v>
+      </c>
     </row>
     <row r="107" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>1100</v>
+        <v>1291</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>10</v>
@@ -16360,15 +17052,19 @@
       <c r="F107" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-    </row>
-    <row r="108" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G107" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>1102</v>
+        <v>1294</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>10</v>
@@ -16383,12 +17079,12 @@
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>1104</v>
+        <v>1309</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>10</v>
@@ -16403,12 +17099,12 @@
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>1014</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>1015</v>
+        <v>1295</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>104</v>
@@ -16421,16 +17117,18 @@
         <v>211</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H110" s="6"/>
-    </row>
-    <row r="111" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1286</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>104</v>
@@ -16442,17 +17140,15 @@
       <c r="F111" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G111" s="6" t="s">
-        <v>1107</v>
-      </c>
+      <c r="G111" s="6"/>
       <c r="H111" s="6"/>
     </row>
-    <row r="112" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>1109</v>
+        <v>1296</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>104</v>
@@ -16464,12 +17160,10 @@
       <c r="F112" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G112" s="34" t="s">
-        <v>1110</v>
-      </c>
+      <c r="G112" s="34"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>1009</v>
       </c>
@@ -16486,17 +17180,15 @@
       <c r="F113" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G113" s="6" t="s">
-        <v>781</v>
-      </c>
+      <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>160</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>10</v>
@@ -16508,17 +17200,15 @@
       <c r="F114" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G114" s="6" t="s">
-        <v>751</v>
-      </c>
+      <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>104</v>
@@ -16530,17 +17220,15 @@
       <c r="F115" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G115" s="6" t="s">
-        <v>1114</v>
-      </c>
+      <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
     <row r="116" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>104</v>
@@ -16552,17 +17240,17 @@
       <c r="F116" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G116" s="34" t="s">
-        <v>1117</v>
-      </c>
-      <c r="H116" s="6"/>
-    </row>
-    <row r="117" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G116" s="34"/>
+      <c r="H116" s="6" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>1023</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>1024</v>
+        <v>1312</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>10</v>
@@ -16579,10 +17267,10 @@
     </row>
     <row r="118" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>1119</v>
+        <v>1297</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>10</v>
@@ -16595,14 +17283,16 @@
         <v>211</v>
       </c>
       <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
+      <c r="H118" s="6" t="s">
+        <v>1301</v>
+      </c>
     </row>
     <row r="119" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>1120</v>
+        <v>1109</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>1121</v>
+        <v>1298</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>10</v>
@@ -16615,16 +17305,18 @@
         <v>211</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H119" s="6"/>
-    </row>
-    <row r="120" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1286</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>1123</v>
+        <v>1110</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>1124</v>
+        <v>1111</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>104</v>
@@ -16639,12 +17331,12 @@
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>1125</v>
+        <v>1112</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>1126</v>
+        <v>1113</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>104</v>
@@ -16656,17 +17348,15 @@
       <c r="F121" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G121" s="6" t="s">
-        <v>1005</v>
-      </c>
+      <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>1127</v>
+        <v>1114</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>1128</v>
+        <v>1115</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>104</v>
@@ -16678,17 +17368,15 @@
       <c r="F122" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G122" s="6" t="s">
-        <v>1129</v>
-      </c>
+      <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>1130</v>
+        <v>1116</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>1131</v>
+        <v>1117</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>10</v>
@@ -16703,12 +17391,12 @@
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
     </row>
-    <row r="124" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>1132</v>
+        <v>1118</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>1133</v>
+        <v>1119</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>10</v>
@@ -16720,15 +17408,19 @@
       <c r="F124" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
+      <c r="G124" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>1300</v>
+      </c>
     </row>
     <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>184</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>1134</v>
+        <v>1120</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>10</v>
@@ -16745,10 +17437,10 @@
     </row>
     <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>1135</v>
+        <v>1121</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>1136</v>
+        <v>1122</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>10</v>
@@ -16763,12 +17455,12 @@
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>1011</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>1012</v>
+        <v>1308</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>104</v>
@@ -16780,17 +17472,15 @@
       <c r="F127" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G127" s="6" t="s">
-        <v>1013</v>
-      </c>
+      <c r="G127" s="6"/>
       <c r="H127" s="6"/>
     </row>
-    <row r="128" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>1137</v>
+        <v>1123</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>1138</v>
+        <v>1124</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>104</v>
@@ -16805,12 +17495,12 @@
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
     </row>
-    <row r="129" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>1139</v>
+        <v>1125</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>1140</v>
+        <v>1126</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>10</v>
@@ -16822,17 +17512,15 @@
       <c r="F129" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G129" s="6" t="s">
-        <v>1076</v>
-      </c>
+      <c r="G129" s="6"/>
       <c r="H129" s="6"/>
     </row>
-    <row r="130" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>1141</v>
+        <v>1127</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>1142</v>
+        <v>1128</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>10</v>
@@ -16847,12 +17535,12 @@
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
-    <row r="131" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>1143</v>
+        <v>1129</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>1144</v>
+        <v>1130</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>10</v>
@@ -16864,15 +17552,19 @@
       <c r="F131" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
-    </row>
-    <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G131" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H131" s="6" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>1146</v>
+        <v>1132</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>10</v>
@@ -16887,12 +17579,12 @@
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>1147</v>
+        <v>1133</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>1148</v>
+        <v>1134</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>10</v>
@@ -16907,12 +17599,12 @@
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
-    <row r="134" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>1149</v>
+        <v>1135</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>1150</v>
+        <v>1315</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>10</v>
@@ -16927,12 +17619,12 @@
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>1151</v>
+        <v>1136</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>1152</v>
+        <v>1137</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>10</v>
@@ -16944,15 +17636,22 @@
       <c r="F135" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
-    </row>
-    <row r="136" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G135" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H135" s="6" t="s">
+        <v>1136</v>
+      </c>
+      <c r="I135" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>1154</v>
+        <v>1314</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>10</v>
@@ -16967,12 +17666,12 @@
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
-    <row r="137" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>1155</v>
+        <v>1139</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>1156</v>
+        <v>1305</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>10</v>
@@ -16987,12 +17686,12 @@
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
-    <row r="138" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>1157</v>
+        <v>1140</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>1158</v>
+        <v>1141</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>10</v>
@@ -17004,15 +17703,19 @@
       <c r="F138" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G138" s="6"/>
-      <c r="H138" s="6"/>
-    </row>
-    <row r="139" spans="1:8" ht="44.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G138" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H138" s="6" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>1159</v>
+        <v>1142</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>1160</v>
+        <v>1143</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>104</v>
@@ -17025,16 +17728,21 @@
         <v>211</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>1161</v>
-      </c>
-      <c r="H139" s="6"/>
-    </row>
-    <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1286</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="32" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1159</v>
+      </c>
+      <c r="B143" s="44" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>0</v>
       </c>
@@ -17060,12 +17768,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>1163</v>
+        <v>1145</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>1164</v>
+        <v>1322</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>17</v>
@@ -17080,12 +17788,12 @@
       <c r="G145" s="6"/>
       <c r="H145" s="7"/>
     </row>
-    <row r="146" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>1165</v>
+        <v>1146</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>1166</v>
+        <v>1320</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>104</v>
@@ -17097,17 +17805,15 @@
       <c r="F146" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G146" s="6" t="s">
-        <v>1167</v>
-      </c>
+      <c r="G146" s="6"/>
       <c r="H146" s="7"/>
     </row>
     <row r="147" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>1168</v>
+        <v>1147</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>1169</v>
+        <v>1148</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>10</v>
@@ -17124,10 +17830,10 @@
     </row>
     <row r="148" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>1170</v>
+        <v>1149</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>1171</v>
+        <v>1321</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>17</v>
@@ -17147,7 +17853,7 @@
         <v>423</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>1172</v>
+        <v>1150</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>10</v>
@@ -17164,10 +17870,10 @@
     </row>
     <row r="150" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>1173</v>
+        <v>1151</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>1174</v>
+        <v>1152</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>17</v>
@@ -17182,12 +17888,12 @@
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
     </row>
-    <row r="151" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>1175</v>
+        <v>1153</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>1176</v>
+        <v>1318</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>10</v>
@@ -17204,10 +17910,10 @@
     </row>
     <row r="152" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>1177</v>
+        <v>1154</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>1178</v>
+        <v>1155</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>10</v>
@@ -17227,7 +17933,7 @@
         <v>1089</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>1090</v>
+        <v>1319</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>10</v>
@@ -17244,10 +17950,10 @@
     </row>
     <row r="154" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>1179</v>
+        <v>1156</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>1180</v>
+        <v>1157</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>10</v>
@@ -17264,7 +17970,7 @@
     </row>
     <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>1181</v>
+        <v>1158</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>806</v>
@@ -17284,10 +17990,13 @@
     </row>
     <row r="159" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="33" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1162</v>
+      </c>
+      <c r="B159" s="44" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>0</v>
       </c>
@@ -17332,7 +18041,7 @@
       </c>
       <c r="G161" s="6"/>
       <c r="H161" s="8" t="s">
-        <v>1183</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17623,7 +18332,7 @@
     </row>
     <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
-        <v>1184</v>
+        <v>1161</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>328</v>
@@ -17641,12 +18350,15 @@
       <c r="G176" s="6"/>
       <c r="H176" s="6"/>
     </row>
-    <row r="181" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="35" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1212</v>
+      </c>
+      <c r="B181" s="44" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>0</v>
       </c>
@@ -17674,10 +18386,10 @@
     </row>
     <row r="183" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>1187</v>
+        <v>1164</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>10</v>
@@ -17694,10 +18406,10 @@
     </row>
     <row r="184" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
-        <v>1188</v>
+        <v>1165</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>1189</v>
+        <v>1166</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>10</v>
@@ -17734,10 +18446,10 @@
     </row>
     <row r="186" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>1190</v>
+        <v>1167</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>1191</v>
+        <v>1168</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>10</v>
@@ -17774,10 +18486,10 @@
     </row>
     <row r="188" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
-        <v>1192</v>
+        <v>1169</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>1193</v>
+        <v>1170</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>104</v>
@@ -17790,16 +18502,16 @@
         <v>210</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>1194</v>
+        <v>1171</v>
       </c>
       <c r="H188" s="6"/>
     </row>
     <row r="189" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
-        <v>1195</v>
+        <v>1172</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>1196</v>
+        <v>1173</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>10</v>
@@ -17816,10 +18528,10 @@
     </row>
     <row r="190" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
-        <v>1197</v>
+        <v>1174</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>1198</v>
+        <v>1175</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>104</v>
@@ -17836,10 +18548,10 @@
     </row>
     <row r="191" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
-        <v>1199</v>
+        <v>1176</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>1200</v>
+        <v>1177</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>10</v>
@@ -17856,10 +18568,10 @@
     </row>
     <row r="192" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>1201</v>
+        <v>1178</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>1202</v>
+        <v>1179</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>104</v>
@@ -17872,16 +18584,16 @@
         <v>211</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>1203</v>
+        <v>1180</v>
       </c>
       <c r="H192" s="6"/>
     </row>
     <row r="193" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>1204</v>
+        <v>1181</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>1205</v>
+        <v>1182</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>10</v>
@@ -17898,16 +18610,16 @@
     </row>
     <row r="194" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>1206</v>
+        <v>1183</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>1207</v>
+        <v>1184</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>1208</v>
+        <v>1185</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>1209</v>
+        <v>1186</v>
       </c>
       <c r="E194" s="6"/>
       <c r="F194" s="6" t="s">
@@ -17941,7 +18653,7 @@
         <v>160</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>1210</v>
+        <v>1187</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>10</v>
@@ -17960,10 +18672,10 @@
     </row>
     <row r="197" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
-        <v>1211</v>
+        <v>1188</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>1212</v>
+        <v>1189</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>10</v>
@@ -17980,10 +18692,10 @@
     </row>
     <row r="198" spans="1:8" ht="45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>1213</v>
+        <v>1190</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>1214</v>
+        <v>1191</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>10</v>
@@ -18000,10 +18712,10 @@
     </row>
     <row r="199" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
-        <v>1215</v>
+        <v>1192</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>1216</v>
+        <v>1193</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>10</v>
@@ -18020,10 +18732,10 @@
     </row>
     <row r="200" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
-        <v>1217</v>
+        <v>1194</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>1218</v>
+        <v>1195</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>10</v>
@@ -18040,10 +18752,10 @@
     </row>
     <row r="201" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>1219</v>
+        <v>1196</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>1220</v>
+        <v>1197</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>10</v>
@@ -18060,10 +18772,10 @@
     </row>
     <row r="202" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
-        <v>1221</v>
+        <v>1198</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>1222</v>
+        <v>1199</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>10</v>
@@ -18080,10 +18792,10 @@
     </row>
     <row r="203" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
-        <v>1223</v>
+        <v>1200</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>1224</v>
+        <v>1201</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>10</v>
@@ -18100,10 +18812,10 @@
     </row>
     <row r="204" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
-        <v>1225</v>
+        <v>1202</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>1226</v>
+        <v>1203</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>10</v>
@@ -18120,10 +18832,10 @@
     </row>
     <row r="205" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
-        <v>1227</v>
+        <v>1204</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>1228</v>
+        <v>1205</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>10</v>
@@ -18140,10 +18852,10 @@
     </row>
     <row r="206" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
-        <v>1229</v>
+        <v>1206</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>1230</v>
+        <v>1207</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>10</v>
@@ -18160,10 +18872,10 @@
     </row>
     <row r="207" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
-        <v>1231</v>
+        <v>1208</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>1232</v>
+        <v>1209</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>44</v>
@@ -18180,10 +18892,10 @@
     </row>
     <row r="208" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
-        <v>1233</v>
+        <v>1210</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>1234</v>
+        <v>1211</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>10</v>
@@ -18200,7 +18912,10 @@
     </row>
     <row r="213" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="32" t="s">
-        <v>1238</v>
+        <v>1215</v>
+      </c>
+      <c r="B213" s="45" t="s">
+        <v>1283</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -18248,7 +18963,7 @@
       </c>
       <c r="G215" s="6"/>
       <c r="H215" s="8" t="s">
-        <v>1183</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -18395,7 +19110,7 @@
       <c r="G222" s="6"/>
       <c r="H222" s="6"/>
     </row>
-    <row r="223" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>1074</v>
       </c>
@@ -18436,7 +19151,7 @@
       </c>
       <c r="G224" s="6"/>
       <c r="H224" s="5" t="s">
-        <v>1236</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="45" thickBot="1" x14ac:dyDescent="0.3">
@@ -18457,7 +19172,7 @@
         <v>211</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>1237</v>
+        <v>1214</v>
       </c>
       <c r="H225" s="6"/>
     </row>
@@ -18481,7 +19196,7 @@
       <c r="G226" s="6"/>
       <c r="H226" s="6"/>
     </row>
-    <row r="227" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>1083</v>
       </c>
@@ -18545,7 +19260,7 @@
     </row>
     <row r="230" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
-        <v>1184</v>
+        <v>1161</v>
       </c>
       <c r="B230" s="5" t="s">
         <v>328</v>
@@ -18565,10 +19280,13 @@
     </row>
     <row r="234" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="33" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1227</v>
+      </c>
+      <c r="B234" s="44" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>0</v>
       </c>
@@ -18596,10 +19314,10 @@
     </row>
     <row r="236" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
-        <v>1239</v>
+        <v>1216</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>1240</v>
+        <v>1323</v>
       </c>
       <c r="C236" s="6" t="s">
         <v>10</v>
@@ -18609,17 +19327,21 @@
       </c>
       <c r="E236" s="6"/>
       <c r="F236" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="G236" s="6"/>
-      <c r="H236" s="7"/>
-    </row>
-    <row r="237" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1234</v>
+      </c>
+      <c r="G236" s="6" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H236" s="7" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
-        <v>1241</v>
+        <v>1217</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>1242</v>
+        <v>1324</v>
       </c>
       <c r="C237" s="6" t="s">
         <v>10</v>
@@ -18628,18 +19350,20 @@
         <v>60</v>
       </c>
       <c r="E237" s="6"/>
-      <c r="F237" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G237" s="6"/>
-      <c r="H237" s="7"/>
-    </row>
-    <row r="238" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F237" s="6"/>
+      <c r="G237" s="6" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H237" s="7" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
-        <v>1243</v>
+        <v>1218</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>1244</v>
+        <v>1325</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>10</v>
@@ -18648,9 +19372,7 @@
         <v>60</v>
       </c>
       <c r="E238" s="6"/>
-      <c r="F238" s="6" t="s">
-        <v>211</v>
-      </c>
+      <c r="F238" s="6"/>
       <c r="G238" s="6"/>
       <c r="H238" s="7"/>
     </row>
@@ -18659,7 +19381,7 @@
         <v>140</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>141</v>
+        <v>1326</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>10</v>
@@ -18668,18 +19390,20 @@
         <v>64</v>
       </c>
       <c r="E239" s="6"/>
-      <c r="F239" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G239" s="6"/>
-      <c r="H239" s="6"/>
-    </row>
-    <row r="240" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F239" s="6"/>
+      <c r="G239" s="6" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H239" s="6" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
         <v>1009</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>1010</v>
+        <v>1329</v>
       </c>
       <c r="C240" s="6" t="s">
         <v>10</v>
@@ -18688,20 +19412,16 @@
         <v>64</v>
       </c>
       <c r="E240" s="6"/>
-      <c r="F240" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G240" s="6" t="s">
-        <v>781</v>
-      </c>
+      <c r="F240" s="6"/>
+      <c r="G240" s="6"/>
       <c r="H240" s="6"/>
     </row>
-    <row r="241" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
         <v>1014</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>1015</v>
+        <v>1295</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>10</v>
@@ -18710,18 +19430,20 @@
         <v>64</v>
       </c>
       <c r="E241" s="6"/>
-      <c r="F241" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G241" s="6"/>
-      <c r="H241" s="6"/>
-    </row>
-    <row r="242" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F241" s="6"/>
+      <c r="G241" s="6" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H241" s="6" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
         <v>1006</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>1007</v>
+        <v>1327</v>
       </c>
       <c r="C242" s="6" t="s">
         <v>104</v>
@@ -18730,15 +19452,11 @@
         <v>2</v>
       </c>
       <c r="E242" s="6"/>
-      <c r="F242" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G242" s="6" t="s">
-        <v>1008</v>
-      </c>
+      <c r="F242" s="6"/>
+      <c r="G242" s="6"/>
       <c r="H242" s="6"/>
     </row>
-    <row r="243" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
         <v>1017</v>
       </c>
@@ -18752,12 +19470,8 @@
         <v>3</v>
       </c>
       <c r="E243" s="6"/>
-      <c r="F243" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G243" s="6" t="s">
-        <v>1018</v>
-      </c>
+      <c r="F243" s="6"/>
+      <c r="G243" s="6"/>
       <c r="H243" s="6"/>
     </row>
     <row r="244" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -18765,7 +19479,7 @@
         <v>1019</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>795</v>
+        <v>1330</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>104</v>
@@ -18774,20 +19488,20 @@
         <v>2</v>
       </c>
       <c r="E244" s="6"/>
-      <c r="F244" s="6" t="s">
-        <v>211</v>
-      </c>
+      <c r="F244" s="6"/>
       <c r="G244" s="6" t="s">
-        <v>1020</v>
-      </c>
-      <c r="H244" s="6"/>
-    </row>
-    <row r="245" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1331</v>
+      </c>
+      <c r="H244" s="6" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
         <v>108</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>1245</v>
+        <v>1219</v>
       </c>
       <c r="C245" s="6" t="s">
         <v>10</v>
@@ -18796,13 +19510,15 @@
         <v>100</v>
       </c>
       <c r="E245" s="6"/>
-      <c r="F245" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G245" s="6"/>
-      <c r="H245" s="6"/>
-    </row>
-    <row r="246" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F245" s="6"/>
+      <c r="G245" s="6" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H245" s="6" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
         <v>1053</v>
       </c>
@@ -18816,12 +19532,8 @@
         <v>1</v>
       </c>
       <c r="E246" s="6"/>
-      <c r="F246" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G246" s="6" t="s">
-        <v>1054</v>
-      </c>
+      <c r="F246" s="6"/>
+      <c r="G246" s="6"/>
       <c r="H246" s="6"/>
     </row>
     <row r="247" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -18838,9 +19550,7 @@
         <v>8</v>
       </c>
       <c r="E247" s="6"/>
-      <c r="F247" s="6" t="s">
-        <v>211</v>
-      </c>
+      <c r="F247" s="6"/>
       <c r="G247" s="6"/>
       <c r="H247" s="6"/>
     </row>
@@ -18858,18 +19568,16 @@
         <v>100</v>
       </c>
       <c r="E248" s="6"/>
-      <c r="F248" s="6" t="s">
-        <v>211</v>
-      </c>
+      <c r="F248" s="6"/>
       <c r="G248" s="6"/>
       <c r="H248" s="6"/>
     </row>
-    <row r="249" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
-        <v>1246</v>
+        <v>1220</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>1247</v>
+        <v>1221</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>44</v>
@@ -18878,18 +19586,20 @@
         <v>4</v>
       </c>
       <c r="E249" s="6"/>
-      <c r="F249" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G249" s="6"/>
-      <c r="H249" s="6"/>
-    </row>
-    <row r="250" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F249" s="6"/>
+      <c r="G249" s="6" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H249" s="6" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
         <v>1021</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>1022</v>
+        <v>1328</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>10</v>
@@ -18898,18 +19608,16 @@
         <v>64</v>
       </c>
       <c r="E250" s="6"/>
-      <c r="F250" s="6" t="s">
-        <v>211</v>
-      </c>
+      <c r="F250" s="6"/>
       <c r="G250" s="6"/>
       <c r="H250" s="6"/>
     </row>
     <row r="251" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
-        <v>1248</v>
+        <v>1222</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>1249</v>
+        <v>1223</v>
       </c>
       <c r="C251" s="6" t="s">
         <v>10</v>
@@ -18918,18 +19626,20 @@
         <v>64</v>
       </c>
       <c r="E251" s="6"/>
-      <c r="F251" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G251" s="6"/>
-      <c r="H251" s="6"/>
+      <c r="F251" s="6"/>
+      <c r="G251" s="6" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H251" s="6" t="s">
+        <v>1332</v>
+      </c>
     </row>
     <row r="252" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
-        <v>1250</v>
+        <v>1224</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>1251</v>
+        <v>1225</v>
       </c>
       <c r="C252" s="6" t="s">
         <v>10</v>
@@ -18938,18 +19648,16 @@
         <v>64</v>
       </c>
       <c r="E252" s="6"/>
-      <c r="F252" s="6" t="s">
-        <v>211</v>
-      </c>
+      <c r="F252" s="6"/>
       <c r="G252" s="6"/>
       <c r="H252" s="6"/>
     </row>
     <row r="253" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
-        <v>1252</v>
+        <v>1226</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>1234</v>
+        <v>1211</v>
       </c>
       <c r="C253" s="6" t="s">
         <v>10</v>
@@ -18958,15 +19666,16 @@
         <v>2000</v>
       </c>
       <c r="E253" s="6"/>
-      <c r="F253" s="6" t="s">
-        <v>211</v>
-      </c>
+      <c r="F253" s="6"/>
       <c r="G253" s="6"/>
       <c r="H253" s="6"/>
     </row>
     <row r="257" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="32" t="s">
-        <v>1255</v>
+        <v>1229</v>
+      </c>
+      <c r="B257" s="45" t="s">
+        <v>1285</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -19159,7 +19868,7 @@
       <c r="G266" s="6"/>
       <c r="H266" s="6"/>
     </row>
-    <row r="267" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
         <v>1074</v>
       </c>
@@ -19201,7 +19910,7 @@
       <c r="G268" s="6"/>
       <c r="H268" s="6"/>
     </row>
-    <row r="269" spans="1:8" ht="73.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" ht="60" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
         <v>1079</v>
       </c>
@@ -19219,7 +19928,7 @@
         <v>211</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>1254</v>
+        <v>1228</v>
       </c>
       <c r="H269" s="6"/>
     </row>
@@ -19243,7 +19952,7 @@
       <c r="G270" s="6"/>
       <c r="H270" s="6"/>
     </row>
-    <row r="271" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
         <v>1083</v>
       </c>
@@ -19307,7 +20016,7 @@
     </row>
     <row r="274" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
-        <v>1184</v>
+        <v>1161</v>
       </c>
       <c r="B274" s="5" t="s">
         <v>328</v>

--- a/重庆二师_Dev/doc/ods-fdm -zkc.xlsx
+++ b/重庆二师_Dev/doc/ods-fdm -zkc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="1337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3458" uniqueCount="1368">
   <si>
     <t>字段名</t>
   </si>
@@ -5312,34 +5312,19 @@
     <t>BRRQ</t>
   </si>
   <si>
-    <t>拨入日期</t>
-  </si>
-  <si>
     <t>BKS</t>
   </si>
   <si>
-    <t>支出日期</t>
-  </si>
-  <si>
     <t>BFXZDWJF</t>
   </si>
   <si>
-    <t>拨付协作单位经费</t>
-  </si>
-  <si>
     <t>XMPZBH</t>
   </si>
   <si>
     <t>JBRXM</t>
   </si>
   <si>
-    <t>经办人姓名</t>
-  </si>
-  <si>
     <t>BKDW</t>
-  </si>
-  <si>
-    <t>拨款单位</t>
   </si>
   <si>
     <t>BZ</t>
@@ -5799,68 +5784,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>人员类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>校内老师</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>校外老师</t>
-    </r>
-  </si>
-  <si>
     <t>11、科研-著作人员信息表(edu_fdm_ky_zz_ry)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -5904,10 +5827,6 @@
   </si>
   <si>
     <t>工作量</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>科研编号</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -6114,7 +6033,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3、</t>
+      <t>4、</t>
     </r>
     <r>
       <rPr>
@@ -6145,7 +6064,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>论文人员表</t>
+      <t>论文发表信息表</t>
     </r>
     <r>
       <rPr>
@@ -6154,7 +6073,62 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>(edu_fdm_ky_lw_ry)</t>
+      <t>(edu_fdm_ky_lwfb)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、科研</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目基本信息表</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>(edu_fdm_ky_xm)</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -6167,7 +6141,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>4、</t>
+      <t>7、</t>
     </r>
     <r>
       <rPr>
@@ -6198,7 +6172,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>论文发表信息表</t>
+      <t>项目人员信息表</t>
     </r>
     <r>
       <rPr>
@@ -6207,62 +6181,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>(edu_fdm_ky_lwfb)</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、科研</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目基本信息表</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>(edu_fdm_ky_xm)</t>
+      <t>(edu_fdm_ky_xm_ry)</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -6275,7 +6194,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>7、</t>
+      <t>8、</t>
     </r>
     <r>
       <rPr>
@@ -6306,7 +6225,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>项目人员信息表</t>
+      <t>专利成果信息表</t>
     </r>
     <r>
       <rPr>
@@ -6315,8 +6234,12 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>(edu_fdm_ky_xm_ry)</t>
-    </r>
+      <t>(edu_fdm_ky_zlcg)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>9、科研-专利人员信息表(edu_fdm_ky_zl_ry)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -6328,7 +6251,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>8、</t>
+      <t>10、</t>
     </r>
     <r>
       <rPr>
@@ -6359,7 +6282,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>专利成果信息表</t>
+      <t>著作信息表</t>
     </r>
     <r>
       <rPr>
@@ -6368,12 +6291,358 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>(edu_fdm_ky_zlcg)</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>9、科研-专利人员信息表(edu_fdm_ky_zl_ry)</t>
+      <t>(edu_fdm_ky_zz)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_PROJECT</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>UNIT_ID</t>
+  </si>
+  <si>
+    <t>UNIT_ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT_TYPE_ID</t>
+  </si>
+  <si>
+    <t>项目负责人号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHARGER_CODE</t>
+  </si>
+  <si>
+    <t>专项编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目来源码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目批准号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目类别码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_MODE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTHORIZE_DATE</t>
+  </si>
+  <si>
+    <t>AUTHORIZE_SN</t>
+  </si>
+  <si>
+    <t>COOPERATE_ID</t>
+  </si>
+  <si>
+    <t>PROJECT_SOURCE_UNIT</t>
+  </si>
+  <si>
+    <t>PROJECT_CLASS_ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属主课题</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>结项日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>学科门类（科技）码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目委托单位名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>START_DATE</t>
+  </si>
+  <si>
+    <t>PROJECT_SOURCE_ID</t>
+  </si>
+  <si>
+    <t>所属技术领域</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>与DM_SHJJMB表有关联</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题词</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>开题日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>署名顺序</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目经费来源码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>著作编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>著作中文名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>著作英文名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>论著类别码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属项目编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>学科领域码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>语种码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_BOOK</t>
+  </si>
+  <si>
+    <t>ISBN</t>
+  </si>
+  <si>
+    <t>PUBLISH_UNIT</t>
+  </si>
+  <si>
+    <t>LANGUAGE_ID</t>
+  </si>
+  <si>
+    <t>WORD_NUMBER</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBLISH_LEVEL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBLISH_DATE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>出版号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>11、科研-著作人员信息表(edu_fdm_ky_zz_ry)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_BOOK_AUTHOR</t>
+  </si>
+  <si>
+    <t>S_BOOK_AUTHOR的book_id与s_book的ID可以做关联</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTHOR_NAME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTHOR_ID</t>
+  </si>
+  <si>
+    <t>SEX_ID</t>
+  </si>
+  <si>
+    <t>AUTHOR_UNIT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORK_RATIO</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_ID</t>
+  </si>
+  <si>
+    <t>AUTHOR_TYPE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTHOR_UNIT_ID</t>
+  </si>
+  <si>
+    <t>EDU_LEVEL_ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>出版社级别码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人参与项目的工作量比例，单位：％</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ACTUAL_END_DATE</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SECRECY_LEVEL</t>
+  </si>
+  <si>
+    <t>社会经济效益码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>学科领域码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBJECT_CLASS_ID</t>
+  </si>
+  <si>
+    <t>项目委托单位码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INDUSTRY_ID</t>
+  </si>
+  <si>
+    <t>计划经费总额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨款数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨款单位</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_PROJECT_INCOME</t>
+  </si>
+  <si>
+    <t>PROJECT_ID</t>
+  </si>
+  <si>
+    <t>INCOME_UNIT</t>
+  </si>
+  <si>
+    <t>FEE_SUM</t>
+  </si>
+  <si>
+    <t>拨入日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目凭证编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEE_SOURCES_ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_PROJECT_PAYOUT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_PROJECT_INCOME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>与S_PROJECT_INCOME中的PROJECT_ID项目编号做关联</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨付协作单位经费</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>经办人姓名</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPOSER</t>
+  </si>
+  <si>
+    <t>科研编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_PAPER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_PROJECT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_BOOK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_BOOK_AUTHOR</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -6385,7 +6654,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>10、</t>
+      <t>6、</t>
     </r>
     <r>
       <rPr>
@@ -6416,208 +6685,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>著作信息表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(edu_fdm_ky_zz)</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>11、科研-著作人员信息表(edu_fdm_ky_zz_ry)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_PROJECT</t>
-  </si>
-  <si>
-    <t>CODE</t>
-  </si>
-  <si>
-    <t>UNIT_ID</t>
-  </si>
-  <si>
-    <t>UNIT_ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROJECT_TYPE_ID</t>
-  </si>
-  <si>
-    <t>项目负责人号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHARGER_CODE</t>
-  </si>
-  <si>
-    <t>专项编号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目委托单位码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目来源码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>社会经济效益码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目批准号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目类别码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_MODE</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTHORIZE_DATE</t>
-  </si>
-  <si>
-    <t>AUTHORIZE_SN</t>
-  </si>
-  <si>
-    <t>COOPERATE_ID</t>
-  </si>
-  <si>
-    <t>PROJECT_SOURCE_UNIT</t>
-  </si>
-  <si>
-    <t>PROJECT_CLASS_ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属主课题</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>结项日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>PLAN_END_DATE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">？
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ACTUAL_END_DATE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>？</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>学科门类（科技）码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目委托单位名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>START_DATE</t>
-  </si>
-  <si>
-    <t>PROJECT_SOURCE_ID</t>
-  </si>
-  <si>
-    <t>所属技术领域</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>与DM_SHJJMB表有关联</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题词</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>开题日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>署名顺序</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>科研</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>项目经费信息表</t>
     </r>
     <r>
@@ -6629,77 +6696,6 @@
       </rPr>
       <t>(edu_fdm_ky_xmjf)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目凭证编号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目编号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目经费来源码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>拨款数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划经费总额</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>著作编号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>著作中文名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>著作英文名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>论著类别码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属项目编号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>学科领域码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>语种码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_BOOK</t>
-  </si>
-  <si>
-    <t>ISBN</t>
-  </si>
-  <si>
-    <t>PUBLISH_UNIT</t>
-  </si>
-  <si>
-    <t>LANGUAGE_ID</t>
-  </si>
-  <si>
-    <t>WORD_NUMBER</t>
-  </si>
-  <si>
-    <t>ID</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -6710,7 +6706,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6920,6 +6916,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -7095,7 +7097,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -7221,6 +7223,10 @@
     <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -15071,16 +15077,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B245" workbookViewId="0">
-      <selection activeCell="G248" sqref="G248"/>
+    <sheetView tabSelected="1" topLeftCell="B142" workbookViewId="0">
+      <selection activeCell="H146" sqref="H146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.88671875" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -15088,12 +15094,12 @@
         <v>661</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="63.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>1061</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -15142,7 +15148,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>999</v>
       </c>
@@ -15162,7 +15168,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>1001</v>
       </c>
@@ -15202,7 +15208,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>1003</v>
       </c>
@@ -15224,7 +15230,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>1006</v>
       </c>
@@ -15246,7 +15252,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>1009</v>
       </c>
@@ -15268,7 +15274,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>1011</v>
       </c>
@@ -15290,7 +15296,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>1014</v>
       </c>
@@ -15312,7 +15318,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>1017</v>
       </c>
@@ -15356,7 +15362,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>1021</v>
       </c>
@@ -15376,7 +15382,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>1023</v>
       </c>
@@ -15396,7 +15402,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>1025</v>
       </c>
@@ -15418,7 +15424,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>1028</v>
       </c>
@@ -15458,12 +15464,12 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="33" t="s">
         <v>1062</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -15512,7 +15518,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>999</v>
       </c>
@@ -15532,7 +15538,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>1001</v>
       </c>
@@ -15552,7 +15558,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>140</v>
       </c>
@@ -15574,7 +15580,7 @@
       </c>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>1003</v>
       </c>
@@ -15596,7 +15602,7 @@
       </c>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>1006</v>
       </c>
@@ -15618,7 +15624,7 @@
       </c>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>1009</v>
       </c>
@@ -15640,7 +15646,7 @@
       </c>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>1011</v>
       </c>
@@ -15662,7 +15668,7 @@
       </c>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>1014</v>
       </c>
@@ -15684,7 +15690,7 @@
       </c>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>1017</v>
       </c>
@@ -15728,7 +15734,7 @@
       </c>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>1021</v>
       </c>
@@ -15748,7 +15754,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>1023</v>
       </c>
@@ -15768,7 +15774,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>1025</v>
       </c>
@@ -15788,7 +15794,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>1028</v>
       </c>
@@ -15888,7 +15894,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>160</v>
       </c>
@@ -15910,7 +15916,7 @@
       </c>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>1040</v>
       </c>
@@ -16032,7 +16038,7 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>1053</v>
       </c>
@@ -16074,7 +16080,7 @@
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>1057</v>
       </c>
@@ -16094,7 +16100,7 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>1059</v>
       </c>
@@ -16114,12 +16120,12 @@
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="33" t="s">
         <v>1088</v>
       </c>
-      <c r="B58" s="43" t="s">
-        <v>1278</v>
+      <c r="B58" s="47" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -16148,12 +16154,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>1063</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>10</v>
@@ -16163,21 +16169,21 @@
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="G60" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H60" s="7" t="s">
         <v>1235</v>
       </c>
-      <c r="H60" s="7" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>10</v>
@@ -16187,16 +16193,16 @@
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>317</v>
       </c>
@@ -16211,21 +16217,21 @@
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>10</v>
@@ -16235,21 +16241,21 @@
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>10</v>
@@ -16259,21 +16265,21 @@
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>1066</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>10</v>
@@ -16283,21 +16289,21 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>1068</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>100</v>
@@ -16307,19 +16313,19 @@
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>1072</v>
       </c>
@@ -16344,7 +16350,7 @@
         <v>1074</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>104</v>
@@ -16357,11 +16363,9 @@
         <v>211</v>
       </c>
       <c r="G68" s="6"/>
-      <c r="H68" s="6" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>1077</v>
       </c>
@@ -16401,12 +16405,12 @@
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>1081</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>1316</v>
+        <v>1304</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>10</v>
@@ -16419,10 +16423,10 @@
         <v>211</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -16430,7 +16434,7 @@
         <v>1083</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>10</v>
@@ -16443,13 +16447,13 @@
         <v>211</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -16457,7 +16461,7 @@
         <v>1086</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>1241</v>
+        <v>1362</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>10</v>
@@ -16514,10 +16518,10 @@
     </row>
     <row r="79" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="32" t="s">
-        <v>1263</v>
+        <v>1256</v>
       </c>
       <c r="B79" s="44" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -16551,7 +16555,7 @@
         <v>1034</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>10</v>
@@ -16561,16 +16565,16 @@
       </c>
       <c r="E81" s="39"/>
       <c r="F81" s="39" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="G81" s="39" t="s">
-        <v>1264</v>
+        <v>1363</v>
       </c>
       <c r="H81" s="40" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>1036</v>
       </c>
@@ -16586,18 +16590,18 @@
       <c r="E82" s="39"/>
       <c r="F82" s="39"/>
       <c r="G82" s="39" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="H82" s="40" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>1038</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>10</v>
@@ -16608,13 +16612,13 @@
       <c r="E83" s="39"/>
       <c r="F83" s="39"/>
       <c r="G83" s="39" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="H83" s="40" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>160</v>
       </c>
@@ -16632,12 +16636,12 @@
       <c r="G84" s="39"/>
       <c r="H84" s="39"/>
     </row>
-    <row r="85" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>1040</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>104</v>
@@ -16650,12 +16654,12 @@
       <c r="G85" s="39"/>
       <c r="H85" s="39"/>
     </row>
-    <row r="86" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>1043</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>44</v>
@@ -16666,18 +16670,18 @@
       <c r="E86" s="39"/>
       <c r="F86" s="39"/>
       <c r="G86" s="39" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="H86" s="39" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>1045</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>44</v>
@@ -16688,18 +16692,18 @@
       <c r="E87" s="39"/>
       <c r="F87" s="39"/>
       <c r="G87" s="39" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="H87" s="39" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>1047</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>10</v>
@@ -16710,10 +16714,10 @@
       <c r="E88" s="39"/>
       <c r="F88" s="39"/>
       <c r="G88" s="39" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="H88" s="39" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -16721,7 +16725,7 @@
         <v>1049</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>10</v>
@@ -16734,12 +16738,12 @@
       <c r="G89" s="39"/>
       <c r="H89" s="39"/>
     </row>
-    <row r="90" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>1051</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>17</v>
@@ -16750,18 +16754,18 @@
       <c r="E90" s="39"/>
       <c r="F90" s="39"/>
       <c r="G90" s="39" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="H90" s="39" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>1053</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>802</v>
+        <v>1336</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>10</v>
@@ -16779,7 +16783,7 @@
         <v>1055</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>10</v>
@@ -16790,18 +16794,18 @@
       <c r="E92" s="39"/>
       <c r="F92" s="39"/>
       <c r="G92" s="39" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="H92" s="39" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>1057</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>104</v>
@@ -16819,7 +16823,7 @@
         <v>997</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>10</v>
@@ -16830,21 +16834,21 @@
       <c r="E94" s="39"/>
       <c r="F94" s="39"/>
       <c r="G94" s="41" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="H94" s="41" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="I94" s="42" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>1059</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>10</v>
@@ -16855,10 +16859,10 @@
       <c r="E95" s="39"/>
       <c r="F95" s="39"/>
       <c r="G95" s="39" t="s">
+        <v>1257</v>
+      </c>
+      <c r="H95" s="39" t="s">
         <v>1264</v>
-      </c>
-      <c r="H95" s="39" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.45">
@@ -16866,7 +16870,7 @@
         <v>1144</v>
       </c>
       <c r="B99" s="46" t="s">
-        <v>1280</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -16895,7 +16899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>1089</v>
       </c>
@@ -16913,13 +16917,13 @@
         <v>210</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>1286</v>
+        <v>1364</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>140</v>
       </c>
@@ -16937,13 +16941,13 @@
         <v>211</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>1091</v>
       </c>
@@ -16961,10 +16965,10 @@
         <v>210</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>1265</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -16972,7 +16976,7 @@
         <v>1093</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>10</v>
@@ -16987,7 +16991,7 @@
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>1094</v>
       </c>
@@ -17005,18 +17009,18 @@
         <v>211</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="87.6" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>1096</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>1306</v>
+        <v>1295</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>10</v>
@@ -17029,18 +17033,18 @@
         <v>211</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>1097</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>10</v>
@@ -17053,10 +17057,10 @@
         <v>211</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17064,7 +17068,7 @@
         <v>1098</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>1294</v>
+        <v>1343</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>10</v>
@@ -17084,7 +17088,7 @@
         <v>1099</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>1309</v>
+        <v>1297</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>10</v>
@@ -17099,12 +17103,12 @@
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>1014</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>104</v>
@@ -17117,10 +17121,10 @@
         <v>211</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>1311</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17148,7 +17152,7 @@
         <v>1102</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>1296</v>
+        <v>1340</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>104</v>
@@ -17168,7 +17172,7 @@
         <v>1009</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>1010</v>
+        <v>1341</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>10</v>
@@ -17180,8 +17184,12 @@
       <c r="F113" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
+      <c r="G113" s="6" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>1342</v>
+      </c>
     </row>
     <row r="114" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
@@ -17223,7 +17231,7 @@
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>1106</v>
       </c>
@@ -17242,7 +17250,7 @@
       </c>
       <c r="G116" s="34"/>
       <c r="H116" s="6" t="s">
-        <v>1302</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17250,7 +17258,7 @@
         <v>1023</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>1312</v>
+        <v>1300</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>10</v>
@@ -17265,12 +17273,12 @@
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>1108</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>1297</v>
+        <v>1286</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>10</v>
@@ -17282,17 +17290,19 @@
       <c r="F118" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G118" s="6"/>
+      <c r="G118" s="6" t="s">
+        <v>1277</v>
+      </c>
       <c r="H118" s="6" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>1109</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>1298</v>
+        <v>1287</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>10</v>
@@ -17305,10 +17315,10 @@
         <v>211</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17328,8 +17338,12 @@
       <c r="F120" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
+      <c r="G120" s="6" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H120" s="48" t="s">
+        <v>1339</v>
+      </c>
     </row>
     <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
@@ -17391,7 +17405,7 @@
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
     </row>
-    <row r="124" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>1118</v>
       </c>
@@ -17409,11 +17423,9 @@
         <v>211</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>1286</v>
-      </c>
-      <c r="H124" s="6" t="s">
-        <v>1300</v>
-      </c>
+        <v>1277</v>
+      </c>
+      <c r="H124" s="6"/>
     </row>
     <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
@@ -17433,7 +17445,9 @@
         <v>211</v>
       </c>
       <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
+      <c r="H125" s="6" t="s">
+        <v>1289</v>
+      </c>
     </row>
     <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
@@ -17460,7 +17474,7 @@
         <v>1011</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>1308</v>
+        <v>1296</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>104</v>
@@ -17492,8 +17506,12 @@
       <c r="F128" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
+      <c r="G128" s="6" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H128" s="6" t="s">
+        <v>1344</v>
+      </c>
     </row>
     <row r="129" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
@@ -17515,7 +17533,7 @@
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
     </row>
-    <row r="130" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>1127</v>
       </c>
@@ -17553,10 +17571,10 @@
         <v>211</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>1299</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17604,7 +17622,7 @@
         <v>1135</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>1315</v>
+        <v>1303</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>10</v>
@@ -17619,7 +17637,7 @@
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>1136</v>
       </c>
@@ -17637,13 +17655,13 @@
         <v>211</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
       <c r="H135" s="6" t="s">
         <v>1136</v>
       </c>
       <c r="I135" t="s">
-        <v>1313</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17651,7 +17669,7 @@
         <v>1138</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>1314</v>
+        <v>1302</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>10</v>
@@ -17671,7 +17689,7 @@
         <v>1139</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>1305</v>
+        <v>1294</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>10</v>
@@ -17686,7 +17704,7 @@
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
-    <row r="138" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>1140</v>
       </c>
@@ -17704,13 +17722,13 @@
         <v>211</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>1142</v>
       </c>
@@ -17728,275 +17746,298 @@
         <v>211</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>1304</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="32" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="B143" s="44" t="s">
-        <v>1317</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D144" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="E144" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F144" s="3" t="s">
+      <c r="F144" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G144" s="3" t="s">
+      <c r="G144" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H144" s="3" t="s">
+      <c r="H144" s="29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>1145</v>
       </c>
-      <c r="B145" s="5" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C145" s="6" t="s">
+      <c r="B145" s="9" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C145" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D145" s="6">
+      <c r="D145" s="11">
         <v>11</v>
       </c>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G145" s="6"/>
-      <c r="H145" s="7"/>
-    </row>
-    <row r="146" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E145" s="11"/>
+      <c r="F145" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+    </row>
+    <row r="146" spans="1:9" ht="115.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>1146</v>
       </c>
-      <c r="B146" s="5" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C146" s="6" t="s">
+      <c r="B146" s="9" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C146" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D146" s="6">
+      <c r="D146" s="11">
         <v>2</v>
       </c>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G146" s="6"/>
-      <c r="H146" s="7"/>
-    </row>
-    <row r="147" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E146" s="11"/>
+      <c r="F146" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H146" s="11" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I146" s="6" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>1147</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="9" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="11">
+        <v>8</v>
+      </c>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
+    </row>
+    <row r="148" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="4" t="s">
         <v>1148</v>
       </c>
-      <c r="C147" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D147" s="6">
-        <v>8</v>
-      </c>
-      <c r="E147" s="6"/>
-      <c r="F147" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G147" s="6"/>
-      <c r="H147" s="7"/>
-    </row>
-    <row r="148" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C148" s="6" t="s">
+      <c r="B148" s="9" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C148" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D148" s="6">
+      <c r="D148" s="11">
         <v>11</v>
       </c>
-      <c r="E148" s="6"/>
-      <c r="F148" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G148" s="6"/>
-      <c r="H148" s="6"/>
-    </row>
-    <row r="149" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E148" s="11"/>
+      <c r="F148" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>1357</v>
+      </c>
+      <c r="H148" s="11" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B149" s="9" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="11">
+        <v>8</v>
+      </c>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+    </row>
+    <row r="150" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" s="11">
+        <v>11</v>
+      </c>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+    </row>
+    <row r="151" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="4" t="s">
         <v>1150</v>
       </c>
-      <c r="C149" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D149" s="6">
-        <v>8</v>
-      </c>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G149" s="6"/>
-      <c r="H149" s="6"/>
-    </row>
-    <row r="150" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="4" t="s">
+      <c r="B151" s="9" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" s="11">
+        <v>64</v>
+      </c>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+    </row>
+    <row r="152" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="4" t="s">
         <v>1151</v>
       </c>
-      <c r="B150" s="5" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D150" s="6">
-        <v>11</v>
-      </c>
-      <c r="E150" s="6"/>
-      <c r="F150" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G150" s="6"/>
-      <c r="H150" s="6"/>
-    </row>
-    <row r="151" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="4" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D151" s="6">
-        <v>64</v>
-      </c>
-      <c r="E151" s="6"/>
-      <c r="F151" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G151" s="6"/>
-      <c r="H151" s="6"/>
-    </row>
-    <row r="152" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="4" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D152" s="6">
+      <c r="B152" s="9" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" s="11">
         <v>100</v>
       </c>
-      <c r="E152" s="6"/>
-      <c r="F152" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G152" s="6"/>
-      <c r="H152" s="6"/>
-    </row>
-    <row r="153" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E152" s="11"/>
+      <c r="F152" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H152" s="11" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>1089</v>
       </c>
-      <c r="B153" s="5" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D153" s="6">
+      <c r="B153" s="9" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" s="11">
         <v>100</v>
       </c>
-      <c r="E153" s="6"/>
-      <c r="F153" s="6" t="s">
+      <c r="E153" s="11"/>
+      <c r="F153" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="G153" s="6"/>
-      <c r="H153" s="6"/>
-    </row>
-    <row r="154" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G153" s="11" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H153" s="11" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B154" s="5" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" s="11">
+        <v>100</v>
+      </c>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H154" s="11" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" s="11">
+        <v>500</v>
+      </c>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G155" s="11"/>
+      <c r="H155" s="11"/>
+    </row>
+    <row r="159" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="33" t="s">
         <v>1157</v>
       </c>
-      <c r="C154" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D154" s="6">
-        <v>100</v>
-      </c>
-      <c r="E154" s="6"/>
-      <c r="F154" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G154" s="6"/>
-      <c r="H154" s="6"/>
-    </row>
-    <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="4" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D155" s="6">
-        <v>500</v>
-      </c>
-      <c r="E155" s="6"/>
-      <c r="F155" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G155" s="6"/>
-      <c r="H155" s="6"/>
-    </row>
-    <row r="159" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="33" t="s">
-        <v>1162</v>
-      </c>
       <c r="B159" s="44" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>0</v>
       </c>
@@ -18022,7 +18063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="48.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>1063</v>
       </c>
@@ -18041,7 +18082,7 @@
       </c>
       <c r="G161" s="6"/>
       <c r="H161" s="8" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -18104,7 +18145,7 @@
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
     </row>
-    <row r="165" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>140</v>
       </c>
@@ -18146,7 +18187,7 @@
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
     </row>
-    <row r="167" spans="1:8" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>1068</v>
       </c>
@@ -18168,7 +18209,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>1072</v>
       </c>
@@ -18208,7 +18249,7 @@
       <c r="G169" s="6"/>
       <c r="H169" s="6"/>
     </row>
-    <row r="170" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>1077</v>
       </c>
@@ -18268,7 +18309,7 @@
       <c r="G172" s="6"/>
       <c r="H172" s="6"/>
     </row>
-    <row r="173" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>1083</v>
       </c>
@@ -18332,7 +18373,7 @@
     </row>
     <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>328</v>
@@ -18350,12 +18391,12 @@
       <c r="G176" s="6"/>
       <c r="H176" s="6"/>
     </row>
-    <row r="181" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="35" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="B181" s="44" t="s">
-        <v>1282</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -18384,12 +18425,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>10</v>
@@ -18404,12 +18445,12 @@
       <c r="G183" s="6"/>
       <c r="H183" s="7"/>
     </row>
-    <row r="184" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>10</v>
@@ -18446,10 +18487,10 @@
     </row>
     <row r="186" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>10</v>
@@ -18464,7 +18505,7 @@
       <c r="G186" s="6"/>
       <c r="H186" s="6"/>
     </row>
-    <row r="187" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>1009</v>
       </c>
@@ -18484,12 +18525,12 @@
       <c r="G187" s="6"/>
       <c r="H187" s="6"/>
     </row>
-    <row r="188" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>104</v>
@@ -18502,16 +18543,16 @@
         <v>210</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="H188" s="6"/>
     </row>
     <row r="189" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>10</v>
@@ -18526,12 +18567,12 @@
       <c r="G189" s="6"/>
       <c r="H189" s="6"/>
     </row>
-    <row r="190" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>104</v>
@@ -18546,12 +18587,12 @@
       <c r="G190" s="6"/>
       <c r="H190" s="6"/>
     </row>
-    <row r="191" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>10</v>
@@ -18566,12 +18607,12 @@
       <c r="G191" s="6"/>
       <c r="H191" s="6"/>
     </row>
-    <row r="192" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>104</v>
@@ -18584,16 +18625,16 @@
         <v>211</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="H192" s="6"/>
     </row>
-    <row r="193" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>10</v>
@@ -18610,16 +18651,16 @@
     </row>
     <row r="194" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="E194" s="6"/>
       <c r="F194" s="6" t="s">
@@ -18628,7 +18669,7 @@
       <c r="G194" s="6"/>
       <c r="H194" s="6"/>
     </row>
-    <row r="195" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>1021</v>
       </c>
@@ -18648,12 +18689,12 @@
       <c r="G195" s="6"/>
       <c r="H195" s="6"/>
     </row>
-    <row r="196" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>160</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>10</v>
@@ -18670,12 +18711,12 @@
       </c>
       <c r="H196" s="6"/>
     </row>
-    <row r="197" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>10</v>
@@ -18690,12 +18731,12 @@
       <c r="G197" s="6"/>
       <c r="H197" s="6"/>
     </row>
-    <row r="198" spans="1:8" ht="45" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>10</v>
@@ -18710,12 +18751,12 @@
       <c r="G198" s="6"/>
       <c r="H198" s="6"/>
     </row>
-    <row r="199" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>10</v>
@@ -18730,12 +18771,12 @@
       <c r="G199" s="6"/>
       <c r="H199" s="6"/>
     </row>
-    <row r="200" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>10</v>
@@ -18752,10 +18793,10 @@
     </row>
     <row r="201" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>10</v>
@@ -18770,12 +18811,12 @@
       <c r="G201" s="6"/>
       <c r="H201" s="6"/>
     </row>
-    <row r="202" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>10</v>
@@ -18790,12 +18831,12 @@
       <c r="G202" s="6"/>
       <c r="H202" s="6"/>
     </row>
-    <row r="203" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>10</v>
@@ -18812,10 +18853,10 @@
     </row>
     <row r="204" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>10</v>
@@ -18830,12 +18871,12 @@
       <c r="G204" s="6"/>
       <c r="H204" s="6"/>
     </row>
-    <row r="205" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>10</v>
@@ -18852,10 +18893,10 @@
     </row>
     <row r="206" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>10</v>
@@ -18872,10 +18913,10 @@
     </row>
     <row r="207" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>44</v>
@@ -18892,10 +18933,10 @@
     </row>
     <row r="208" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>10</v>
@@ -18912,13 +18953,13 @@
     </row>
     <row r="213" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="32" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="B213" s="45" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>0</v>
       </c>
@@ -18944,7 +18985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="48.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>1063</v>
       </c>
@@ -18963,7 +19004,7 @@
       </c>
       <c r="G215" s="6"/>
       <c r="H215" s="8" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19026,7 +19067,7 @@
       <c r="G218" s="6"/>
       <c r="H218" s="6"/>
     </row>
-    <row r="219" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>140</v>
       </c>
@@ -19068,7 +19109,7 @@
       <c r="G220" s="6"/>
       <c r="H220" s="6"/>
     </row>
-    <row r="221" spans="1:8" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>1068</v>
       </c>
@@ -19090,7 +19131,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>1072</v>
       </c>
@@ -19132,7 +19173,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>1077</v>
       </c>
@@ -19151,10 +19192,10 @@
       </c>
       <c r="G224" s="6"/>
       <c r="H224" s="5" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" ht="45" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>1079</v>
       </c>
@@ -19172,7 +19213,7 @@
         <v>211</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="H225" s="6"/>
     </row>
@@ -19260,7 +19301,7 @@
     </row>
     <row r="230" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="B230" s="5" t="s">
         <v>328</v>
@@ -19280,10 +19321,10 @@
     </row>
     <row r="234" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="33" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="B234" s="44" t="s">
-        <v>1284</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19314,10 +19355,10 @@
     </row>
     <row r="236" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>1323</v>
+        <v>1307</v>
       </c>
       <c r="C236" s="6" t="s">
         <v>10</v>
@@ -19327,21 +19368,21 @@
       </c>
       <c r="E236" s="6"/>
       <c r="F236" s="6" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="G236" s="6" t="s">
-        <v>1331</v>
+        <v>1315</v>
       </c>
       <c r="H236" s="7" t="s">
-        <v>1336</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>1324</v>
+        <v>1308</v>
       </c>
       <c r="C237" s="6" t="s">
         <v>10</v>
@@ -19352,18 +19393,18 @@
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
       <c r="G237" s="6" t="s">
-        <v>1331</v>
+        <v>1315</v>
       </c>
       <c r="H237" s="7" t="s">
-        <v>1265</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>1325</v>
+        <v>1309</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>10</v>
@@ -19381,7 +19422,7 @@
         <v>140</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>1326</v>
+        <v>1310</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>10</v>
@@ -19392,10 +19433,10 @@
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
       <c r="G239" s="6" t="s">
-        <v>1331</v>
+        <v>1315</v>
       </c>
       <c r="H239" s="6" t="s">
-        <v>1288</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19403,7 +19444,7 @@
         <v>1009</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>1329</v>
+        <v>1313</v>
       </c>
       <c r="C240" s="6" t="s">
         <v>10</v>
@@ -19416,12 +19457,12 @@
       <c r="G240" s="6"/>
       <c r="H240" s="6"/>
     </row>
-    <row r="241" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
         <v>1014</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>10</v>
@@ -19432,10 +19473,10 @@
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
       <c r="G241" s="6" t="s">
-        <v>1331</v>
+        <v>1315</v>
       </c>
       <c r="H241" s="6" t="s">
-        <v>1311</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19443,7 +19484,7 @@
         <v>1006</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>1327</v>
+        <v>1311</v>
       </c>
       <c r="C242" s="6" t="s">
         <v>104</v>
@@ -19474,12 +19515,12 @@
       <c r="G243" s="6"/>
       <c r="H243" s="6"/>
     </row>
-    <row r="244" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
         <v>1019</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>1330</v>
+        <v>1314</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>104</v>
@@ -19490,18 +19531,18 @@
       <c r="E244" s="6"/>
       <c r="F244" s="6"/>
       <c r="G244" s="6" t="s">
-        <v>1331</v>
+        <v>1315</v>
       </c>
       <c r="H244" s="6" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
         <v>108</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="C245" s="6" t="s">
         <v>10</v>
@@ -19512,10 +19553,10 @@
       <c r="E245" s="6"/>
       <c r="F245" s="6"/>
       <c r="G245" s="6" t="s">
-        <v>1331</v>
+        <v>1315</v>
       </c>
       <c r="H245" s="6" t="s">
-        <v>1333</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19533,8 +19574,12 @@
       </c>
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
-      <c r="G246" s="6"/>
-      <c r="H246" s="6"/>
+      <c r="G246" s="6" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H246" s="6" t="s">
+        <v>1321</v>
+      </c>
     </row>
     <row r="247" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
@@ -19551,15 +19596,19 @@
       </c>
       <c r="E247" s="6"/>
       <c r="F247" s="6"/>
-      <c r="G247" s="6"/>
-      <c r="H247" s="6"/>
+      <c r="G247" s="6" t="s">
+        <v>1315</v>
+      </c>
+      <c r="H247" s="6" t="s">
+        <v>1322</v>
+      </c>
     </row>
     <row r="248" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
         <v>1038</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>1039</v>
+        <v>1323</v>
       </c>
       <c r="C248" s="6" t="s">
         <v>10</v>
@@ -19572,12 +19621,12 @@
       <c r="G248" s="6"/>
       <c r="H248" s="6"/>
     </row>
-    <row r="249" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>44</v>
@@ -19588,10 +19637,10 @@
       <c r="E249" s="6"/>
       <c r="F249" s="6"/>
       <c r="G249" s="6" t="s">
-        <v>1331</v>
+        <v>1315</v>
       </c>
       <c r="H249" s="6" t="s">
-        <v>1335</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19599,7 +19648,7 @@
         <v>1021</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>1328</v>
+        <v>1312</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>10</v>
@@ -19614,10 +19663,10 @@
     </row>
     <row r="251" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="C251" s="6" t="s">
         <v>10</v>
@@ -19628,18 +19677,18 @@
       <c r="E251" s="6"/>
       <c r="F251" s="6"/>
       <c r="G251" s="6" t="s">
-        <v>1331</v>
+        <v>1315</v>
       </c>
       <c r="H251" s="6" t="s">
-        <v>1332</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C252" s="6" t="s">
         <v>10</v>
@@ -19654,10 +19703,10 @@
     </row>
     <row r="253" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="C253" s="6" t="s">
         <v>10</v>
@@ -19670,15 +19719,18 @@
       <c r="G253" s="6"/>
       <c r="H253" s="6"/>
     </row>
-    <row r="257" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="32" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="B257" s="45" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1324</v>
+      </c>
+      <c r="I257" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>0</v>
       </c>
@@ -19704,7 +19756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
         <v>1063</v>
       </c>
@@ -19721,10 +19773,14 @@
       <c r="F259" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G259" s="6"/>
-      <c r="H259" s="7"/>
-    </row>
-    <row r="260" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G259" s="6" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H259" s="7" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
         <v>142</v>
       </c>
@@ -19741,10 +19797,14 @@
       <c r="F260" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G260" s="6"/>
-      <c r="H260" s="7"/>
-    </row>
-    <row r="261" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G260" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H260" s="7" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
         <v>317</v>
       </c>
@@ -19761,10 +19821,14 @@
       <c r="F261" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G261" s="6"/>
-      <c r="H261" s="7"/>
-    </row>
-    <row r="262" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G261" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H261" s="7" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
         <v>208</v>
       </c>
@@ -19781,10 +19845,14 @@
       <c r="F262" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G262" s="6"/>
-      <c r="H262" s="6"/>
-    </row>
-    <row r="263" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G262" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H262" s="6" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
         <v>140</v>
       </c>
@@ -19802,11 +19870,13 @@
         <v>211</v>
       </c>
       <c r="G263" s="6" t="s">
-        <v>1032</v>
-      </c>
-      <c r="H263" s="6"/>
-    </row>
-    <row r="264" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1325</v>
+      </c>
+      <c r="H263" s="6" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
         <v>1066</v>
       </c>
@@ -19823,10 +19893,14 @@
       <c r="F264" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G264" s="6"/>
-      <c r="H264" s="6"/>
-    </row>
-    <row r="265" spans="1:8" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G264" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H264" s="6" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
         <v>1068</v>
       </c>
@@ -19843,12 +19917,14 @@
       <c r="F265" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G265" s="6"/>
+      <c r="G265" s="6" t="s">
+        <v>1325</v>
+      </c>
       <c r="H265" s="5" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
         <v>1072</v>
       </c>
@@ -19868,7 +19944,7 @@
       <c r="G266" s="6"/>
       <c r="H266" s="6"/>
     </row>
-    <row r="267" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
         <v>1074</v>
       </c>
@@ -19886,11 +19962,13 @@
         <v>211</v>
       </c>
       <c r="G267" s="6" t="s">
-        <v>1076</v>
-      </c>
-      <c r="H267" s="6"/>
-    </row>
-    <row r="268" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1325</v>
+      </c>
+      <c r="H267" s="6" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
         <v>1077</v>
       </c>
@@ -19910,7 +19988,7 @@
       <c r="G268" s="6"/>
       <c r="H268" s="6"/>
     </row>
-    <row r="269" spans="1:8" ht="60" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
         <v>1079</v>
       </c>
@@ -19927,12 +20005,14 @@
       <c r="F269" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G269" s="5" t="s">
-        <v>1228</v>
-      </c>
-      <c r="H269" s="6"/>
-    </row>
-    <row r="270" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G269" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H269" s="6" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
         <v>1081</v>
       </c>
@@ -19952,7 +20032,7 @@
       <c r="G270" s="6"/>
       <c r="H270" s="6"/>
     </row>
-    <row r="271" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
         <v>1083</v>
       </c>
@@ -19970,11 +20050,13 @@
         <v>211</v>
       </c>
       <c r="G271" s="6" t="s">
-        <v>1085</v>
-      </c>
-      <c r="H271" s="6"/>
-    </row>
-    <row r="272" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1325</v>
+      </c>
+      <c r="H271" s="6" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
         <v>1086</v>
       </c>
@@ -20016,7 +20098,7 @@
     </row>
     <row r="274" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="B274" s="5" t="s">
         <v>328</v>
@@ -21289,8 +21371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:L92"/>
   <sheetViews>
-    <sheetView topLeftCell="E55" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="M72" sqref="M72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/重庆二师_Dev/doc/ods-fdm -zkc.xlsx
+++ b/重庆二师_Dev/doc/ods-fdm -zkc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3458" uniqueCount="1368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3469" uniqueCount="1378">
   <si>
     <t>字段名</t>
   </si>
@@ -5871,10 +5871,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>刊物级别代码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>总期号</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -5895,10 +5891,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>刊物编号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>刊物类型码</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -5951,10 +5943,6 @@
   </si>
   <si>
     <t>与S_PAPER_AUTHOR的paper_id做关联</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -6563,10 +6551,6 @@
     <t>INDUSTRY_ID</t>
   </si>
   <si>
-    <t>计划经费总额</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>拨款数</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -6696,6 +6680,80 @@
       </rPr>
       <t>(edu_fdm_ky_xmjf)</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员类型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTHOR_TYPE</t>
+  </si>
+  <si>
+    <t>DM_AUTHOR_TYPE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>刊物级别代码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM_PAPER_TYPE</t>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联字段是哪个？？</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>国家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地区码</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>刊物编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划经费总额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INCOME_DATE</t>
+  </si>
+  <si>
+    <t>S_PROJECT_INCOME</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -15077,15 +15135,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B142" workbookViewId="0">
-      <selection activeCell="H146" sqref="H146"/>
+    <sheetView tabSelected="1" topLeftCell="B143" workbookViewId="0">
+      <selection activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15099,7 +15157,7 @@
         <v>1061</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -15469,7 +15527,7 @@
         <v>1062</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -16322,7 +16380,7 @@
         <v>1240</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -16382,15 +16440,19 @@
       <c r="F69" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
+      <c r="G69" s="6" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>1367</v>
+      </c>
     </row>
     <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>1079</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>1080</v>
+        <v>1364</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>10</v>
@@ -16402,15 +16464,19 @@
       <c r="F70" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
+      <c r="G70" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>1365</v>
+      </c>
     </row>
     <row r="71" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>1081</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>10</v>
@@ -16461,7 +16527,7 @@
         <v>1086</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>10</v>
@@ -16518,10 +16584,10 @@
     </row>
     <row r="79" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="32" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B79" s="44" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -16555,7 +16621,7 @@
         <v>1034</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>10</v>
@@ -16568,10 +16634,10 @@
         <v>1228</v>
       </c>
       <c r="G81" s="39" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="H81" s="40" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -16590,10 +16656,10 @@
       <c r="E82" s="39"/>
       <c r="F82" s="39"/>
       <c r="G82" s="39" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H82" s="40" t="s">
         <v>1257</v>
-      </c>
-      <c r="H82" s="40" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -16601,7 +16667,7 @@
         <v>1038</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>10</v>
@@ -16612,10 +16678,10 @@
       <c r="E83" s="39"/>
       <c r="F83" s="39"/>
       <c r="G83" s="39" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="H83" s="40" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -16623,7 +16689,7 @@
         <v>160</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>750</v>
+        <v>1373</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>10</v>
@@ -16641,7 +16707,7 @@
         <v>1040</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>1246</v>
+        <v>1368</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>104</v>
@@ -16651,8 +16717,15 @@
       </c>
       <c r="E85" s="39"/>
       <c r="F85" s="39"/>
-      <c r="G85" s="39"/>
-      <c r="H85" s="39"/>
+      <c r="G85" s="39" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H85" s="39" t="s">
+        <v>1370</v>
+      </c>
+      <c r="I85" s="42" t="s">
+        <v>1372</v>
+      </c>
     </row>
     <row r="86" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
@@ -16670,10 +16743,10 @@
       <c r="E86" s="39"/>
       <c r="F86" s="39"/>
       <c r="G86" s="39" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="H86" s="39" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -16692,10 +16765,10 @@
       <c r="E87" s="39"/>
       <c r="F87" s="39"/>
       <c r="G87" s="39" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="H87" s="39" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -16703,7 +16776,7 @@
         <v>1047</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>10</v>
@@ -16714,10 +16787,10 @@
       <c r="E88" s="39"/>
       <c r="F88" s="39"/>
       <c r="G88" s="39" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="H88" s="39" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -16725,7 +16798,7 @@
         <v>1049</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>10</v>
@@ -16743,7 +16816,7 @@
         <v>1051</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>17</v>
@@ -16754,10 +16827,10 @@
       <c r="E90" s="39"/>
       <c r="F90" s="39"/>
       <c r="G90" s="39" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="H90" s="39" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -16765,7 +16838,7 @@
         <v>1053</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>10</v>
@@ -16783,7 +16856,7 @@
         <v>1055</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>1252</v>
+        <v>1374</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>10</v>
@@ -16794,10 +16867,10 @@
       <c r="E92" s="39"/>
       <c r="F92" s="39"/>
       <c r="G92" s="39" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="H92" s="39" t="s">
-        <v>1268</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -16805,7 +16878,7 @@
         <v>1057</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>104</v>
@@ -16823,7 +16896,7 @@
         <v>997</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>10</v>
@@ -16834,13 +16907,13 @@
       <c r="E94" s="39"/>
       <c r="F94" s="39"/>
       <c r="G94" s="41" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="H94" s="41" t="s">
+        <v>1263</v>
+      </c>
+      <c r="I94" s="42" t="s">
         <v>1265</v>
-      </c>
-      <c r="I94" s="42" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -16848,7 +16921,7 @@
         <v>1059</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>10</v>
@@ -16859,10 +16932,10 @@
       <c r="E95" s="39"/>
       <c r="F95" s="39"/>
       <c r="G95" s="39" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="H95" s="39" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.45">
@@ -16870,7 +16943,7 @@
         <v>1144</v>
       </c>
       <c r="B99" s="46" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -16917,10 +16990,10 @@
         <v>210</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -16941,10 +17014,10 @@
         <v>211</v>
       </c>
       <c r="G102" s="6" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H102" s="7" t="s">
         <v>1277</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -16965,10 +17038,10 @@
         <v>210</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -16976,7 +17049,7 @@
         <v>1093</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>10</v>
@@ -17009,10 +17082,10 @@
         <v>211</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -17020,7 +17093,7 @@
         <v>1096</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>10</v>
@@ -17033,10 +17106,10 @@
         <v>211</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17044,7 +17117,7 @@
         <v>1097</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>10</v>
@@ -17057,10 +17130,10 @@
         <v>211</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17068,7 +17141,7 @@
         <v>1098</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>10</v>
@@ -17088,7 +17161,7 @@
         <v>1099</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>10</v>
@@ -17108,7 +17181,7 @@
         <v>1014</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>104</v>
@@ -17121,10 +17194,10 @@
         <v>211</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17152,7 +17225,7 @@
         <v>1102</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>104</v>
@@ -17172,7 +17245,7 @@
         <v>1009</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>10</v>
@@ -17185,10 +17258,10 @@
         <v>211</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -17250,7 +17323,7 @@
       </c>
       <c r="G116" s="34"/>
       <c r="H116" s="6" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17258,7 +17331,7 @@
         <v>1023</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>10</v>
@@ -17278,7 +17351,7 @@
         <v>1108</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>10</v>
@@ -17291,10 +17364,10 @@
         <v>211</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17302,7 +17375,7 @@
         <v>1109</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>10</v>
@@ -17315,10 +17388,10 @@
         <v>211</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17339,10 +17412,10 @@
         <v>211</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="H120" s="48" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17423,7 +17496,7 @@
         <v>211</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="H124" s="6"/>
     </row>
@@ -17446,7 +17519,7 @@
       </c>
       <c r="G125" s="6"/>
       <c r="H125" s="6" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17474,7 +17547,7 @@
         <v>1011</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>104</v>
@@ -17507,10 +17580,10 @@
         <v>211</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17571,10 +17644,10 @@
         <v>211</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17622,7 +17695,7 @@
         <v>1135</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>10</v>
@@ -17655,13 +17728,13 @@
         <v>211</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="H135" s="6" t="s">
         <v>1136</v>
       </c>
       <c r="I135" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17669,7 +17742,7 @@
         <v>1138</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>10</v>
@@ -17689,7 +17762,7 @@
         <v>1139</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>10</v>
@@ -17722,10 +17795,10 @@
         <v>211</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -17746,10 +17819,10 @@
         <v>211</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -17757,7 +17830,7 @@
         <v>1154</v>
       </c>
       <c r="B143" s="44" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17791,7 +17864,7 @@
         <v>1145</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>1345</v>
+        <v>1375</v>
       </c>
       <c r="C145" s="11" t="s">
         <v>17</v>
@@ -17811,7 +17884,7 @@
         <v>1146</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C146" s="11" t="s">
         <v>104</v>
@@ -17824,13 +17897,13 @@
         <v>211</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="H146" s="11" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17838,7 +17911,7 @@
         <v>1147</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="C147" s="11" t="s">
         <v>10</v>
@@ -17850,15 +17923,19 @@
       <c r="F147" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="G147" s="11"/>
-      <c r="H147" s="11"/>
+      <c r="G147" s="11" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H147" s="11" t="s">
+        <v>1376</v>
+      </c>
     </row>
     <row r="148" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>1148</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="C148" s="11" t="s">
         <v>17</v>
@@ -17871,10 +17948,10 @@
         <v>211</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="H148" s="11" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17882,7 +17959,7 @@
         <v>423</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="C149" s="11" t="s">
         <v>10</v>
@@ -17902,7 +17979,7 @@
         <v>1149</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="C150" s="11" t="s">
         <v>17</v>
@@ -17922,7 +17999,7 @@
         <v>1150</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="C151" s="11" t="s">
         <v>10</v>
@@ -17934,15 +18011,19 @@
       <c r="F151" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="G151" s="11"/>
-      <c r="H151" s="11"/>
+      <c r="G151" s="11" t="s">
+        <v>1353</v>
+      </c>
+      <c r="H151" s="11" t="s">
+        <v>1345</v>
+      </c>
     </row>
     <row r="152" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>1151</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="C152" s="11" t="s">
         <v>10</v>
@@ -17955,10 +18036,10 @@
         <v>211</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="H152" s="11" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17966,7 +18047,7 @@
         <v>1089</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="C153" s="11" t="s">
         <v>10</v>
@@ -17979,10 +18060,10 @@
         <v>210</v>
       </c>
       <c r="G153" s="11" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="H153" s="11" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17990,7 +18071,7 @@
         <v>1152</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="C154" s="11" t="s">
         <v>10</v>
@@ -18003,10 +18084,10 @@
         <v>211</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="H154" s="11" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -18034,7 +18115,7 @@
         <v>1157</v>
       </c>
       <c r="B159" s="44" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -18396,7 +18477,7 @@
         <v>1207</v>
       </c>
       <c r="B181" s="44" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -18956,7 +19037,7 @@
         <v>1210</v>
       </c>
       <c r="B213" s="45" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19324,7 +19405,7 @@
         <v>1222</v>
       </c>
       <c r="B234" s="44" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19358,7 +19439,7 @@
         <v>1211</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="C236" s="6" t="s">
         <v>10</v>
@@ -19371,10 +19452,10 @@
         <v>1228</v>
       </c>
       <c r="G236" s="6" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="H236" s="7" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19382,7 +19463,7 @@
         <v>1212</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="C237" s="6" t="s">
         <v>10</v>
@@ -19393,10 +19474,10 @@
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
       <c r="G237" s="6" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="H237" s="7" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19404,7 +19485,7 @@
         <v>1213</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>10</v>
@@ -19422,7 +19503,7 @@
         <v>140</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>10</v>
@@ -19433,10 +19514,10 @@
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
       <c r="G239" s="6" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="H239" s="6" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19444,7 +19525,7 @@
         <v>1009</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="C240" s="6" t="s">
         <v>10</v>
@@ -19462,7 +19543,7 @@
         <v>1014</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>10</v>
@@ -19473,10 +19554,10 @@
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
       <c r="G241" s="6" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="H241" s="6" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19484,7 +19565,7 @@
         <v>1006</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="C242" s="6" t="s">
         <v>104</v>
@@ -19520,7 +19601,7 @@
         <v>1019</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>104</v>
@@ -19531,10 +19612,10 @@
       <c r="E244" s="6"/>
       <c r="F244" s="6"/>
       <c r="G244" s="6" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H244" s="6" t="s">
         <v>1315</v>
-      </c>
-      <c r="H244" s="6" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19553,10 +19634,10 @@
       <c r="E245" s="6"/>
       <c r="F245" s="6"/>
       <c r="G245" s="6" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="H245" s="6" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19575,10 +19656,10 @@
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
       <c r="G246" s="6" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="H246" s="6" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19597,10 +19678,10 @@
       <c r="E247" s="6"/>
       <c r="F247" s="6"/>
       <c r="G247" s="6" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="H247" s="6" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19608,7 +19689,7 @@
         <v>1038</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="C248" s="6" t="s">
         <v>10</v>
@@ -19637,10 +19718,10 @@
       <c r="E249" s="6"/>
       <c r="F249" s="6"/>
       <c r="G249" s="6" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="H249" s="6" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19648,7 +19729,7 @@
         <v>1021</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>10</v>
@@ -19677,10 +19758,10 @@
       <c r="E251" s="6"/>
       <c r="F251" s="6"/>
       <c r="G251" s="6" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="H251" s="6" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19724,10 +19805,10 @@
         <v>1223</v>
       </c>
       <c r="B257" s="45" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="I257" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19774,10 +19855,10 @@
         <v>210</v>
       </c>
       <c r="G259" s="6" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="H259" s="7" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19798,10 +19879,10 @@
         <v>210</v>
       </c>
       <c r="G260" s="6" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="H260" s="7" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19822,10 +19903,10 @@
         <v>211</v>
       </c>
       <c r="G261" s="6" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="H261" s="7" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19846,7 +19927,7 @@
         <v>211</v>
       </c>
       <c r="G262" s="6" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="H262" s="6" t="s">
         <v>1239</v>
@@ -19870,10 +19951,10 @@
         <v>211</v>
       </c>
       <c r="G263" s="6" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="H263" s="6" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="264" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19894,10 +19975,10 @@
         <v>211</v>
       </c>
       <c r="G264" s="6" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="H264" s="6" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="265" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19918,10 +19999,10 @@
         <v>211</v>
       </c>
       <c r="G265" s="6" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19962,10 +20043,10 @@
         <v>211</v>
       </c>
       <c r="G267" s="6" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="H267" s="6" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -20006,10 +20087,10 @@
         <v>211</v>
       </c>
       <c r="G269" s="6" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="H269" s="6" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -20050,10 +20131,10 @@
         <v>211</v>
       </c>
       <c r="G271" s="6" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="H271" s="6" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">

--- a/重庆二师_Dev/doc/ods-fdm -zkc.xlsx
+++ b/重庆二师_Dev/doc/ods-fdm -zkc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3469" uniqueCount="1378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3517" uniqueCount="1401">
   <si>
     <t>字段名</t>
   </si>
@@ -4359,10 +4359,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>XSXKB</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>JSZGH</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -5891,10 +5887,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>刊物类型码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>论文编号</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -5911,39 +5903,6 @@
   </si>
   <si>
     <t>NAME</t>
-  </si>
-  <si>
-    <t>PUBLISH_DATE</t>
-  </si>
-  <si>
-    <t>PUBLISH_YEAR</t>
-  </si>
-  <si>
-    <t>JUAN_NUMBER</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>QI_NUMBER</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAGE_SCOPE</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISSN</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUBLISH_RANGE_ID</t>
-  </si>
-  <si>
-    <t>与S_PAPER_AUTHOR的paper_id做关联</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6499,10 +6458,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>出版社级别码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>个人参与项目的工作量比例，单位：％</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -6610,14 +6565,6 @@
     <t>DISPOSER</t>
   </si>
   <si>
-    <t>科研编号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_PAPER</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>S_PROJECT</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -6690,30 +6637,87 @@
     <t>AUTHOR_TYPE</t>
   </si>
   <si>
+    <t>ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>刊物级别代码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>刊物编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划经费总额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INCOME_DATE</t>
+  </si>
+  <si>
+    <t>S_PROJECT_INCOME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_PROJECT_BUDGET</t>
+  </si>
+  <si>
+    <t>BUDGET_SUM</t>
+  </si>
+  <si>
+    <t>BUDGET_DATE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>项目预算支出时间看作是项目经费的拨入时间</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S_PROJECT_INCOME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目到账表只有两条数据</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>科研编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>DM_AUTHOR_TYPE</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>刊物级别代码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM_PAPER_TYPE</t>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联字段是哪个？？</t>
+    <t>S_PAPER_AUTHOR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>XSXKB</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>XSXKB</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_PAPER</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -6742,18 +6746,387 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>刊物编号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划经费总额</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>INCOME_DATE</t>
-  </si>
-  <si>
-    <t>S_PROJECT_INCOME</t>
+    <t>刊物类型码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>出版社级别码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_PAPER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_MAGAZINE中的source_id、PAPER_TYPE_ID,但是没有关联字段</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBLISH_UNIT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBLISH_DATE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FBRQ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBH</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GJDQM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>KWJBM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBLISH_YEAR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUAN_NUMBER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>QI_NUMBER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBSJBM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>KWBH</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>KWLXM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>LWBH</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PAGE_SCOPE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（页码范围）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bigint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Varchar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>改为（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>varchar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>varchar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -6764,7 +7137,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6980,6 +7353,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -7155,7 +7536,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -7285,6 +7666,25 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9332,8 +9732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9346,7 +9746,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -10510,7 +10910,7 @@
     </row>
     <row r="69" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -10557,7 +10957,7 @@
         <v>816</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>951</v>
@@ -10604,7 +11004,7 @@
         <v>816</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>935</v>
+        <v>1367</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>936</v>
@@ -10628,7 +11028,7 @@
         <v>816</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>953</v>
+        <v>1366</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>937</v>
@@ -10652,10 +11052,10 @@
         <v>816</v>
       </c>
       <c r="G75" s="25" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="I75" s="24" t="s">
         <v>943</v>
@@ -10711,7 +11111,7 @@
     </row>
     <row r="78" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>946</v>
@@ -10727,7 +11127,7 @@
         <v>816</v>
       </c>
       <c r="G78" s="25" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H78" s="25" t="s">
         <v>947</v>
@@ -10735,7 +11135,7 @@
     </row>
     <row r="79" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>944</v>
@@ -10751,7 +11151,7 @@
         <v>816</v>
       </c>
       <c r="G79" s="25" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>949</v>
@@ -10759,7 +11159,7 @@
     </row>
     <row r="80" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>948</v>
@@ -11354,7 +11754,7 @@
     </row>
     <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -11385,10 +11785,10 @@
     </row>
     <row r="121" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>10</v>
@@ -11401,17 +11801,17 @@
         <v>816</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H121" s="26"/>
       <c r="I121" s="27"/>
     </row>
     <row r="122" spans="1:9" ht="44.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="B122" s="5" t="s">
         <v>963</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>964</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>10</v>
@@ -11422,13 +11822,13 @@
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I122" s="30" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="25.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -11447,10 +11847,10 @@
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
       <c r="G123" s="6" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -11469,10 +11869,10 @@
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
       <c r="G124" s="6" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -11491,10 +11891,10 @@
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -11502,7 +11902,7 @@
         <v>269</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>10</v>
@@ -11520,7 +11920,7 @@
         <v>271</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>10</v>
@@ -11549,10 +11949,10 @@
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="H128" s="6" t="s">
         <v>975</v>
-      </c>
-      <c r="H128" s="6" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="44.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -11560,7 +11960,7 @@
         <v>275</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>44</v>
@@ -11571,10 +11971,10 @@
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" s="6" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -11593,15 +11993,15 @@
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
       <c r="G130" s="6" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -11615,7 +12015,7 @@
         <v>2</v>
       </c>
       <c r="D134" s="29" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E134" s="29" t="s">
         <v>4</v>
@@ -11632,10 +12032,10 @@
     </row>
     <row r="135" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>10</v>
@@ -11648,18 +12048,18 @@
         <v>816</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H135" s="26" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="37.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="B136" s="5" t="s">
         <v>963</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>964</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>10</v>
@@ -11672,10 +12072,10 @@
         <v>816</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="44.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -11683,7 +12083,7 @@
         <v>13</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>10</v>
@@ -11696,13 +12096,13 @@
         <v>816</v>
       </c>
       <c r="G137" s="11" t="s">
+        <v>982</v>
+      </c>
+      <c r="H137" s="12" t="s">
         <v>983</v>
       </c>
-      <c r="H137" s="12" t="s">
-        <v>984</v>
-      </c>
       <c r="I137" s="31" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -11723,10 +12123,10 @@
         <v>816</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -11747,10 +12147,10 @@
         <v>816</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -11758,7 +12158,7 @@
         <v>269</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>10</v>
@@ -11771,10 +12171,10 @@
         <v>816</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H140" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -11782,7 +12182,7 @@
         <v>271</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>10</v>
@@ -11815,10 +12215,10 @@
         <v>816</v>
       </c>
       <c r="G142" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="H142" s="6" t="s">
         <v>992</v>
-      </c>
-      <c r="H142" s="6" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="44.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -11826,7 +12226,7 @@
         <v>275</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>44</v>
@@ -11839,13 +12239,13 @@
         <v>816</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="I143" s="31" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -11866,10 +12266,10 @@
         <v>816</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
   </sheetData>
@@ -11883,7 +12283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H187"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
@@ -15133,18 +15533,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J274"/>
+  <dimension ref="A1:R274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B143" workbookViewId="0">
-      <selection activeCell="G147" sqref="G147"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -15154,10 +15559,10 @@
     </row>
     <row r="2" spans="1:8" ht="63.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>1266</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -15188,10 +15593,10 @@
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>997</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>998</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
@@ -15208,10 +15613,10 @@
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>999</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>1000</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>10</v>
@@ -15228,10 +15633,10 @@
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>1001</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>1002</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>10</v>
@@ -15268,10 +15673,10 @@
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>1003</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>1004</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>104</v>
@@ -15284,16 +15689,16 @@
         <v>211</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>1006</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>1007</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>104</v>
@@ -15306,16 +15711,16 @@
         <v>211</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>1009</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>1010</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>10</v>
@@ -15334,10 +15739,10 @@
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>1011</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>1012</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>10</v>
@@ -15350,16 +15755,16 @@
         <v>211</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>1014</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>1015</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>10</v>
@@ -15372,13 +15777,13 @@
         <v>211</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>794</v>
@@ -15394,13 +15799,13 @@
         <v>211</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>795</v>
@@ -15416,16 +15821,16 @@
         <v>211</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>1021</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>1022</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>10</v>
@@ -15442,10 +15847,10 @@
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>1023</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>1024</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>10</v>
@@ -15462,10 +15867,10 @@
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>1025</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>1026</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>104</v>
@@ -15478,16 +15883,16 @@
         <v>211</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>1028</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>1029</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>10</v>
@@ -15504,10 +15909,10 @@
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>1030</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>1031</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>10</v>
@@ -15524,10 +15929,10 @@
     </row>
     <row r="23" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="33" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>1267</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -15558,10 +15963,10 @@
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>997</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>998</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>10</v>
@@ -15578,10 +15983,10 @@
     </row>
     <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>999</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>1000</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>10</v>
@@ -15598,10 +16003,10 @@
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>1001</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>1002</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>10</v>
@@ -15634,16 +16039,16 @@
         <v>211</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>1003</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>1004</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>104</v>
@@ -15656,16 +16061,16 @@
         <v>211</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>1006</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>1007</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>104</v>
@@ -15678,16 +16083,16 @@
         <v>211</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>1009</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>1010</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>10</v>
@@ -15706,10 +16111,10 @@
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>1011</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>1012</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>10</v>
@@ -15722,16 +16127,16 @@
         <v>211</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>1014</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>1015</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>10</v>
@@ -15744,13 +16149,13 @@
         <v>211</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>794</v>
@@ -15766,13 +16171,13 @@
         <v>211</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>795</v>
@@ -15788,16 +16193,16 @@
         <v>211</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>1021</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>1022</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>10</v>
@@ -15814,10 +16219,10 @@
     </row>
     <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>1023</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>1024</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>10</v>
@@ -15834,10 +16239,10 @@
     </row>
     <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>1025</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>1026</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>104</v>
@@ -15854,10 +16259,10 @@
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>1028</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>1029</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>10</v>
@@ -15874,16 +16279,16 @@
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>1030</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>1031</v>
-      </c>
       <c r="C40" s="6" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
@@ -15894,10 +16299,10 @@
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>1034</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>1035</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>10</v>
@@ -15914,16 +16319,16 @@
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>1036</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>1037</v>
-      </c>
       <c r="C42" s="6" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6" t="s">
@@ -15934,10 +16339,10 @@
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>1038</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>1039</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>10</v>
@@ -15976,10 +16381,10 @@
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>1040</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>1041</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>104</v>
@@ -15992,16 +16397,16 @@
         <v>211</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>1043</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>1044</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>44</v>
@@ -16018,10 +16423,10 @@
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>1045</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>1046</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>44</v>
@@ -16038,10 +16443,10 @@
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>1047</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>1048</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>10</v>
@@ -16058,10 +16463,10 @@
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>1049</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>1050</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>10</v>
@@ -16078,10 +16483,10 @@
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>1051</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>1052</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>44</v>
@@ -16098,7 +16503,7 @@
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>802</v>
@@ -16114,16 +16519,16 @@
         <v>211</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>1055</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>1056</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>10</v>
@@ -16140,10 +16545,10 @@
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>1057</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>1058</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>104</v>
@@ -16160,10 +16565,10 @@
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>1059</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>1060</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>10</v>
@@ -16180,10 +16585,10 @@
     </row>
     <row r="58" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="33" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B58" s="47" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -16214,10 +16619,10 @@
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>10</v>
@@ -16227,21 +16632,21 @@
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G60" s="6" t="s">
         <v>1228</v>
       </c>
-      <c r="G60" s="6" t="s">
-        <v>1229</v>
-      </c>
       <c r="H60" s="7" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>10</v>
@@ -16251,13 +16656,13 @@
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G61" s="6" t="s">
         <v>1228</v>
       </c>
-      <c r="G61" s="6" t="s">
-        <v>1229</v>
-      </c>
       <c r="H61" s="7" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -16265,7 +16670,7 @@
         <v>317</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>104</v>
@@ -16275,13 +16680,13 @@
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G62" s="6" t="s">
         <v>1228</v>
       </c>
-      <c r="G62" s="6" t="s">
-        <v>1229</v>
-      </c>
       <c r="H62" s="7" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -16289,7 +16694,7 @@
         <v>208</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>10</v>
@@ -16299,21 +16704,21 @@
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G63" s="6" t="s">
         <v>1228</v>
       </c>
-      <c r="G63" s="6" t="s">
-        <v>1229</v>
-      </c>
       <c r="H63" s="6" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>10</v>
@@ -16323,21 +16728,21 @@
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G64" s="6" t="s">
         <v>1228</v>
       </c>
-      <c r="G64" s="6" t="s">
-        <v>1229</v>
-      </c>
       <c r="H64" s="6" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>10</v>
@@ -16347,48 +16752,48 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G65" s="6" t="s">
         <v>1228</v>
       </c>
-      <c r="G65" s="6" t="s">
-        <v>1229</v>
-      </c>
       <c r="H65" s="6" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>100</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G66" s="6" t="s">
         <v>1228</v>
       </c>
-      <c r="G66" s="6" t="s">
-        <v>1229</v>
-      </c>
       <c r="H66" s="5" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>1334</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>1072</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>1073</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>44</v>
@@ -16405,10 +16810,10 @@
     </row>
     <row r="68" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>104</v>
@@ -16425,10 +16830,10 @@
     </row>
     <row r="69" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>1077</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>1078</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>10</v>
@@ -16441,18 +16846,18 @@
         <v>211</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>1367</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>1364</v>
+        <v>1350</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>10</v>
@@ -16465,18 +16870,18 @@
         <v>211</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>1365</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>1301</v>
+        <v>1290</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>10</v>
@@ -16489,18 +16894,18 @@
         <v>211</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>10</v>
@@ -16513,21 +16918,21 @@
         <v>211</v>
       </c>
       <c r="G72" s="6" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>1226</v>
+      </c>
+      <c r="J72" s="6" t="s">
         <v>1229</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>1227</v>
-      </c>
-      <c r="J72" s="6" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>1358</v>
+        <v>1363</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>10</v>
@@ -16584,10 +16989,10 @@
     </row>
     <row r="79" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="32" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B79" s="44" t="s">
-        <v>1268</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -16618,10 +17023,10 @@
     </row>
     <row r="81" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>10</v>
@@ -16631,21 +17036,21 @@
       </c>
       <c r="E81" s="39"/>
       <c r="F81" s="39" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G81" s="39" t="s">
-        <v>1359</v>
-      </c>
-      <c r="H81" s="40" t="s">
-        <v>1256</v>
+        <v>1368</v>
+      </c>
+      <c r="H81" s="54" t="s">
+        <v>1377</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>1036</v>
+        <v>1379</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>1037</v>
+        <v>1373</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>10</v>
@@ -16656,18 +17061,18 @@
       <c r="E82" s="39"/>
       <c r="F82" s="39"/>
       <c r="G82" s="39" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="H82" s="40" t="s">
-        <v>1257</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>1038</v>
+        <v>1380</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>10</v>
@@ -16677,19 +17082,15 @@
       </c>
       <c r="E83" s="39"/>
       <c r="F83" s="39"/>
-      <c r="G83" s="39" t="s">
-        <v>1255</v>
-      </c>
-      <c r="H83" s="40" t="s">
-        <v>1264</v>
-      </c>
+      <c r="G83" s="39"/>
+      <c r="H83" s="40"/>
     </row>
     <row r="84" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>160</v>
+        <v>1381</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>10</v>
@@ -16704,10 +17105,10 @@
     </row>
     <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>1040</v>
+        <v>1382</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>1368</v>
+        <v>1353</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>104</v>
@@ -16717,128 +17118,124 @@
       </c>
       <c r="E85" s="39"/>
       <c r="F85" s="39"/>
-      <c r="G85" s="39" t="s">
-        <v>1369</v>
-      </c>
-      <c r="H85" s="39" t="s">
-        <v>1370</v>
-      </c>
-      <c r="I85" s="42" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G85" s="39"/>
+      <c r="H85" s="55" t="s">
+        <v>1376</v>
+      </c>
+      <c r="I85" s="42"/>
+    </row>
+    <row r="86" spans="1:9" ht="45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D86" s="36">
-        <v>4</v>
+        <v>1396</v>
+      </c>
+      <c r="D86" s="36" t="s">
+        <v>1395</v>
       </c>
       <c r="E86" s="39"/>
       <c r="F86" s="39"/>
       <c r="G86" s="39" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="H86" s="39" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D87" s="36">
-        <v>10</v>
+        <v>1397</v>
+      </c>
+      <c r="D87" s="36" t="s">
+        <v>1398</v>
       </c>
       <c r="E87" s="39"/>
       <c r="F87" s="39"/>
       <c r="G87" s="39" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="H87" s="39" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D88" s="36">
-        <v>20</v>
+      <c r="D88" s="36" t="s">
+        <v>1399</v>
       </c>
       <c r="E88" s="39"/>
       <c r="F88" s="39"/>
       <c r="G88" s="39" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="H88" s="39" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="36">
-        <v>20</v>
+      <c r="D89" s="36" t="s">
+        <v>1399</v>
       </c>
       <c r="E89" s="39"/>
       <c r="F89" s="39"/>
       <c r="G89" s="39"/>
       <c r="H89" s="39"/>
     </row>
-    <row r="90" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D90" s="36">
-        <v>11</v>
+        <v>1394</v>
+      </c>
+      <c r="D90" s="36" t="s">
+        <v>1400</v>
       </c>
       <c r="E90" s="39"/>
       <c r="F90" s="39"/>
       <c r="G90" s="39" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="H90" s="39" t="s">
-        <v>1261</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>1053</v>
+        <v>1386</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>1333</v>
+        <v>1371</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>10</v>
@@ -16853,10 +17250,10 @@
     </row>
     <row r="92" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>1055</v>
+        <v>1387</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>1374</v>
+        <v>1354</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>10</v>
@@ -16866,19 +17263,18 @@
       </c>
       <c r="E92" s="39"/>
       <c r="F92" s="39"/>
-      <c r="G92" s="39" t="s">
-        <v>1255</v>
-      </c>
-      <c r="H92" s="39" t="s">
-        <v>1371</v>
+      <c r="G92" s="39"/>
+      <c r="H92" s="39"/>
+      <c r="I92" t="s">
+        <v>1375</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>1057</v>
+        <v>1388</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>1251</v>
+        <v>1370</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>104</v>
@@ -16891,37 +17287,35 @@
       <c r="G93" s="39"/>
       <c r="H93" s="39"/>
     </row>
-    <row r="94" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>997</v>
+        <v>1390</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D94" s="36">
-        <v>10</v>
+      <c r="D94" s="36" t="s">
+        <v>1392</v>
       </c>
       <c r="E94" s="39"/>
       <c r="F94" s="39"/>
       <c r="G94" s="41" t="s">
-        <v>1255</v>
+        <v>1372</v>
       </c>
       <c r="H94" s="41" t="s">
-        <v>1263</v>
-      </c>
-      <c r="I94" s="42" t="s">
-        <v>1265</v>
-      </c>
+        <v>1389</v>
+      </c>
+      <c r="I94" s="42"/>
     </row>
     <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>1059</v>
+        <v>1374</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>10</v>
@@ -16932,18 +17326,18 @@
       <c r="E95" s="39"/>
       <c r="F95" s="39"/>
       <c r="G95" s="39" t="s">
-        <v>1255</v>
+        <v>1372</v>
       </c>
       <c r="H95" s="39" t="s">
-        <v>1262</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="32" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B99" s="46" t="s">
-        <v>1269</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -16974,10 +17368,10 @@
     </row>
     <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>1089</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>1090</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>10</v>
@@ -16990,10 +17384,10 @@
         <v>210</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>1275</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17014,18 +17408,18 @@
         <v>211</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>1274</v>
+        <v>1263</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>1277</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>1091</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>1092</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>10</v>
@@ -17038,18 +17432,18 @@
         <v>210</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>1274</v>
+        <v>1263</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>1281</v>
+        <v>1270</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>10</v>
@@ -17066,10 +17460,10 @@
     </row>
     <row r="105" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>1094</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>1095</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>10</v>
@@ -17082,18 +17476,18 @@
         <v>211</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>1274</v>
+        <v>1263</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>1292</v>
+        <v>1281</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>10</v>
@@ -17106,18 +17500,18 @@
         <v>211</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>1274</v>
+        <v>1263</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>1335</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>1279</v>
+        <v>1268</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>10</v>
@@ -17130,18 +17524,18 @@
         <v>211</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>1274</v>
+        <v>1263</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>1280</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>1340</v>
+        <v>1328</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>10</v>
@@ -17158,10 +17552,10 @@
     </row>
     <row r="109" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>1294</v>
+        <v>1283</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>10</v>
@@ -17176,12 +17570,12 @@
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>1282</v>
+        <v>1271</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>104</v>
@@ -17194,18 +17588,18 @@
         <v>211</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>1274</v>
+        <v>1263</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>1296</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B111" s="5" t="s">
         <v>1100</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>1101</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>104</v>
@@ -17222,10 +17616,10 @@
     </row>
     <row r="112" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>1337</v>
+        <v>1325</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>104</v>
@@ -17240,12 +17634,12 @@
       <c r="G112" s="34"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>1338</v>
+        <v>1326</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>10</v>
@@ -17258,10 +17652,10 @@
         <v>211</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>1274</v>
+        <v>1263</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>1339</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -17269,7 +17663,7 @@
         <v>160</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>10</v>
@@ -17286,10 +17680,10 @@
     </row>
     <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>1104</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>1105</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>104</v>
@@ -17306,10 +17700,10 @@
     </row>
     <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>1106</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>1107</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>104</v>
@@ -17323,15 +17717,15 @@
       </c>
       <c r="G116" s="34"/>
       <c r="H116" s="6" t="s">
-        <v>1288</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>1297</v>
+        <v>1286</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>10</v>
@@ -17348,10 +17742,10 @@
     </row>
     <row r="118" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>1283</v>
+        <v>1272</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>10</v>
@@ -17364,18 +17758,18 @@
         <v>211</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>1274</v>
+        <v>1263</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>1284</v>
+        <v>1273</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>10</v>
@@ -17388,18 +17782,18 @@
         <v>211</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>1274</v>
+        <v>1263</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>1278</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B120" s="5" t="s">
         <v>1110</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>1111</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>104</v>
@@ -17412,18 +17806,18 @@
         <v>211</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>1274</v>
+        <v>1263</v>
       </c>
       <c r="H120" s="48" t="s">
-        <v>1336</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B121" s="5" t="s">
         <v>1112</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>1113</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>104</v>
@@ -17440,10 +17834,10 @@
     </row>
     <row r="122" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B122" s="5" t="s">
         <v>1114</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>1115</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>104</v>
@@ -17460,10 +17854,10 @@
     </row>
     <row r="123" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B123" s="5" t="s">
         <v>1116</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>1117</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>10</v>
@@ -17480,10 +17874,10 @@
     </row>
     <row r="124" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B124" s="5" t="s">
         <v>1118</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>1119</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>10</v>
@@ -17496,16 +17890,16 @@
         <v>211</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>1274</v>
+        <v>1263</v>
       </c>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>184</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>10</v>
@@ -17519,15 +17913,15 @@
       </c>
       <c r="G125" s="6"/>
       <c r="H125" s="6" t="s">
-        <v>1286</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B126" s="5" t="s">
         <v>1121</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>1122</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>10</v>
@@ -17544,10 +17938,10 @@
     </row>
     <row r="127" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>1293</v>
+        <v>1282</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>104</v>
@@ -17564,10 +17958,10 @@
     </row>
     <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B128" s="5" t="s">
         <v>1123</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>1124</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>104</v>
@@ -17580,18 +17974,18 @@
         <v>211</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>1274</v>
+        <v>1263</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B129" s="5" t="s">
         <v>1125</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>1126</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>10</v>
@@ -17606,12 +18000,12 @@
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
     </row>
-    <row r="130" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B130" s="5" t="s">
         <v>1127</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>1128</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>10</v>
@@ -17626,12 +18020,12 @@
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
-    <row r="131" spans="1:9" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B131" s="5" t="s">
         <v>1129</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>1130</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>10</v>
@@ -17644,18 +18038,18 @@
         <v>211</v>
       </c>
       <c r="G131" s="6" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H131" s="6" t="s">
         <v>1274</v>
       </c>
-      <c r="H131" s="6" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>1131</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>1132</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>10</v>
@@ -17670,12 +18064,12 @@
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B133" s="5" t="s">
         <v>1133</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>1134</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>10</v>
@@ -17690,12 +18084,12 @@
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
-    <row r="134" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>1300</v>
+        <v>1289</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>10</v>
@@ -17710,12 +18104,12 @@
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B135" s="5" t="s">
         <v>1136</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>1137</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>10</v>
@@ -17728,21 +18122,21 @@
         <v>211</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>1274</v>
+        <v>1263</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="I135" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>1299</v>
+        <v>1288</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>10</v>
@@ -17757,12 +18151,12 @@
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
-    <row r="137" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>1291</v>
+        <v>1280</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>10</v>
@@ -17777,12 +18171,12 @@
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
-    <row r="138" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B138" s="5" t="s">
         <v>1140</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>1141</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>10</v>
@@ -17795,18 +18189,18 @@
         <v>211</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>1274</v>
+        <v>1263</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B139" s="5" t="s">
         <v>1142</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>1143</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>104</v>
@@ -17819,21 +18213,24 @@
         <v>211</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>1274</v>
+        <v>1263</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="32" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B143" s="44" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1349</v>
+      </c>
+      <c r="K143" s="44" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>0</v>
       </c>
@@ -17858,13 +18255,34 @@
       <c r="H144" s="29" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K144" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="L144" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="M144" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="N144" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="O144" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="P144" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q144" s="49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>1375</v>
+        <v>1355</v>
       </c>
       <c r="C145" s="11" t="s">
         <v>17</v>
@@ -17878,13 +18296,32 @@
       </c>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
-    </row>
-    <row r="146" spans="1:9" ht="115.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K145" s="50" t="s">
+        <v>1355</v>
+      </c>
+      <c r="L145" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="M145" s="51">
+        <v>11</v>
+      </c>
+      <c r="N145" s="51"/>
+      <c r="O145" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="P145" s="52" t="s">
+        <v>1358</v>
+      </c>
+      <c r="Q145" s="52" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" ht="115.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>1303</v>
+        <v>1292</v>
       </c>
       <c r="C146" s="11" t="s">
         <v>104</v>
@@ -17897,21 +18334,39 @@
         <v>211</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
       <c r="H146" s="11" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1342</v>
+      </c>
+      <c r="K146" s="50" t="s">
+        <v>1292</v>
+      </c>
+      <c r="L146" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="M146" s="51">
+        <v>2</v>
+      </c>
+      <c r="N146" s="51"/>
+      <c r="O146" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="P146" s="51"/>
+      <c r="Q146" s="51"/>
+      <c r="R146" s="6" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>1348</v>
+        <v>1336</v>
       </c>
       <c r="C147" s="11" t="s">
         <v>10</v>
@@ -17924,18 +18379,43 @@
         <v>211</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>1377</v>
+        <v>1357</v>
       </c>
       <c r="H147" s="11" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1356</v>
+      </c>
+      <c r="I147" s="11" t="s">
+        <v>1362</v>
+      </c>
+      <c r="K147" s="50" t="s">
+        <v>1336</v>
+      </c>
+      <c r="L147" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="M147" s="51">
+        <v>8</v>
+      </c>
+      <c r="N147" s="51"/>
+      <c r="O147" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="P147" s="52" t="s">
+        <v>1358</v>
+      </c>
+      <c r="Q147" s="52" t="s">
+        <v>1360</v>
+      </c>
+      <c r="R147" s="53" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>1342</v>
+        <v>1330</v>
       </c>
       <c r="C148" s="11" t="s">
         <v>17</v>
@@ -17948,18 +18428,33 @@
         <v>211</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
       <c r="H148" s="11" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1335</v>
+      </c>
+      <c r="K148" s="50" t="s">
+        <v>1330</v>
+      </c>
+      <c r="L148" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="M148" s="51">
+        <v>11</v>
+      </c>
+      <c r="N148" s="51"/>
+      <c r="O148" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="P148" s="51"/>
+      <c r="Q148" s="51"/>
+    </row>
+    <row r="149" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>423</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="C149" s="11" t="s">
         <v>10</v>
@@ -17973,13 +18468,28 @@
       </c>
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
-    </row>
-    <row r="150" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K149" s="50" t="s">
+        <v>1338</v>
+      </c>
+      <c r="L149" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="M149" s="51">
+        <v>8</v>
+      </c>
+      <c r="N149" s="51"/>
+      <c r="O149" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="P149" s="51"/>
+      <c r="Q149" s="51"/>
+    </row>
+    <row r="150" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
       <c r="C150" s="11" t="s">
         <v>17</v>
@@ -17993,13 +18503,28 @@
       </c>
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
-    </row>
-    <row r="151" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K150" s="50" t="s">
+        <v>1343</v>
+      </c>
+      <c r="L150" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="M150" s="51">
+        <v>11</v>
+      </c>
+      <c r="N150" s="51"/>
+      <c r="O150" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="P150" s="51"/>
+      <c r="Q150" s="51"/>
+    </row>
+    <row r="151" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>1349</v>
+        <v>1337</v>
       </c>
       <c r="C151" s="11" t="s">
         <v>10</v>
@@ -18012,18 +18537,33 @@
         <v>211</v>
       </c>
       <c r="G151" s="11" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
       <c r="H151" s="11" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1333</v>
+      </c>
+      <c r="K151" s="50" t="s">
+        <v>1337</v>
+      </c>
+      <c r="L151" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="M151" s="51">
+        <v>64</v>
+      </c>
+      <c r="N151" s="51"/>
+      <c r="O151" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="P151" s="51"/>
+      <c r="Q151" s="51"/>
+    </row>
+    <row r="152" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>1356</v>
+        <v>1344</v>
       </c>
       <c r="C152" s="11" t="s">
         <v>10</v>
@@ -18036,18 +18576,33 @@
         <v>211</v>
       </c>
       <c r="G152" s="11" t="s">
+        <v>1332</v>
+      </c>
+      <c r="H152" s="11" t="s">
+        <v>1345</v>
+      </c>
+      <c r="K152" s="50" t="s">
         <v>1344</v>
       </c>
-      <c r="H152" s="11" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L152" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="M152" s="51">
+        <v>100</v>
+      </c>
+      <c r="N152" s="51"/>
+      <c r="O152" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="P152" s="51"/>
+      <c r="Q152" s="51"/>
+    </row>
+    <row r="153" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>1302</v>
+        <v>1291</v>
       </c>
       <c r="C153" s="11" t="s">
         <v>10</v>
@@ -18060,18 +18615,33 @@
         <v>210</v>
       </c>
       <c r="G153" s="11" t="s">
-        <v>1344</v>
+        <v>1332</v>
       </c>
       <c r="H153" s="11" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1333</v>
+      </c>
+      <c r="K153" s="50" t="s">
+        <v>1291</v>
+      </c>
+      <c r="L153" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="M153" s="51">
+        <v>100</v>
+      </c>
+      <c r="N153" s="51"/>
+      <c r="O153" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="P153" s="51"/>
+      <c r="Q153" s="51"/>
+    </row>
+    <row r="154" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>1343</v>
+        <v>1331</v>
       </c>
       <c r="C154" s="11" t="s">
         <v>10</v>
@@ -18084,15 +18654,30 @@
         <v>211</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>1344</v>
+        <v>1332</v>
       </c>
       <c r="H154" s="11" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1334</v>
+      </c>
+      <c r="K154" s="50" t="s">
+        <v>1331</v>
+      </c>
+      <c r="L154" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="M154" s="51">
+        <v>100</v>
+      </c>
+      <c r="N154" s="51"/>
+      <c r="O154" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="P154" s="51"/>
+      <c r="Q154" s="51"/>
+    </row>
+    <row r="155" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>806</v>
@@ -18109,16 +18694,31 @@
       </c>
       <c r="G155" s="11"/>
       <c r="H155" s="11"/>
-    </row>
-    <row r="159" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K155" s="50" t="s">
+        <v>806</v>
+      </c>
+      <c r="L155" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="M155" s="51">
+        <v>500</v>
+      </c>
+      <c r="N155" s="51"/>
+      <c r="O155" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="P155" s="51"/>
+      <c r="Q155" s="51"/>
+    </row>
+    <row r="159" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="33" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B159" s="44" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>0</v>
       </c>
@@ -18146,10 +18746,10 @@
     </row>
     <row r="161" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B161" s="5" t="s">
         <v>1063</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>1064</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>10</v>
@@ -18163,7 +18763,7 @@
       </c>
       <c r="G161" s="6"/>
       <c r="H161" s="8" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -18191,7 +18791,7 @@
         <v>317</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>104</v>
@@ -18244,16 +18844,16 @@
         <v>211</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H165" s="6"/>
     </row>
     <row r="166" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B166" s="5" t="s">
         <v>1066</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>1067</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>10</v>
@@ -18270,16 +18870,16 @@
     </row>
     <row r="167" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B167" s="5" t="s">
         <v>1068</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>1069</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>100</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E167" s="6"/>
       <c r="F167" s="6" t="s">
@@ -18287,15 +18887,15 @@
       </c>
       <c r="G167" s="6"/>
       <c r="H167" s="5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B168" s="5" t="s">
         <v>1072</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>1073</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>44</v>
@@ -18312,10 +18912,10 @@
     </row>
     <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B169" s="5" t="s">
         <v>1074</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>1075</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>104</v>
@@ -18332,10 +18932,10 @@
     </row>
     <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B170" s="5" t="s">
         <v>1077</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>1078</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>10</v>
@@ -18352,10 +18952,10 @@
     </row>
     <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B171" s="5" t="s">
         <v>1079</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>1080</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>10</v>
@@ -18372,10 +18972,10 @@
     </row>
     <row r="172" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B172" s="5" t="s">
         <v>1081</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>1082</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>10</v>
@@ -18392,10 +18992,10 @@
     </row>
     <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B173" s="5" t="s">
         <v>1083</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>1084</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>10</v>
@@ -18409,15 +19009,15 @@
       </c>
       <c r="G173" s="6"/>
       <c r="H173" s="6" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B174" s="5" t="s">
         <v>1086</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>1087</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>10</v>
@@ -18454,7 +19054,7 @@
     </row>
     <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>328</v>
@@ -18474,10 +19074,10 @@
     </row>
     <row r="181" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="35" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B181" s="44" t="s">
-        <v>1271</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -18508,10 +19108,10 @@
     </row>
     <row r="183" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B183" s="5" t="s">
         <v>1158</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>1159</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>10</v>
@@ -18528,10 +19128,10 @@
     </row>
     <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B184" s="5" t="s">
         <v>1160</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>1161</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>10</v>
@@ -18568,10 +19168,10 @@
     </row>
     <row r="186" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B186" s="5" t="s">
         <v>1162</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>1163</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>10</v>
@@ -18588,10 +19188,10 @@
     </row>
     <row r="187" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B187" s="5" t="s">
         <v>1009</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>1010</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>104</v>
@@ -18608,10 +19208,10 @@
     </row>
     <row r="188" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B188" s="5" t="s">
         <v>1164</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>1165</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>104</v>
@@ -18624,16 +19224,16 @@
         <v>210</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="H188" s="6"/>
     </row>
     <row r="189" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B189" s="5" t="s">
         <v>1167</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>1168</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>10</v>
@@ -18650,10 +19250,10 @@
     </row>
     <row r="190" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B190" s="5" t="s">
         <v>1169</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>1170</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>104</v>
@@ -18670,10 +19270,10 @@
     </row>
     <row r="191" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B191" s="5" t="s">
         <v>1171</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>1172</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>10</v>
@@ -18690,10 +19290,10 @@
     </row>
     <row r="192" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B192" s="5" t="s">
         <v>1173</v>
-      </c>
-      <c r="B192" s="5" t="s">
-        <v>1174</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>104</v>
@@ -18706,16 +19306,16 @@
         <v>211</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H192" s="6"/>
     </row>
     <row r="193" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B193" s="5" t="s">
         <v>1176</v>
-      </c>
-      <c r="B193" s="5" t="s">
-        <v>1177</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>10</v>
@@ -18732,16 +19332,16 @@
     </row>
     <row r="194" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B194" s="5" t="s">
         <v>1178</v>
       </c>
-      <c r="B194" s="5" t="s">
+      <c r="C194" s="6" t="s">
         <v>1179</v>
       </c>
-      <c r="C194" s="6" t="s">
+      <c r="D194" s="6" t="s">
         <v>1180</v>
-      </c>
-      <c r="D194" s="6" t="s">
-        <v>1181</v>
       </c>
       <c r="E194" s="6"/>
       <c r="F194" s="6" t="s">
@@ -18752,10 +19352,10 @@
     </row>
     <row r="195" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B195" s="5" t="s">
         <v>1021</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>1022</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>10</v>
@@ -18775,7 +19375,7 @@
         <v>160</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>10</v>
@@ -18794,10 +19394,10 @@
     </row>
     <row r="197" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B197" s="5" t="s">
         <v>1183</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>1184</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>10</v>
@@ -18814,10 +19414,10 @@
     </row>
     <row r="198" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B198" s="6" t="s">
         <v>1185</v>
-      </c>
-      <c r="B198" s="6" t="s">
-        <v>1186</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>10</v>
@@ -18834,10 +19434,10 @@
     </row>
     <row r="199" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B199" s="5" t="s">
         <v>1187</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>1188</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>10</v>
@@ -18854,10 +19454,10 @@
     </row>
     <row r="200" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B200" s="5" t="s">
         <v>1189</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>1190</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>10</v>
@@ -18874,10 +19474,10 @@
     </row>
     <row r="201" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B201" s="5" t="s">
         <v>1191</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>1192</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>10</v>
@@ -18894,10 +19494,10 @@
     </row>
     <row r="202" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B202" s="5" t="s">
         <v>1193</v>
-      </c>
-      <c r="B202" s="5" t="s">
-        <v>1194</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>10</v>
@@ -18914,10 +19514,10 @@
     </row>
     <row r="203" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B203" s="5" t="s">
         <v>1195</v>
-      </c>
-      <c r="B203" s="5" t="s">
-        <v>1196</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>10</v>
@@ -18934,10 +19534,10 @@
     </row>
     <row r="204" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B204" s="5" t="s">
         <v>1197</v>
-      </c>
-      <c r="B204" s="5" t="s">
-        <v>1198</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>10</v>
@@ -18954,10 +19554,10 @@
     </row>
     <row r="205" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B205" s="5" t="s">
         <v>1199</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>1200</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>10</v>
@@ -18974,10 +19574,10 @@
     </row>
     <row r="206" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B206" s="5" t="s">
         <v>1201</v>
-      </c>
-      <c r="B206" s="5" t="s">
-        <v>1202</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>10</v>
@@ -18994,10 +19594,10 @@
     </row>
     <row r="207" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B207" s="5" t="s">
         <v>1203</v>
-      </c>
-      <c r="B207" s="5" t="s">
-        <v>1204</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>44</v>
@@ -19014,10 +19614,10 @@
     </row>
     <row r="208" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B208" s="5" t="s">
         <v>1205</v>
-      </c>
-      <c r="B208" s="5" t="s">
-        <v>1206</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>10</v>
@@ -19034,10 +19634,10 @@
     </row>
     <row r="213" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="32" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B213" s="45" t="s">
-        <v>1272</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19068,10 +19668,10 @@
     </row>
     <row r="215" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B215" s="5" t="s">
         <v>1063</v>
-      </c>
-      <c r="B215" s="5" t="s">
-        <v>1064</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>10</v>
@@ -19085,7 +19685,7 @@
       </c>
       <c r="G215" s="6"/>
       <c r="H215" s="8" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19113,7 +19713,7 @@
         <v>317</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C217" s="6" t="s">
         <v>104</v>
@@ -19167,15 +19767,15 @@
       </c>
       <c r="G219" s="6"/>
       <c r="H219" s="6" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B220" s="5" t="s">
         <v>1066</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>1067</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>10</v>
@@ -19192,16 +19792,16 @@
     </row>
     <row r="221" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B221" s="5" t="s">
         <v>1068</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>1069</v>
       </c>
       <c r="C221" s="6" t="s">
         <v>100</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E221" s="6"/>
       <c r="F221" s="6" t="s">
@@ -19209,15 +19809,15 @@
       </c>
       <c r="G221" s="6"/>
       <c r="H221" s="5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B222" s="5" t="s">
         <v>1072</v>
-      </c>
-      <c r="B222" s="5" t="s">
-        <v>1073</v>
       </c>
       <c r="C222" s="6" t="s">
         <v>44</v>
@@ -19234,10 +19834,10 @@
     </row>
     <row r="223" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B223" s="5" t="s">
         <v>1074</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>1075</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>104</v>
@@ -19251,15 +19851,15 @@
       </c>
       <c r="G223" s="6"/>
       <c r="H223" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B224" s="5" t="s">
         <v>1077</v>
-      </c>
-      <c r="B224" s="5" t="s">
-        <v>1078</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>10</v>
@@ -19273,15 +19873,15 @@
       </c>
       <c r="G224" s="6"/>
       <c r="H224" s="5" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B225" s="5" t="s">
         <v>1079</v>
-      </c>
-      <c r="B225" s="5" t="s">
-        <v>1080</v>
       </c>
       <c r="C225" s="6" t="s">
         <v>10</v>
@@ -19294,16 +19894,16 @@
         <v>211</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H225" s="6"/>
     </row>
     <row r="226" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B226" s="5" t="s">
         <v>1081</v>
-      </c>
-      <c r="B226" s="5" t="s">
-        <v>1082</v>
       </c>
       <c r="C226" s="6" t="s">
         <v>10</v>
@@ -19320,10 +19920,10 @@
     </row>
     <row r="227" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B227" s="5" t="s">
         <v>1083</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>1084</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>10</v>
@@ -19336,16 +19936,16 @@
         <v>211</v>
       </c>
       <c r="G227" s="6" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H227" s="6"/>
     </row>
     <row r="228" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B228" s="5" t="s">
         <v>1086</v>
-      </c>
-      <c r="B228" s="5" t="s">
-        <v>1087</v>
       </c>
       <c r="C228" s="6" t="s">
         <v>10</v>
@@ -19382,7 +19982,7 @@
     </row>
     <row r="230" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B230" s="5" t="s">
         <v>328</v>
@@ -19402,10 +20002,10 @@
     </row>
     <row r="234" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="33" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B234" s="44" t="s">
-        <v>1273</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19436,10 +20036,10 @@
     </row>
     <row r="236" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>1304</v>
+        <v>1293</v>
       </c>
       <c r="C236" s="6" t="s">
         <v>10</v>
@@ -19449,21 +20049,21 @@
       </c>
       <c r="E236" s="6"/>
       <c r="F236" s="6" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G236" s="6" t="s">
-        <v>1312</v>
+        <v>1301</v>
       </c>
       <c r="H236" s="7" t="s">
-        <v>1317</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>1305</v>
+        <v>1294</v>
       </c>
       <c r="C237" s="6" t="s">
         <v>10</v>
@@ -19474,18 +20074,18 @@
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
       <c r="G237" s="6" t="s">
-        <v>1312</v>
+        <v>1301</v>
       </c>
       <c r="H237" s="7" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>1306</v>
+        <v>1295</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>10</v>
@@ -19503,7 +20103,7 @@
         <v>140</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>10</v>
@@ -19514,18 +20114,18 @@
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
       <c r="G239" s="6" t="s">
-        <v>1312</v>
+        <v>1301</v>
       </c>
       <c r="H239" s="6" t="s">
-        <v>1276</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>1310</v>
+        <v>1299</v>
       </c>
       <c r="C240" s="6" t="s">
         <v>10</v>
@@ -19538,12 +20138,12 @@
       <c r="G240" s="6"/>
       <c r="H240" s="6"/>
     </row>
-    <row r="241" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>1282</v>
+        <v>1271</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>10</v>
@@ -19554,18 +20154,18 @@
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
       <c r="G241" s="6" t="s">
-        <v>1312</v>
+        <v>1301</v>
       </c>
       <c r="H241" s="6" t="s">
-        <v>1296</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>1308</v>
+        <v>1297</v>
       </c>
       <c r="C242" s="6" t="s">
         <v>104</v>
@@ -19580,7 +20180,7 @@
     </row>
     <row r="243" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B243" s="5" t="s">
         <v>794</v>
@@ -19598,10 +20198,10 @@
     </row>
     <row r="244" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>1311</v>
+        <v>1300</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>104</v>
@@ -19612,10 +20212,10 @@
       <c r="E244" s="6"/>
       <c r="F244" s="6"/>
       <c r="G244" s="6" t="s">
-        <v>1312</v>
+        <v>1301</v>
       </c>
       <c r="H244" s="6" t="s">
-        <v>1315</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19623,7 +20223,7 @@
         <v>108</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C245" s="6" t="s">
         <v>10</v>
@@ -19634,15 +20234,15 @@
       <c r="E245" s="6"/>
       <c r="F245" s="6"/>
       <c r="G245" s="6" t="s">
-        <v>1312</v>
+        <v>1301</v>
       </c>
       <c r="H245" s="6" t="s">
-        <v>1314</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B246" s="5" t="s">
         <v>802</v>
@@ -19656,10 +20256,10 @@
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
       <c r="G246" s="6" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="H246" s="6" t="s">
-        <v>1318</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19678,18 +20278,18 @@
       <c r="E247" s="6"/>
       <c r="F247" s="6"/>
       <c r="G247" s="6" t="s">
-        <v>1312</v>
+        <v>1301</v>
       </c>
       <c r="H247" s="6" t="s">
-        <v>1319</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>1320</v>
+        <v>1309</v>
       </c>
       <c r="C248" s="6" t="s">
         <v>10</v>
@@ -19702,12 +20302,12 @@
       <c r="G248" s="6"/>
       <c r="H248" s="6"/>
     </row>
-    <row r="249" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B249" s="5" t="s">
         <v>1215</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>1216</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>44</v>
@@ -19718,18 +20318,18 @@
       <c r="E249" s="6"/>
       <c r="F249" s="6"/>
       <c r="G249" s="6" t="s">
-        <v>1312</v>
+        <v>1301</v>
       </c>
       <c r="H249" s="6" t="s">
-        <v>1316</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>1309</v>
+        <v>1298</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>10</v>
@@ -19744,10 +20344,10 @@
     </row>
     <row r="251" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B251" s="6" t="s">
         <v>1217</v>
-      </c>
-      <c r="B251" s="6" t="s">
-        <v>1218</v>
       </c>
       <c r="C251" s="6" t="s">
         <v>10</v>
@@ -19758,18 +20358,18 @@
       <c r="E251" s="6"/>
       <c r="F251" s="6"/>
       <c r="G251" s="6" t="s">
-        <v>1312</v>
+        <v>1301</v>
       </c>
       <c r="H251" s="6" t="s">
-        <v>1313</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B252" s="5" t="s">
         <v>1219</v>
-      </c>
-      <c r="B252" s="5" t="s">
-        <v>1220</v>
       </c>
       <c r="C252" s="6" t="s">
         <v>10</v>
@@ -19784,10 +20384,10 @@
     </row>
     <row r="253" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C253" s="6" t="s">
         <v>10</v>
@@ -19802,13 +20402,13 @@
     </row>
     <row r="257" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="32" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B257" s="45" t="s">
-        <v>1321</v>
+        <v>1310</v>
       </c>
       <c r="I257" t="s">
-        <v>1323</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19839,10 +20439,10 @@
     </row>
     <row r="259" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B259" s="5" t="s">
         <v>1063</v>
-      </c>
-      <c r="B259" s="5" t="s">
-        <v>1064</v>
       </c>
       <c r="C259" s="6" t="s">
         <v>10</v>
@@ -19855,13 +20455,13 @@
         <v>210</v>
       </c>
       <c r="G259" s="6" t="s">
-        <v>1362</v>
+        <v>1348</v>
       </c>
       <c r="H259" s="7" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
         <v>142</v>
       </c>
@@ -19879,10 +20479,10 @@
         <v>210</v>
       </c>
       <c r="G260" s="6" t="s">
-        <v>1322</v>
+        <v>1311</v>
       </c>
       <c r="H260" s="7" t="s">
-        <v>1324</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19890,7 +20490,7 @@
         <v>317</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C261" s="6" t="s">
         <v>104</v>
@@ -19903,10 +20503,10 @@
         <v>211</v>
       </c>
       <c r="G261" s="6" t="s">
-        <v>1322</v>
+        <v>1311</v>
       </c>
       <c r="H261" s="7" t="s">
-        <v>1326</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19927,13 +20527,13 @@
         <v>211</v>
       </c>
       <c r="G262" s="6" t="s">
-        <v>1322</v>
+        <v>1311</v>
       </c>
       <c r="H262" s="6" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
         <v>140</v>
       </c>
@@ -19951,18 +20551,18 @@
         <v>211</v>
       </c>
       <c r="G263" s="6" t="s">
-        <v>1322</v>
+        <v>1311</v>
       </c>
       <c r="H263" s="6" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="264" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B264" s="5" t="s">
         <v>1066</v>
-      </c>
-      <c r="B264" s="5" t="s">
-        <v>1067</v>
       </c>
       <c r="C264" s="6" t="s">
         <v>10</v>
@@ -19975,42 +20575,42 @@
         <v>211</v>
       </c>
       <c r="G264" s="6" t="s">
-        <v>1322</v>
+        <v>1311</v>
       </c>
       <c r="H264" s="6" t="s">
-        <v>1327</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="265" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B265" s="5" t="s">
         <v>1068</v>
-      </c>
-      <c r="B265" s="5" t="s">
-        <v>1069</v>
       </c>
       <c r="C265" s="6" t="s">
         <v>100</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E265" s="6"/>
       <c r="F265" s="6" t="s">
         <v>211</v>
       </c>
       <c r="G265" s="6" t="s">
-        <v>1322</v>
+        <v>1311</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>1328</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B266" s="5" t="s">
         <v>1072</v>
-      </c>
-      <c r="B266" s="5" t="s">
-        <v>1073</v>
       </c>
       <c r="C266" s="6" t="s">
         <v>44</v>
@@ -20027,10 +20627,10 @@
     </row>
     <row r="267" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B267" s="5" t="s">
         <v>1074</v>
-      </c>
-      <c r="B267" s="5" t="s">
-        <v>1075</v>
       </c>
       <c r="C267" s="6" t="s">
         <v>104</v>
@@ -20043,18 +20643,18 @@
         <v>211</v>
       </c>
       <c r="G267" s="6" t="s">
-        <v>1322</v>
+        <v>1311</v>
       </c>
       <c r="H267" s="6" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B268" s="5" t="s">
         <v>1077</v>
-      </c>
-      <c r="B268" s="5" t="s">
-        <v>1078</v>
       </c>
       <c r="C268" s="6" t="s">
         <v>10</v>
@@ -20071,10 +20671,10 @@
     </row>
     <row r="269" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B269" s="5" t="s">
         <v>1079</v>
-      </c>
-      <c r="B269" s="5" t="s">
-        <v>1080</v>
       </c>
       <c r="C269" s="6" t="s">
         <v>10</v>
@@ -20087,18 +20687,18 @@
         <v>211</v>
       </c>
       <c r="G269" s="6" t="s">
-        <v>1322</v>
+        <v>1311</v>
       </c>
       <c r="H269" s="6" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B270" s="5" t="s">
         <v>1081</v>
-      </c>
-      <c r="B270" s="5" t="s">
-        <v>1082</v>
       </c>
       <c r="C270" s="6" t="s">
         <v>10</v>
@@ -20115,10 +20715,10 @@
     </row>
     <row r="271" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B271" s="5" t="s">
         <v>1083</v>
-      </c>
-      <c r="B271" s="5" t="s">
-        <v>1084</v>
       </c>
       <c r="C271" s="6" t="s">
         <v>10</v>
@@ -20131,18 +20731,18 @@
         <v>211</v>
       </c>
       <c r="G271" s="6" t="s">
-        <v>1322</v>
+        <v>1311</v>
       </c>
       <c r="H271" s="6" t="s">
-        <v>1332</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B272" s="5" t="s">
         <v>1086</v>
-      </c>
-      <c r="B272" s="5" t="s">
-        <v>1087</v>
       </c>
       <c r="C272" s="6" t="s">
         <v>10</v>
@@ -20179,7 +20779,7 @@
     </row>
     <row r="274" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B274" s="5" t="s">
         <v>328</v>

--- a/重庆二师_Dev/doc/ods-fdm -zkc.xlsx
+++ b/重庆二师_Dev/doc/ods-fdm -zkc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView minimized="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="图书（3）" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3517" uniqueCount="1401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3520" uniqueCount="1405">
   <si>
     <t>字段名</t>
   </si>
@@ -5253,9 +5253,6 @@
     <t>SHJJMB</t>
   </si>
   <si>
-    <t>社会经济目标</t>
-  </si>
-  <si>
     <t>ZTC</t>
   </si>
   <si>
@@ -5293,10 +5290,6 @@
       </rPr>
       <t>项目级别</t>
     </r>
-  </si>
-  <si>
-    <t>5、科研-项目基本信息表(edu_fdm_ky_xm)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>JHJFZE</t>
@@ -5780,10 +5773,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>11、科研-著作人员信息表(edu_fdm_ky_zz_ry)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>人员号</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -6190,6 +6179,332 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>S_PROJECT</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>UNIT_ID</t>
+  </si>
+  <si>
+    <t>UNIT_ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT_TYPE_ID</t>
+  </si>
+  <si>
+    <t>项目负责人号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHARGER_CODE</t>
+  </si>
+  <si>
+    <t>专项编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目来源码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目批准号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目类别码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT_MODE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTHORIZE_DATE</t>
+  </si>
+  <si>
+    <t>AUTHORIZE_SN</t>
+  </si>
+  <si>
+    <t>COOPERATE_ID</t>
+  </si>
+  <si>
+    <t>PROJECT_SOURCE_UNIT</t>
+  </si>
+  <si>
+    <t>PROJECT_CLASS_ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属主课题</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>结项日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>学科门类（科技）码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目委托单位名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>START_DATE</t>
+  </si>
+  <si>
+    <t>PROJECT_SOURCE_ID</t>
+  </si>
+  <si>
+    <t>所属技术领域</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题词</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>开题日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>署名顺序</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目经费来源码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>著作编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>著作中文名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>著作英文名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>论著类别码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属项目编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>学科领域码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>语种码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_BOOK</t>
+  </si>
+  <si>
+    <t>ISBN</t>
+  </si>
+  <si>
+    <t>PUBLISH_UNIT</t>
+  </si>
+  <si>
+    <t>LANGUAGE_ID</t>
+  </si>
+  <si>
+    <t>WORD_NUMBER</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBLISH_LEVEL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBLISH_DATE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>出版号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>11、科研-著作人员信息表(edu_fdm_ky_zz_ry)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_BOOK_AUTHOR</t>
+  </si>
+  <si>
+    <t>S_BOOK_AUTHOR的book_id与s_book的ID可以做关联</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTHOR_NAME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTHOR_ID</t>
+  </si>
+  <si>
+    <t>SEX_ID</t>
+  </si>
+  <si>
+    <t>AUTHOR_UNIT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORK_RATIO</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_ID</t>
+  </si>
+  <si>
+    <t>AUTHOR_TYPE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTHOR_UNIT_ID</t>
+  </si>
+  <si>
+    <t>EDU_LEVEL_ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人参与项目的工作量比例，单位：％</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ACTUAL_END_DATE</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SECRECY_LEVEL</t>
+  </si>
+  <si>
+    <t>学科领域码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBJECT_CLASS_ID</t>
+  </si>
+  <si>
+    <t>项目委托单位码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INDUSTRY_ID</t>
+  </si>
+  <si>
+    <t>拨款数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨款单位</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_PROJECT_INCOME</t>
+  </si>
+  <si>
+    <t>PROJECT_ID</t>
+  </si>
+  <si>
+    <t>INCOME_UNIT</t>
+  </si>
+  <si>
+    <t>FEE_SUM</t>
+  </si>
+  <si>
+    <t>拨入日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目凭证编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEE_SOURCES_ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_PROJECT_PAYOUT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_PROJECT_INCOME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>与S_PROJECT_INCOME中的PROJECT_ID项目编号做关联</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨付协作单位经费</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>经办人姓名</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISPOSER</t>
+  </si>
+  <si>
+    <t>S_PROJECT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_BOOK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_BOOK_AUTHOR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -6198,7 +6513,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>10、</t>
+      <t>6、</t>
     </r>
     <r>
       <rPr>
@@ -6229,7 +6544,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>著作信息表</t>
+      <t>项目经费信息表</t>
     </r>
     <r>
       <rPr>
@@ -6238,230 +6553,114 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>(edu_fdm_ky_zz)</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_PROJECT</t>
-  </si>
-  <si>
-    <t>CODE</t>
-  </si>
-  <si>
-    <t>UNIT_ID</t>
-  </si>
-  <si>
-    <t>UNIT_ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROJECT_TYPE_ID</t>
-  </si>
-  <si>
-    <t>项目负责人号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHARGER_CODE</t>
-  </si>
-  <si>
-    <t>专项编号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目来源码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目批准号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目类别码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRODUCT_MODE</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTHORIZE_DATE</t>
-  </si>
-  <si>
-    <t>AUTHORIZE_SN</t>
-  </si>
-  <si>
-    <t>COOPERATE_ID</t>
-  </si>
-  <si>
-    <t>PROJECT_SOURCE_UNIT</t>
-  </si>
-  <si>
-    <t>PROJECT_CLASS_ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属主课题</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>结项日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>学科门类（科技）码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目委托单位名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>START_DATE</t>
-  </si>
-  <si>
-    <t>PROJECT_SOURCE_ID</t>
-  </si>
-  <si>
-    <t>所属技术领域</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>与DM_SHJJMB表有关联</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题词</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>开题日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>署名顺序</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目编号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目经费来源码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>著作编号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>著作中文名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>著作英文名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>论著类别码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属项目编号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>学科领域码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>语种码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_BOOK</t>
-  </si>
-  <si>
-    <t>ISBN</t>
-  </si>
-  <si>
-    <t>PUBLISH_UNIT</t>
-  </si>
-  <si>
-    <t>LANGUAGE_ID</t>
-  </si>
-  <si>
-    <t>WORD_NUMBER</t>
+      <t>(edu_fdm_ky_xmjf)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员类型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTHOR_TYPE</t>
   </si>
   <si>
     <t>ID</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>PUBLISH_LEVEL</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUBLISH_DATE</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>出版号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>11、科研-著作人员信息表(edu_fdm_ky_zz_ry)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_BOOK_AUTHOR</t>
-  </si>
-  <si>
-    <t>S_BOOK_AUTHOR的book_id与s_book的ID可以做关联</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTHOR_NAME</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTHOR_ID</t>
-  </si>
-  <si>
-    <t>SEX_ID</t>
-  </si>
-  <si>
-    <t>AUTHOR_UNIT</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>WORK_RATIO</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLE_ID</t>
-  </si>
-  <si>
-    <t>AUTHOR_TYPE</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTHOR_UNIT_ID</t>
-  </si>
-  <si>
-    <t>EDU_LEVEL_ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人参与项目的工作量比例，单位：％</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
+    <t>刊物级别代码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>刊物编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划经费总额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INCOME_DATE</t>
+  </si>
+  <si>
+    <t>S_PROJECT_INCOME</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_PROJECT_BUDGET</t>
+  </si>
+  <si>
+    <t>BUDGET_SUM</t>
+  </si>
+  <si>
+    <t>BUDGET_DATE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>项目预算支出时间看作是项目经费的拨入时间</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S_PROJECT_INCOME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目到账表只有两条数据</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>科研编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM_AUTHOR_TYPE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_PAPER_AUTHOR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>XSXKB</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>XSXKB</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_PAPER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>国家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -6470,8 +6669,197 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
+      <t>地区码</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>刊物类型码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>出版社级别码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_PAPER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_MAGAZINE中的source_id、PAPER_TYPE_ID,但是没有关联字段</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBLISH_UNIT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBLISH_DATE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FBRQ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBH</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GJDQM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>KWJBM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBLISH_YEAR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUAN_NUMBER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>QI_NUMBER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBSJBM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>KWBH</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>KWLXM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>LWBH</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PAGE_SCOPE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（页码范围）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bigint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Varchar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（改为</t>
     </r>
     <r>
       <rPr>
@@ -6480,100 +6868,229 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ACTUAL_END_DATE</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SECRECY_LEVEL</t>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>改为（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>varchar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>varchar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHJJMB</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_PROJECT.SHJJMB与DM_SHJJMB.id表有关联</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM_SHJJMB</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>社会经济效益码</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>学科领域码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUBJECT_CLASS_ID</t>
-  </si>
-  <si>
-    <t>项目委托单位码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>INDUSTRY_ID</t>
-  </si>
-  <si>
-    <t>拨款数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>拨款单位</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_PROJECT_INCOME</t>
-  </si>
-  <si>
-    <t>PROJECT_ID</t>
-  </si>
-  <si>
-    <t>INCOME_UNIT</t>
-  </si>
-  <si>
-    <t>FEE_SUM</t>
-  </si>
-  <si>
-    <t>拨入日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目凭证编号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>支出日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>FEE_SOURCES_ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_PROJECT_PAYOUT</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_PROJECT_INCOME</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>与S_PROJECT_INCOME中的PROJECT_ID项目编号做关联</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>拨付协作单位经费</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>经办人姓名</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISPOSER</t>
+    <t>社会经济目标</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>S_PROJECT</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>S_BOOK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_BOOK_AUTHOR</t>
+    <t>5、科研-项目基本信息表(edu_fdm_ky_xm)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>(没有抽取，无数据)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -6585,7 +7102,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>6、</t>
+      <t>10、</t>
     </r>
     <r>
       <rPr>
@@ -6616,7 +7133,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>项目经费信息表</t>
+      <t>著作信息表</t>
     </r>
     <r>
       <rPr>
@@ -6625,507 +7142,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>(edu_fdm_ky_xmjf)</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员类型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTHOR_TYPE</t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>刊物级别代码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>刊物编号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划经费总额</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>INCOME_DATE</t>
-  </si>
-  <si>
-    <t>S_PROJECT_INCOME</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_PROJECT_BUDGET</t>
-  </si>
-  <si>
-    <t>BUDGET_SUM</t>
-  </si>
-  <si>
-    <t>BUDGET_DATE</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>项目预算支出时间看作是项目经费的拨入时间</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S_PROJECT_INCOME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>项目到账表只有两条数据</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>科研编号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM_AUTHOR_TYPE</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_PAPER_AUTHOR</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>XSXKB</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>XSXKB</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_PAPER</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>国家</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地区码</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>刊物类型码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>出版社级别码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_PAPER</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>发表日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISSN</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_MAGAZINE中的source_id、PAPER_TYPE_ID,但是没有关联字段</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>空</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUBLISH_UNIT</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUBLISH_DATE</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>FBRQ</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CBH</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GJDQM</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>KWJBM</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUBLISH_YEAR</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>JUAN_NUMBER</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>QI_NUMBER</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CBSJBM</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>KWBH</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>KWLXM</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>LWBH</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISSN</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（改为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>PAGE_SCOPE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（页码范围）</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>bigint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（改为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Varchar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（改为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>改为（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>varchar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（改为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>varchar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（改为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（改为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（改为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t>(edu_fdm_ky_zz)</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -7362,7 +7379,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7400,6 +7417,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7536,7 +7559,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -7685,6 +7708,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -11004,7 +11028,7 @@
         <v>816</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>936</v>
@@ -11028,7 +11052,7 @@
         <v>816</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>937</v>
@@ -15535,8 +15559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -15544,7 +15568,7 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="5" max="5" width="4.44140625" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.109375" bestFit="1" customWidth="1"/>
@@ -15557,15 +15581,15 @@
         <v>661</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="63.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="84.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>1060</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -15671,7 +15695,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>1002</v>
       </c>
@@ -15715,7 +15739,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>1008</v>
       </c>
@@ -15737,7 +15761,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>1010</v>
       </c>
@@ -15759,7 +15783,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>1013</v>
       </c>
@@ -15781,7 +15805,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>1016</v>
       </c>
@@ -15927,15 +15951,15 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="33" t="s">
         <v>1061</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -16021,7 +16045,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>140</v>
       </c>
@@ -16043,7 +16067,7 @@
       </c>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>1002</v>
       </c>
@@ -16087,7 +16111,7 @@
       </c>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>1008</v>
       </c>
@@ -16109,7 +16133,7 @@
       </c>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>1010</v>
       </c>
@@ -16131,7 +16155,7 @@
       </c>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>1013</v>
       </c>
@@ -16153,7 +16177,7 @@
       </c>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>1016</v>
       </c>
@@ -16357,7 +16381,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>160</v>
       </c>
@@ -16379,7 +16403,7 @@
       </c>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>1039</v>
       </c>
@@ -16501,7 +16525,7 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>1052</v>
       </c>
@@ -16583,7 +16607,7 @@
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="58" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="58.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="33" t="s">
         <v>1087</v>
       </c>
@@ -16591,7 +16615,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -16617,12 +16641,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>1062</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>10</v>
@@ -16632,21 +16656,21 @@
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>10</v>
@@ -16656,16 +16680,16 @@
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>317</v>
       </c>
@@ -16680,21 +16704,21 @@
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>10</v>
@@ -16704,13 +16728,13 @@
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -16718,7 +16742,7 @@
         <v>140</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>10</v>
@@ -16728,21 +16752,21 @@
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>1065</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>10</v>
@@ -16752,21 +16776,21 @@
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>1067</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>100</v>
@@ -16776,16 +16800,16 @@
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -16813,7 +16837,7 @@
         <v>1073</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>104</v>
@@ -16828,7 +16852,7 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>1076</v>
       </c>
@@ -16846,18 +16870,18 @@
         <v>211</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>1078</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>10</v>
@@ -16870,18 +16894,18 @@
         <v>211</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>1080</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>10</v>
@@ -16894,10 +16918,10 @@
         <v>211</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -16905,7 +16929,7 @@
         <v>1082</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>10</v>
@@ -16918,13 +16942,13 @@
         <v>211</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="H72" s="6" t="s">
+        <v>1223</v>
+      </c>
+      <c r="J72" s="6" t="s">
         <v>1226</v>
-      </c>
-      <c r="J72" s="6" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -16932,7 +16956,7 @@
         <v>1085</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>10</v>
@@ -16989,13 +17013,13 @@
     </row>
     <row r="79" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="32" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="B79" s="44" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
@@ -17026,7 +17050,7 @@
         <v>1033</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>10</v>
@@ -17036,21 +17060,21 @@
       </c>
       <c r="E81" s="39"/>
       <c r="F81" s="39" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="G81" s="39" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="H81" s="54" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>10</v>
@@ -17061,18 +17085,18 @@
       <c r="E82" s="39"/>
       <c r="F82" s="39"/>
       <c r="G82" s="39" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="H82" s="40" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>10</v>
@@ -17087,10 +17111,10 @@
     </row>
     <row r="84" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>10</v>
@@ -17105,10 +17129,10 @@
     </row>
     <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>104</v>
@@ -17120,7 +17144,7 @@
       <c r="F85" s="39"/>
       <c r="G85" s="39"/>
       <c r="H85" s="55" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="I85" s="42"/>
     </row>
@@ -17129,21 +17153,21 @@
         <v>1042</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="D86" s="36" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="E86" s="39"/>
       <c r="F86" s="39"/>
       <c r="G86" s="39" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="H86" s="39" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -17151,21 +17175,21 @@
         <v>1044</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="D87" s="36" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="E87" s="39"/>
       <c r="F87" s="39"/>
       <c r="G87" s="39" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="H87" s="39" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -17173,21 +17197,21 @@
         <v>1046</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D88" s="36" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="E88" s="39"/>
       <c r="F88" s="39"/>
       <c r="G88" s="39" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="H88" s="39" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -17195,13 +17219,13 @@
         <v>1048</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D89" s="36" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="E89" s="39"/>
       <c r="F89" s="39"/>
@@ -17213,29 +17237,29 @@
         <v>1050</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="C90" s="6" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D90" s="36" t="s">
         <v>1394</v>
-      </c>
-      <c r="D90" s="36" t="s">
-        <v>1400</v>
       </c>
       <c r="E90" s="39"/>
       <c r="F90" s="39"/>
       <c r="G90" s="39" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="H90" s="39" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>10</v>
@@ -17250,10 +17274,10 @@
     </row>
     <row r="92" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>10</v>
@@ -17266,15 +17290,15 @@
       <c r="G92" s="39"/>
       <c r="H92" s="39"/>
       <c r="I92" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>104</v>
@@ -17289,33 +17313,33 @@
     </row>
     <row r="94" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D94" s="36" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="E94" s="39"/>
       <c r="F94" s="39"/>
       <c r="G94" s="41" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="H94" s="41" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="I94" s="42"/>
     </row>
     <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>10</v>
@@ -17326,21 +17350,21 @@
       <c r="E95" s="39"/>
       <c r="F95" s="39"/>
       <c r="G95" s="39" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="H95" s="39" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="32" t="s">
-        <v>1143</v>
+        <v>1402</v>
       </c>
       <c r="B99" s="46" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
@@ -17384,10 +17408,10 @@
         <v>210</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17408,10 +17432,10 @@
         <v>211</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17432,10 +17456,10 @@
         <v>210</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17443,7 +17467,7 @@
         <v>1092</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>10</v>
@@ -17476,18 +17500,18 @@
         <v>211</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>1095</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>10</v>
@@ -17500,10 +17524,10 @@
         <v>211</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17511,7 +17535,7 @@
         <v>1096</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>10</v>
@@ -17524,10 +17548,10 @@
         <v>211</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17535,7 +17559,7 @@
         <v>1097</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>10</v>
@@ -17555,7 +17579,7 @@
         <v>1098</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>10</v>
@@ -17570,12 +17594,12 @@
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>1013</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>104</v>
@@ -17588,10 +17612,10 @@
         <v>211</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17619,7 +17643,7 @@
         <v>1101</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>1325</v>
+        <v>1399</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>104</v>
@@ -17631,15 +17655,19 @@
       <c r="F112" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G112" s="34"/>
-      <c r="H112" s="6"/>
-    </row>
-    <row r="113" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G112" s="11" t="s">
+        <v>1401</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>1008</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>10</v>
@@ -17652,10 +17680,10 @@
         <v>211</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -17717,7 +17745,7 @@
       </c>
       <c r="G116" s="34"/>
       <c r="H116" s="6" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17725,7 +17753,7 @@
         <v>1022</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>10</v>
@@ -17745,7 +17773,7 @@
         <v>1107</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>10</v>
@@ -17758,18 +17786,18 @@
         <v>211</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>1263</v>
+        <v>1401</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>1108</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>10</v>
@@ -17782,10 +17810,10 @@
         <v>211</v>
       </c>
       <c r="G119" s="6" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H119" s="6" t="s">
         <v>1263</v>
-      </c>
-      <c r="H119" s="6" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17806,10 +17834,10 @@
         <v>211</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="H120" s="48" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17889,12 +17917,10 @@
       <c r="F124" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G124" s="6" t="s">
-        <v>1263</v>
-      </c>
+      <c r="G124" s="6"/>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>184</v>
       </c>
@@ -17911,9 +17937,11 @@
       <c r="F125" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G125" s="6"/>
+      <c r="G125" s="6" t="s">
+        <v>1259</v>
+      </c>
       <c r="H125" s="6" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17936,12 +17964,12 @@
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>1010</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>104</v>
@@ -17974,10 +18002,10 @@
         <v>211</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="129" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -18038,10 +18066,10 @@
         <v>211</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="132" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -18089,7 +18117,7 @@
         <v>1134</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>10</v>
@@ -18104,12 +18132,12 @@
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>1135</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>1136</v>
+        <v>1400</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>10</v>
@@ -18122,21 +18150,21 @@
         <v>211</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>1263</v>
+        <v>1398</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>1135</v>
+        <v>1396</v>
       </c>
       <c r="I135" t="s">
-        <v>1287</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="136" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>10</v>
@@ -18153,10 +18181,10 @@
     </row>
     <row r="137" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>10</v>
@@ -18173,10 +18201,10 @@
     </row>
     <row r="138" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B138" s="5" t="s">
         <v>1139</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>1140</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>10</v>
@@ -18189,18 +18217,18 @@
         <v>211</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B139" s="5" t="s">
         <v>1141</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>1142</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>104</v>
@@ -18213,21 +18241,24 @@
         <v>211</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="143" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="32" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B143" s="44" t="s">
-        <v>1349</v>
+        <v>1343</v>
+      </c>
+      <c r="F143" s="56" t="s">
+        <v>1403</v>
       </c>
       <c r="K143" s="44" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="144" spans="1:17" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -18279,10 +18310,10 @@
     </row>
     <row r="145" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="C145" s="11" t="s">
         <v>17</v>
@@ -18297,7 +18328,7 @@
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
       <c r="K145" s="50" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="L145" s="51" t="s">
         <v>17</v>
@@ -18310,18 +18341,18 @@
         <v>211</v>
       </c>
       <c r="P145" s="52" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="Q145" s="52" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="146" spans="1:18" ht="115.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="C146" s="11" t="s">
         <v>104</v>
@@ -18334,16 +18365,16 @@
         <v>211</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="H146" s="11" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="K146" s="50" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="L146" s="51" t="s">
         <v>104</v>
@@ -18358,15 +18389,15 @@
       <c r="P146" s="51"/>
       <c r="Q146" s="51"/>
       <c r="R146" s="6" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="147" spans="1:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C147" s="11" t="s">
         <v>10</v>
@@ -18379,16 +18410,16 @@
         <v>211</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="H147" s="11" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I147" s="11" t="s">
         <v>1356</v>
       </c>
-      <c r="I147" s="11" t="s">
-        <v>1362</v>
-      </c>
       <c r="K147" s="50" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="L147" s="51" t="s">
         <v>10</v>
@@ -18401,21 +18432,21 @@
         <v>211</v>
       </c>
       <c r="P147" s="52" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="Q147" s="52" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="R147" s="53" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="C148" s="11" t="s">
         <v>17</v>
@@ -18428,13 +18459,13 @@
         <v>211</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="H148" s="11" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="K148" s="50" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="L148" s="51" t="s">
         <v>17</v>
@@ -18454,7 +18485,7 @@
         <v>423</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="C149" s="11" t="s">
         <v>10</v>
@@ -18469,7 +18500,7 @@
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
       <c r="K149" s="50" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="L149" s="51" t="s">
         <v>10</v>
@@ -18486,10 +18517,10 @@
     </row>
     <row r="150" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C150" s="11" t="s">
         <v>17</v>
@@ -18504,7 +18535,7 @@
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
       <c r="K150" s="50" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="L150" s="51" t="s">
         <v>17</v>
@@ -18521,10 +18552,10 @@
     </row>
     <row r="151" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C151" s="11" t="s">
         <v>10</v>
@@ -18537,13 +18568,13 @@
         <v>211</v>
       </c>
       <c r="G151" s="11" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="H151" s="11" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="K151" s="50" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="L151" s="51" t="s">
         <v>10</v>
@@ -18560,10 +18591,10 @@
     </row>
     <row r="152" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="C152" s="11" t="s">
         <v>10</v>
@@ -18576,13 +18607,13 @@
         <v>211</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="H152" s="11" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="K152" s="50" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="L152" s="51" t="s">
         <v>10</v>
@@ -18597,12 +18628,12 @@
       <c r="P152" s="51"/>
       <c r="Q152" s="51"/>
     </row>
-    <row r="153" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>1088</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="C153" s="11" t="s">
         <v>10</v>
@@ -18615,13 +18646,13 @@
         <v>210</v>
       </c>
       <c r="G153" s="11" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="H153" s="11" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="K153" s="50" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="L153" s="51" t="s">
         <v>10</v>
@@ -18636,12 +18667,12 @@
       <c r="P153" s="51"/>
       <c r="Q153" s="51"/>
     </row>
-    <row r="154" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="C154" s="11" t="s">
         <v>10</v>
@@ -18654,13 +18685,13 @@
         <v>211</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="H154" s="11" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="K154" s="50" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="L154" s="51" t="s">
         <v>10</v>
@@ -18677,7 +18708,7 @@
     </row>
     <row r="155" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>806</v>
@@ -18712,13 +18743,13 @@
     </row>
     <row r="159" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="33" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B159" s="44" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>0</v>
       </c>
@@ -18763,7 +18794,7 @@
       </c>
       <c r="G161" s="6"/>
       <c r="H161" s="8" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -18826,7 +18857,7 @@
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
     </row>
-    <row r="165" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>140</v>
       </c>
@@ -19054,7 +19085,7 @@
     </row>
     <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>328</v>
@@ -19072,15 +19103,15 @@
       <c r="G176" s="6"/>
       <c r="H176" s="6"/>
     </row>
-    <row r="181" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" ht="44.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="35" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B181" s="44" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>0</v>
       </c>
@@ -19108,10 +19139,10 @@
     </row>
     <row r="183" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>10</v>
@@ -19128,10 +19159,10 @@
     </row>
     <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>10</v>
@@ -19168,10 +19199,10 @@
     </row>
     <row r="186" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>10</v>
@@ -19208,10 +19239,10 @@
     </row>
     <row r="188" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>104</v>
@@ -19224,16 +19255,16 @@
         <v>210</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="H188" s="6"/>
     </row>
     <row r="189" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>10</v>
@@ -19250,10 +19281,10 @@
     </row>
     <row r="190" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>104</v>
@@ -19270,10 +19301,10 @@
     </row>
     <row r="191" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>10</v>
@@ -19288,12 +19319,12 @@
       <c r="G191" s="6"/>
       <c r="H191" s="6"/>
     </row>
-    <row r="192" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>104</v>
@@ -19306,16 +19337,16 @@
         <v>211</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="H192" s="6"/>
     </row>
     <row r="193" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>10</v>
@@ -19332,16 +19363,16 @@
     </row>
     <row r="194" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C194" s="6" t="s">
         <v>1177</v>
       </c>
-      <c r="B194" s="5" t="s">
+      <c r="D194" s="6" t="s">
         <v>1178</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D194" s="6" t="s">
-        <v>1180</v>
       </c>
       <c r="E194" s="6"/>
       <c r="F194" s="6" t="s">
@@ -19370,12 +19401,12 @@
       <c r="G195" s="6"/>
       <c r="H195" s="6"/>
     </row>
-    <row r="196" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>160</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>10</v>
@@ -19394,10 +19425,10 @@
     </row>
     <row r="197" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>10</v>
@@ -19412,12 +19443,12 @@
       <c r="G197" s="6"/>
       <c r="H197" s="6"/>
     </row>
-    <row r="198" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>10</v>
@@ -19434,10 +19465,10 @@
     </row>
     <row r="199" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>10</v>
@@ -19454,10 +19485,10 @@
     </row>
     <row r="200" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>10</v>
@@ -19474,10 +19505,10 @@
     </row>
     <row r="201" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>10</v>
@@ -19494,10 +19525,10 @@
     </row>
     <row r="202" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>10</v>
@@ -19514,10 +19545,10 @@
     </row>
     <row r="203" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>10</v>
@@ -19534,10 +19565,10 @@
     </row>
     <row r="204" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>10</v>
@@ -19554,10 +19585,10 @@
     </row>
     <row r="205" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>10</v>
@@ -19574,10 +19605,10 @@
     </row>
     <row r="206" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>10</v>
@@ -19594,10 +19625,10 @@
     </row>
     <row r="207" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>44</v>
@@ -19614,10 +19645,10 @@
     </row>
     <row r="208" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>10</v>
@@ -19634,13 +19665,13 @@
     </row>
     <row r="213" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="32" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B213" s="45" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>0</v>
       </c>
@@ -19685,7 +19716,7 @@
       </c>
       <c r="G215" s="6"/>
       <c r="H215" s="8" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -19873,10 +19904,10 @@
       </c>
       <c r="G224" s="6"/>
       <c r="H224" s="5" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>1078</v>
       </c>
@@ -19894,7 +19925,7 @@
         <v>211</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="H225" s="6"/>
     </row>
@@ -19982,7 +20013,7 @@
     </row>
     <row r="230" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B230" s="5" t="s">
         <v>328</v>
@@ -20002,13 +20033,13 @@
     </row>
     <row r="234" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="33" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B234" s="44" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>0</v>
       </c>
@@ -20036,10 +20067,10 @@
     </row>
     <row r="236" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="C236" s="6" t="s">
         <v>10</v>
@@ -20049,21 +20080,21 @@
       </c>
       <c r="E236" s="6"/>
       <c r="F236" s="6" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="G236" s="6" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H236" s="7" t="s">
         <v>1301</v>
-      </c>
-      <c r="H236" s="7" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="C237" s="6" t="s">
         <v>10</v>
@@ -20074,18 +20105,18 @@
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
       <c r="G237" s="6" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="H237" s="7" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>10</v>
@@ -20103,7 +20134,7 @@
         <v>140</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>10</v>
@@ -20114,10 +20145,10 @@
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
       <c r="G239" s="6" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="H239" s="6" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -20125,7 +20156,7 @@
         <v>1008</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C240" s="6" t="s">
         <v>10</v>
@@ -20138,12 +20169,12 @@
       <c r="G240" s="6"/>
       <c r="H240" s="6"/>
     </row>
-    <row r="241" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
         <v>1013</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>10</v>
@@ -20154,10 +20185,10 @@
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
       <c r="G241" s="6" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="H241" s="6" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -20165,7 +20196,7 @@
         <v>1005</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="C242" s="6" t="s">
         <v>104</v>
@@ -20201,7 +20232,7 @@
         <v>1018</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>104</v>
@@ -20212,10 +20243,10 @@
       <c r="E244" s="6"/>
       <c r="F244" s="6"/>
       <c r="G244" s="6" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="H244" s="6" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -20223,7 +20254,7 @@
         <v>108</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C245" s="6" t="s">
         <v>10</v>
@@ -20234,10 +20265,10 @@
       <c r="E245" s="6"/>
       <c r="F245" s="6"/>
       <c r="G245" s="6" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="H245" s="6" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -20256,10 +20287,10 @@
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
       <c r="G246" s="6" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="H246" s="6" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -20278,10 +20309,10 @@
       <c r="E247" s="6"/>
       <c r="F247" s="6"/>
       <c r="G247" s="6" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="H247" s="6" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -20289,7 +20320,7 @@
         <v>1037</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="C248" s="6" t="s">
         <v>10</v>
@@ -20302,12 +20333,12 @@
       <c r="G248" s="6"/>
       <c r="H248" s="6"/>
     </row>
-    <row r="249" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>44</v>
@@ -20318,10 +20349,10 @@
       <c r="E249" s="6"/>
       <c r="F249" s="6"/>
       <c r="G249" s="6" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="H249" s="6" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -20329,7 +20360,7 @@
         <v>1020</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>10</v>
@@ -20344,10 +20375,10 @@
     </row>
     <row r="251" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C251" s="6" t="s">
         <v>10</v>
@@ -20358,18 +20389,18 @@
       <c r="E251" s="6"/>
       <c r="F251" s="6"/>
       <c r="G251" s="6" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="H251" s="6" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C252" s="6" t="s">
         <v>10</v>
@@ -20384,10 +20415,10 @@
     </row>
     <row r="253" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C253" s="6" t="s">
         <v>10</v>
@@ -20402,16 +20433,16 @@
     </row>
     <row r="257" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="32" t="s">
-        <v>1222</v>
+        <v>1305</v>
       </c>
       <c r="B257" s="45" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="I257" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>0</v>
       </c>
@@ -20437,7 +20468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
         <v>1062</v>
       </c>
@@ -20455,13 +20486,13 @@
         <v>210</v>
       </c>
       <c r="G259" s="6" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="H259" s="7" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
         <v>142</v>
       </c>
@@ -20479,13 +20510,13 @@
         <v>210</v>
       </c>
       <c r="G260" s="6" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="H260" s="7" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
         <v>317</v>
       </c>
@@ -20503,13 +20534,13 @@
         <v>211</v>
       </c>
       <c r="G261" s="6" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="H261" s="7" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
         <v>208</v>
       </c>
@@ -20527,10 +20558,10 @@
         <v>211</v>
       </c>
       <c r="G262" s="6" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="H262" s="6" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -20551,13 +20582,13 @@
         <v>211</v>
       </c>
       <c r="G263" s="6" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="H263" s="6" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
         <v>1065</v>
       </c>
@@ -20575,13 +20606,13 @@
         <v>211</v>
       </c>
       <c r="G264" s="6" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H264" s="6" t="s">
         <v>1311</v>
       </c>
-      <c r="H264" s="6" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="265" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
         <v>1067</v>
       </c>
@@ -20599,10 +20630,10 @@
         <v>211</v>
       </c>
       <c r="G265" s="6" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -20625,7 +20656,7 @@
       <c r="G266" s="6"/>
       <c r="H266" s="6"/>
     </row>
-    <row r="267" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
         <v>1073</v>
       </c>
@@ -20643,10 +20674,10 @@
         <v>211</v>
       </c>
       <c r="G267" s="6" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="H267" s="6" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -20669,7 +20700,7 @@
       <c r="G268" s="6"/>
       <c r="H268" s="6"/>
     </row>
-    <row r="269" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
         <v>1078</v>
       </c>
@@ -20687,10 +20718,10 @@
         <v>211</v>
       </c>
       <c r="G269" s="6" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="H269" s="6" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -20713,7 +20744,7 @@
       <c r="G270" s="6"/>
       <c r="H270" s="6"/>
     </row>
-    <row r="271" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
         <v>1082</v>
       </c>
@@ -20731,10 +20762,10 @@
         <v>211</v>
       </c>
       <c r="G271" s="6" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="H271" s="6" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -20779,7 +20810,7 @@
     </row>
     <row r="274" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B274" s="5" t="s">
         <v>328</v>

--- a/重庆二师_Dev/doc/ods-fdm -zkc.xlsx
+++ b/重庆二师_Dev/doc/ods-fdm -zkc.xlsx
@@ -5884,10 +5884,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>4、科研-论文发表信息表(edu_fdm_ky_lwfb)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>S_PAPER</t>
   </si>
   <si>
@@ -7086,10 +7082,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>5、科研-项目基本信息表(edu_fdm_ky_xm)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>(没有抽取，无数据)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -7144,6 +7136,14 @@
       </rPr>
       <t>(edu_fdm_ky_zz)</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、科研-论文发表信息表(edu_fdm_ky_lwfb)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、科研-项目基本信息表(edu_fdm_ky_xm)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -11028,7 +11028,7 @@
         <v>816</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>936</v>
@@ -11052,7 +11052,7 @@
         <v>816</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>937</v>
@@ -15559,7 +15559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
       <selection activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
@@ -15586,7 +15586,7 @@
         <v>1060</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -15956,7 +15956,7 @@
         <v>1061</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -16809,7 +16809,7 @@
         <v>1236</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -16870,10 +16870,10 @@
         <v>211</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -16881,7 +16881,7 @@
         <v>1078</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>10</v>
@@ -16897,7 +16897,7 @@
         <v>1225</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -16905,7 +16905,7 @@
         <v>1080</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>10</v>
@@ -16942,7 +16942,7 @@
         <v>211</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>1223</v>
@@ -16956,7 +16956,7 @@
         <v>1085</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>10</v>
@@ -17013,10 +17013,10 @@
     </row>
     <row r="79" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="32" t="s">
-        <v>1249</v>
+        <v>1403</v>
       </c>
       <c r="B79" s="44" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -17063,18 +17063,18 @@
         <v>1224</v>
       </c>
       <c r="G81" s="39" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H81" s="54" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>10</v>
@@ -17085,15 +17085,15 @@
       <c r="E82" s="39"/>
       <c r="F82" s="39"/>
       <c r="G82" s="39" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H82" s="40" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>1245</v>
@@ -17111,10 +17111,10 @@
     </row>
     <row r="84" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>10</v>
@@ -17129,10 +17129,10 @@
     </row>
     <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>104</v>
@@ -17144,7 +17144,7 @@
       <c r="F85" s="39"/>
       <c r="G85" s="39"/>
       <c r="H85" s="55" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I85" s="42"/>
     </row>
@@ -17156,18 +17156,18 @@
         <v>1241</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D86" s="36" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="E86" s="39"/>
       <c r="F86" s="39"/>
       <c r="G86" s="39" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H86" s="39" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -17178,18 +17178,18 @@
         <v>1240</v>
       </c>
       <c r="C87" s="6" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D87" s="36" t="s">
         <v>1391</v>
-      </c>
-      <c r="D87" s="36" t="s">
-        <v>1392</v>
       </c>
       <c r="E87" s="39"/>
       <c r="F87" s="39"/>
       <c r="G87" s="39" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H87" s="39" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -17203,15 +17203,15 @@
         <v>10</v>
       </c>
       <c r="D88" s="36" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="E88" s="39"/>
       <c r="F88" s="39"/>
       <c r="G88" s="39" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H88" s="39" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -17225,7 +17225,7 @@
         <v>10</v>
       </c>
       <c r="D89" s="36" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="E89" s="39"/>
       <c r="F89" s="39"/>
@@ -17240,26 +17240,26 @@
         <v>1243</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D90" s="36" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="E90" s="39"/>
       <c r="F90" s="39"/>
       <c r="G90" s="39" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H90" s="39" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>10</v>
@@ -17274,10 +17274,10 @@
     </row>
     <row r="92" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>10</v>
@@ -17290,15 +17290,15 @@
       <c r="G92" s="39"/>
       <c r="H92" s="39"/>
       <c r="I92" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>104</v>
@@ -17313,7 +17313,7 @@
     </row>
     <row r="94" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>1247</v>
@@ -17322,21 +17322,21 @@
         <v>10</v>
       </c>
       <c r="D94" s="36" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="E94" s="39"/>
       <c r="F94" s="39"/>
       <c r="G94" s="41" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H94" s="41" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I94" s="42"/>
     </row>
     <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>1248</v>
@@ -17350,18 +17350,18 @@
       <c r="E95" s="39"/>
       <c r="F95" s="39"/>
       <c r="G95" s="39" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H95" s="39" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="32" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="B99" s="46" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -17408,10 +17408,10 @@
         <v>210</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17432,10 +17432,10 @@
         <v>211</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17456,10 +17456,10 @@
         <v>210</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17467,7 +17467,7 @@
         <v>1092</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>10</v>
@@ -17500,10 +17500,10 @@
         <v>211</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -17511,7 +17511,7 @@
         <v>1095</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>10</v>
@@ -17524,10 +17524,10 @@
         <v>211</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17535,7 +17535,7 @@
         <v>1096</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>10</v>
@@ -17548,10 +17548,10 @@
         <v>211</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17559,7 +17559,7 @@
         <v>1097</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>10</v>
@@ -17579,7 +17579,7 @@
         <v>1098</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>10</v>
@@ -17599,7 +17599,7 @@
         <v>1013</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>104</v>
@@ -17612,10 +17612,10 @@
         <v>211</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17643,7 +17643,7 @@
         <v>1101</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>104</v>
@@ -17656,10 +17656,10 @@
         <v>211</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17667,7 +17667,7 @@
         <v>1008</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>10</v>
@@ -17680,10 +17680,10 @@
         <v>211</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -17745,7 +17745,7 @@
       </c>
       <c r="G116" s="34"/>
       <c r="H116" s="6" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17753,7 +17753,7 @@
         <v>1022</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>10</v>
@@ -17773,7 +17773,7 @@
         <v>1107</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>10</v>
@@ -17786,10 +17786,10 @@
         <v>211</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17797,7 +17797,7 @@
         <v>1108</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>10</v>
@@ -17810,10 +17810,10 @@
         <v>211</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17834,10 +17834,10 @@
         <v>211</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H120" s="48" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17938,10 +17938,10 @@
         <v>211</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -17969,7 +17969,7 @@
         <v>1010</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>104</v>
@@ -18002,10 +18002,10 @@
         <v>211</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="129" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -18066,10 +18066,10 @@
         <v>211</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="132" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -18117,7 +18117,7 @@
         <v>1134</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>10</v>
@@ -18137,7 +18137,7 @@
         <v>1135</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>10</v>
@@ -18150,13 +18150,13 @@
         <v>211</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H135" s="6" t="s">
+        <v>1395</v>
+      </c>
+      <c r="I135" t="s">
         <v>1396</v>
-      </c>
-      <c r="I135" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="136" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -18164,7 +18164,7 @@
         <v>1136</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>10</v>
@@ -18184,7 +18184,7 @@
         <v>1137</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>10</v>
@@ -18217,10 +18217,10 @@
         <v>211</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="139" spans="1:17" ht="30" thickBot="1" x14ac:dyDescent="0.3">
@@ -18241,10 +18241,10 @@
         <v>211</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="143" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -18252,13 +18252,13 @@
         <v>1151</v>
       </c>
       <c r="B143" s="44" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="F143" s="56" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="K143" s="44" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="144" spans="1:17" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -18313,7 +18313,7 @@
         <v>1142</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C145" s="11" t="s">
         <v>17</v>
@@ -18328,7 +18328,7 @@
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
       <c r="K145" s="50" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="L145" s="51" t="s">
         <v>17</v>
@@ -18341,10 +18341,10 @@
         <v>211</v>
       </c>
       <c r="P145" s="52" t="s">
+        <v>1351</v>
+      </c>
+      <c r="Q145" s="52" t="s">
         <v>1352</v>
-      </c>
-      <c r="Q145" s="52" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="146" spans="1:18" ht="115.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -18352,7 +18352,7 @@
         <v>1143</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C146" s="11" t="s">
         <v>104</v>
@@ -18365,16 +18365,16 @@
         <v>211</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="H146" s="11" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="K146" s="50" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="L146" s="51" t="s">
         <v>104</v>
@@ -18389,7 +18389,7 @@
       <c r="P146" s="51"/>
       <c r="Q146" s="51"/>
       <c r="R146" s="6" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="147" spans="1:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
@@ -18397,7 +18397,7 @@
         <v>1144</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C147" s="11" t="s">
         <v>10</v>
@@ -18410,16 +18410,16 @@
         <v>211</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H147" s="11" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="K147" s="50" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="L147" s="51" t="s">
         <v>10</v>
@@ -18432,13 +18432,13 @@
         <v>211</v>
       </c>
       <c r="P147" s="52" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="Q147" s="52" t="s">
+        <v>1353</v>
+      </c>
+      <c r="R147" s="53" t="s">
         <v>1354</v>
-      </c>
-      <c r="R147" s="53" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="148" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -18446,7 +18446,7 @@
         <v>1145</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C148" s="11" t="s">
         <v>17</v>
@@ -18459,13 +18459,13 @@
         <v>211</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H148" s="11" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="K148" s="50" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="L148" s="51" t="s">
         <v>17</v>
@@ -18485,7 +18485,7 @@
         <v>423</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C149" s="11" t="s">
         <v>10</v>
@@ -18500,7 +18500,7 @@
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
       <c r="K149" s="50" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="L149" s="51" t="s">
         <v>10</v>
@@ -18520,7 +18520,7 @@
         <v>1146</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C150" s="11" t="s">
         <v>17</v>
@@ -18535,7 +18535,7 @@
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
       <c r="K150" s="50" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="L150" s="51" t="s">
         <v>17</v>
@@ -18555,7 +18555,7 @@
         <v>1147</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C151" s="11" t="s">
         <v>10</v>
@@ -18568,13 +18568,13 @@
         <v>211</v>
       </c>
       <c r="G151" s="11" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H151" s="11" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K151" s="50" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="L151" s="51" t="s">
         <v>10</v>
@@ -18594,7 +18594,7 @@
         <v>1148</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C152" s="11" t="s">
         <v>10</v>
@@ -18607,13 +18607,13 @@
         <v>211</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H152" s="11" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="K152" s="50" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="L152" s="51" t="s">
         <v>10</v>
@@ -18633,7 +18633,7 @@
         <v>1088</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C153" s="11" t="s">
         <v>10</v>
@@ -18646,13 +18646,13 @@
         <v>210</v>
       </c>
       <c r="G153" s="11" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H153" s="11" t="s">
         <v>1326</v>
       </c>
-      <c r="H153" s="11" t="s">
-        <v>1327</v>
-      </c>
       <c r="K153" s="50" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="L153" s="51" t="s">
         <v>10</v>
@@ -18672,7 +18672,7 @@
         <v>1149</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C154" s="11" t="s">
         <v>10</v>
@@ -18685,13 +18685,13 @@
         <v>211</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H154" s="11" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="K154" s="50" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="L154" s="51" t="s">
         <v>10</v>
@@ -18746,7 +18746,7 @@
         <v>1154</v>
       </c>
       <c r="B159" s="44" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="160" spans="1:18" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -19108,7 +19108,7 @@
         <v>1204</v>
       </c>
       <c r="B181" s="44" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -19668,7 +19668,7 @@
         <v>1207</v>
       </c>
       <c r="B213" s="45" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -20036,7 +20036,7 @@
         <v>1219</v>
       </c>
       <c r="B234" s="44" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -20070,7 +20070,7 @@
         <v>1208</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C236" s="6" t="s">
         <v>10</v>
@@ -20083,10 +20083,10 @@
         <v>1224</v>
       </c>
       <c r="G236" s="6" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H236" s="7" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -20094,7 +20094,7 @@
         <v>1209</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C237" s="6" t="s">
         <v>10</v>
@@ -20105,10 +20105,10 @@
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
       <c r="G237" s="6" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H237" s="7" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -20116,7 +20116,7 @@
         <v>1210</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>10</v>
@@ -20134,7 +20134,7 @@
         <v>140</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>10</v>
@@ -20145,10 +20145,10 @@
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
       <c r="G239" s="6" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H239" s="6" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -20156,7 +20156,7 @@
         <v>1008</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C240" s="6" t="s">
         <v>10</v>
@@ -20174,7 +20174,7 @@
         <v>1013</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>10</v>
@@ -20185,10 +20185,10 @@
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
       <c r="G241" s="6" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H241" s="6" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -20196,7 +20196,7 @@
         <v>1005</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C242" s="6" t="s">
         <v>104</v>
@@ -20232,7 +20232,7 @@
         <v>1018</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>104</v>
@@ -20243,10 +20243,10 @@
       <c r="E244" s="6"/>
       <c r="F244" s="6"/>
       <c r="G244" s="6" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H244" s="6" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -20265,10 +20265,10 @@
       <c r="E245" s="6"/>
       <c r="F245" s="6"/>
       <c r="G245" s="6" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H245" s="6" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -20287,10 +20287,10 @@
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
       <c r="G246" s="6" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="H246" s="6" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -20309,10 +20309,10 @@
       <c r="E247" s="6"/>
       <c r="F247" s="6"/>
       <c r="G247" s="6" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H247" s="6" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -20320,7 +20320,7 @@
         <v>1037</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C248" s="6" t="s">
         <v>10</v>
@@ -20349,10 +20349,10 @@
       <c r="E249" s="6"/>
       <c r="F249" s="6"/>
       <c r="G249" s="6" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H249" s="6" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -20360,7 +20360,7 @@
         <v>1020</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>10</v>
@@ -20389,10 +20389,10 @@
       <c r="E251" s="6"/>
       <c r="F251" s="6"/>
       <c r="G251" s="6" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H251" s="6" t="s">
         <v>1296</v>
-      </c>
-      <c r="H251" s="6" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -20433,13 +20433,13 @@
     </row>
     <row r="257" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="32" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B257" s="45" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="I257" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -20486,10 +20486,10 @@
         <v>210</v>
       </c>
       <c r="G259" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="H259" s="7" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -20510,10 +20510,10 @@
         <v>210</v>
       </c>
       <c r="G260" s="6" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H260" s="7" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -20534,10 +20534,10 @@
         <v>211</v>
       </c>
       <c r="G261" s="6" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H261" s="7" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -20558,7 +20558,7 @@
         <v>211</v>
       </c>
       <c r="G262" s="6" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H262" s="6" t="s">
         <v>1235</v>
@@ -20582,10 +20582,10 @@
         <v>211</v>
       </c>
       <c r="G263" s="6" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H263" s="6" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="264" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -20606,10 +20606,10 @@
         <v>211</v>
       </c>
       <c r="G264" s="6" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H264" s="6" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="265" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -20630,10 +20630,10 @@
         <v>211</v>
       </c>
       <c r="G265" s="6" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="266" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -20674,10 +20674,10 @@
         <v>211</v>
       </c>
       <c r="G267" s="6" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H267" s="6" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -20718,10 +20718,10 @@
         <v>211</v>
       </c>
       <c r="G269" s="6" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H269" s="6" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -20762,10 +20762,10 @@
         <v>211</v>
       </c>
       <c r="G271" s="6" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H271" s="6" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
